--- a/3-JavaScript/Mashq/JS_KORIN_1.xlsx
+++ b/3-JavaScript/Mashq/JS_KORIN_1.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5411" uniqueCount="3144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5416" uniqueCount="3148">
   <si>
     <t>№</t>
   </si>
@@ -9205,9 +9205,6 @@
     <t>Vazifa 14</t>
   </si>
   <si>
-    <t>Vazifa 15 Vazifa 16</t>
-  </si>
-  <si>
     <t>window</t>
   </si>
   <si>
@@ -9539,6 +9536,21 @@
   </si>
   <si>
     <t>Логические операторы</t>
+  </si>
+  <si>
+    <t>Vazifa 15</t>
+  </si>
+  <si>
+    <t>Vazifa 16</t>
+  </si>
+  <si>
+    <t>Vazifa 17      Vazifa 18      Vazifa 19</t>
+  </si>
+  <si>
+    <t>Vazifa 20 Vazifa 21</t>
+  </si>
+  <si>
+    <t>Vazifa 22 Vazifa 23 Vazifa 24 Vazifa 25</t>
   </si>
 </sst>
 </file>
@@ -9989,7 +10001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -10082,38 +10094,28 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10151,14 +10153,42 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -10209,7 +10239,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10251,7 +10281,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10293,7 +10323,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10335,7 +10365,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10377,7 +10407,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10419,7 +10449,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10461,7 +10491,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -26089,8 +26119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CA219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AL50" sqref="AL50"/>
+    <sheetView tabSelected="1" topLeftCell="AA16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AG24" sqref="AG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
@@ -26178,92 +26208,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:79" ht="26.25">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="63" t="s">
         <v>2725</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="64"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="63" t="s">
+      <c r="AN1" s="65" t="s">
         <v>2724</v>
       </c>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="64"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="66"/>
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
-      <c r="AY1" s="65" t="s">
+      <c r="AY1" s="67" t="s">
         <v>2723</v>
       </c>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="65"/>
-      <c r="BJ1" s="65"/>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="65"/>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="66"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67"/>
+      <c r="BE1" s="67"/>
+      <c r="BF1" s="67"/>
+      <c r="BG1" s="67"/>
+      <c r="BH1" s="67"/>
+      <c r="BI1" s="67"/>
+      <c r="BJ1" s="67"/>
+      <c r="BK1" s="67"/>
+      <c r="BL1" s="67"/>
+      <c r="BM1" s="67"/>
+      <c r="BN1" s="67"/>
+      <c r="BO1" s="67"/>
+      <c r="BP1" s="67"/>
+      <c r="BQ1" s="67"/>
+      <c r="BR1" s="67"/>
+      <c r="BS1" s="67"/>
+      <c r="BT1" s="67"/>
+      <c r="BU1" s="68"/>
       <c r="BV1" s="19"/>
-      <c r="BW1" s="67" t="s">
+      <c r="BW1" s="69" t="s">
         <v>3020</v>
       </c>
-      <c r="BX1" s="67"/>
-      <c r="BY1" s="67"/>
-      <c r="BZ1" s="67"/>
-      <c r="CA1" s="67"/>
+      <c r="BX1" s="69"/>
+      <c r="BY1" s="69"/>
+      <c r="BZ1" s="69"/>
+      <c r="CA1" s="69"/>
     </row>
     <row r="2" spans="2:79" ht="28.5">
       <c r="B2" s="30"/>
@@ -26302,11 +26332,11 @@
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
       <c r="AK2" s="16"/>
-      <c r="AL2" s="71" t="s">
-        <v>3036</v>
-      </c>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
+      <c r="AL2" s="73" t="s">
+        <v>3035</v>
+      </c>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
       <c r="AO2" s="17"/>
       <c r="AP2" s="17"/>
       <c r="AQ2" s="17"/>
@@ -26389,7 +26419,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="25" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="AO3" s="17"/>
       <c r="AP3" s="17"/>
@@ -26708,7 +26738,7 @@
       <c r="AI7" s="15"/>
       <c r="AJ7" s="15"/>
       <c r="AK7" s="16"/>
-      <c r="AL7" s="68" t="s">
+      <c r="AL7" s="70" t="s">
         <v>3023</v>
       </c>
       <c r="AM7" s="22">
@@ -26794,7 +26824,7 @@
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
       <c r="AK8" s="16"/>
-      <c r="AL8" s="69"/>
+      <c r="AL8" s="71"/>
       <c r="AM8" s="8">
         <v>2</v>
       </c>
@@ -26878,7 +26908,7 @@
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
       <c r="AK9" s="16"/>
-      <c r="AL9" s="69"/>
+      <c r="AL9" s="71"/>
       <c r="AM9" s="8">
         <v>3</v>
       </c>
@@ -26900,7 +26930,7 @@
       <c r="BA9" s="19"/>
       <c r="BB9" s="19"/>
       <c r="BC9" s="28" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="BD9" s="19"/>
       <c r="BE9" s="19"/>
@@ -26964,7 +26994,7 @@
       <c r="AI10" s="15"/>
       <c r="AJ10" s="15"/>
       <c r="AK10" s="16"/>
-      <c r="AL10" s="70"/>
+      <c r="AL10" s="72"/>
       <c r="AM10" s="23">
         <v>4</v>
       </c>
@@ -27047,13 +27077,15 @@
       <c r="AH11" s="15"/>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="8">
+      <c r="AK11" s="58"/>
+      <c r="AL11" s="61" t="s">
+        <v>3146</v>
+      </c>
+      <c r="AM11" s="22">
         <v>5</v>
       </c>
-      <c r="AN11" s="4" t="s">
-        <v>849</v>
+      <c r="AN11" s="44" t="s">
+        <v>848</v>
       </c>
       <c r="AO11" s="17"/>
       <c r="AP11" s="17"/>
@@ -27095,7 +27127,7 @@
       <c r="BZ11" s="21"/>
       <c r="CA11" s="21"/>
     </row>
-    <row r="12" spans="2:79" ht="26.25">
+    <row r="12" spans="2:79" ht="27" thickBot="1">
       <c r="B12" s="30"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -27131,13 +27163,13 @@
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
       <c r="AJ12" s="15"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="2"/>
-      <c r="AM12" s="8">
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="62"/>
+      <c r="AM12" s="23">
         <v>6</v>
       </c>
-      <c r="AN12" s="4" t="s">
-        <v>850</v>
+      <c r="AN12" s="46" t="s">
+        <v>846</v>
       </c>
       <c r="AO12" s="17"/>
       <c r="AP12" s="17"/>
@@ -27221,7 +27253,7 @@
         <v>7</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>851</v>
+        <v>892</v>
       </c>
       <c r="AO13" s="17"/>
       <c r="AP13" s="17"/>
@@ -27305,7 +27337,7 @@
         <v>8</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>852</v>
+        <v>893</v>
       </c>
       <c r="AO14" s="17"/>
       <c r="AP14" s="17"/>
@@ -27389,7 +27421,7 @@
         <v>9</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AO15" s="17"/>
       <c r="AP15" s="17"/>
@@ -27473,7 +27505,7 @@
         <v>10</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AO16" s="17"/>
       <c r="AP16" s="17"/>
@@ -27557,7 +27589,7 @@
         <v>11</v>
       </c>
       <c r="AN17" s="4" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="AO17" s="17"/>
       <c r="AP17" s="17"/>
@@ -27604,7 +27636,7 @@
         <v>12</v>
       </c>
       <c r="AN18" s="4" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="19" spans="1:79" s="3" customFormat="1" ht="27" thickBot="1">
@@ -27648,19 +27680,19 @@
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>0</v>
@@ -27690,13 +27722,13 @@
         <v>0</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="AC19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="AE19" s="10" t="s">
         <v>0</v>
@@ -27721,7 +27753,7 @@
         <v>13</v>
       </c>
       <c r="AN19" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AO19" s="3" t="s">
         <v>0</v>
@@ -27778,7 +27810,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -27802,7 +27834,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -27820,16 +27852,16 @@
         <v>1</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="Q20" s="2">
         <v>1</v>
       </c>
       <c r="R20" s="29" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="T20" s="36" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="U20" s="2">
         <v>1</v>
@@ -27853,18 +27885,18 @@
         <v>1</v>
       </c>
       <c r="AB20" s="29" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="AC20" s="38">
         <v>1</v>
       </c>
       <c r="AD20" s="39" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="AF20" s="43" t="s">
-        <v>3139</v>
-      </c>
-      <c r="AG20" s="54" t="s">
+        <v>3138</v>
+      </c>
+      <c r="AG20" s="79" t="s">
         <v>3028</v>
       </c>
       <c r="AH20" s="22">
@@ -27884,7 +27916,7 @@
         <v>14</v>
       </c>
       <c r="AN20" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AO20" s="2">
         <v>1</v>
@@ -27910,7 +27942,7 @@
       <c r="AV20" s="9" t="s">
         <v>1126</v>
       </c>
-      <c r="AW20" s="50" t="s">
+      <c r="AW20" s="75" t="s">
         <v>3024</v>
       </c>
       <c r="AX20" s="22">
@@ -27923,7 +27955,7 @@
       <c r="BV20" s="2">
         <v>1</v>
       </c>
-      <c r="BW20" s="73" t="s">
+      <c r="BW20" s="50" t="s">
         <v>2439</v>
       </c>
       <c r="BX20" s="2">
@@ -27944,7 +27976,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -27956,7 +27988,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="G21" s="2">
         <v>2</v>
@@ -27998,7 +28030,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="29" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="U21" s="2">
         <v>2</v>
@@ -28020,13 +28052,13 @@
       </c>
       <c r="AA21" s="38"/>
       <c r="AB21" s="29" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="AC21" s="38">
         <v>2</v>
       </c>
       <c r="AD21" s="39" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="AE21" s="8">
         <v>1</v>
@@ -28034,7 +28066,7 @@
       <c r="AF21" s="40" t="s">
         <v>2687</v>
       </c>
-      <c r="AG21" s="55"/>
+      <c r="AG21" s="80"/>
       <c r="AH21" s="8">
         <v>2</v>
       </c>
@@ -28052,7 +28084,7 @@
         <v>15</v>
       </c>
       <c r="AN21" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AO21" s="2">
         <v>2</v>
@@ -28078,7 +28110,7 @@
       <c r="AV21" s="9" t="s">
         <v>1127</v>
       </c>
-      <c r="AW21" s="51"/>
+      <c r="AW21" s="76"/>
       <c r="AX21" s="23">
         <v>2</v>
       </c>
@@ -28146,7 +28178,7 @@
         <v>3</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="O22" s="2">
         <v>3</v>
@@ -28158,13 +28190,13 @@
         <v>3</v>
       </c>
       <c r="R22" s="29" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="S22" s="2">
         <v>2</v>
       </c>
       <c r="T22" s="29" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="U22" s="2">
         <v>3</v>
@@ -28186,21 +28218,21 @@
       </c>
       <c r="AA22" s="38"/>
       <c r="AB22" s="29" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="AC22" s="38">
         <v>3</v>
       </c>
       <c r="AD22" s="39" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="AE22" s="8">
         <v>2</v>
       </c>
       <c r="AF22" s="40" t="s">
-        <v>3114</v>
-      </c>
-      <c r="AG22" s="56"/>
+        <v>3113</v>
+      </c>
+      <c r="AG22" s="81"/>
       <c r="AH22" s="23">
         <v>3</v>
       </c>
@@ -28213,7 +28245,7 @@
         <v>16</v>
       </c>
       <c r="AN22" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AO22" s="2">
         <v>3</v>
@@ -28243,7 +28275,7 @@
       <c r="AX22" s="22">
         <v>3</v>
       </c>
-      <c r="AY22" s="78" t="s">
+      <c r="AY22" s="55" t="s">
         <v>870</v>
       </c>
       <c r="AZ22" s="3"/>
@@ -28308,13 +28340,13 @@
         <v>4</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="O23" s="2">
         <v>4</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="Q23" s="2">
         <v>4</v>
@@ -28326,7 +28358,7 @@
         <v>3</v>
       </c>
       <c r="T23" s="29" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="U23" s="2">
         <v>4</v>
@@ -28348,13 +28380,13 @@
       </c>
       <c r="AA23" s="38"/>
       <c r="AB23" s="29" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="AC23" s="38">
         <v>4</v>
       </c>
       <c r="AD23" s="39" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="AE23" s="8">
         <v>3</v>
@@ -28377,7 +28409,7 @@
         <v>17</v>
       </c>
       <c r="AN23" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AO23" s="2">
         <v>4</v>
@@ -28407,7 +28439,7 @@
       <c r="AX23" s="8">
         <v>4</v>
       </c>
-      <c r="AY23" s="79" t="s">
+      <c r="AY23" s="56" t="s">
         <v>851</v>
       </c>
       <c r="AZ23" s="3"/>
@@ -28424,7 +28456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:79" ht="27">
+    <row r="24" spans="1:79" ht="27.75" thickBot="1">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -28465,7 +28497,7 @@
         <v>5</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="O24" s="2">
         <v>5</v>
@@ -28483,7 +28515,7 @@
         <v>4</v>
       </c>
       <c r="T24" s="35" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="U24" s="4"/>
       <c r="W24" s="2">
@@ -28495,31 +28527,34 @@
       <c r="Z24" s="38"/>
       <c r="AA24" s="38"/>
       <c r="AB24" s="29" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="AC24" s="38">
         <v>5</v>
       </c>
       <c r="AD24" s="29" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="AE24" s="8">
         <v>4</v>
       </c>
       <c r="AF24" s="41" t="s">
-        <v>3115</v>
+        <v>3114</v>
+      </c>
+      <c r="AG24" s="86" t="s">
+        <v>3147</v>
       </c>
       <c r="AH24" s="2">
         <v>5</v>
       </c>
       <c r="AI24" s="4" t="s">
-        <v>790</v>
+        <v>2709</v>
       </c>
       <c r="AM24" s="8">
         <v>18</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="AQ24" s="2">
         <v>5</v>
@@ -28543,7 +28578,7 @@
       <c r="AX24" s="8">
         <v>5</v>
       </c>
-      <c r="AY24" s="75" t="s">
+      <c r="AY24" s="52" t="s">
         <v>1181</v>
       </c>
       <c r="AZ24" s="3"/>
@@ -28613,7 +28648,7 @@
         <v>6</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="S25" s="2">
         <v>5</v>
@@ -28631,31 +28666,31 @@
       <c r="Z25" s="38"/>
       <c r="AA25" s="38"/>
       <c r="AB25" s="29" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="AC25" s="38">
         <v>6</v>
       </c>
       <c r="AD25" s="29" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="AE25" s="8">
         <v>5</v>
       </c>
       <c r="AF25" s="40" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="AH25" s="2">
         <v>6</v>
       </c>
       <c r="AI25" s="4" t="s">
-        <v>2716</v>
+        <v>790</v>
       </c>
       <c r="AM25" s="8">
         <v>19</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AQ25" s="2">
         <v>6</v>
@@ -28678,7 +28713,7 @@
       <c r="AX25" s="8">
         <v>6</v>
       </c>
-      <c r="AY25" s="76" t="s">
+      <c r="AY25" s="53" t="s">
         <v>1182</v>
       </c>
       <c r="AZ25" s="4"/>
@@ -28712,7 +28747,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="G26" s="2">
         <v>7</v>
@@ -28736,19 +28771,19 @@
         <v>7</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="O26" s="2">
         <v>7</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="Q26" s="2">
         <v>7</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="S26" s="2">
         <v>6</v>
@@ -28766,31 +28801,31 @@
       <c r="Z26" s="38"/>
       <c r="AA26" s="38"/>
       <c r="AB26" s="29" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="AC26" s="38">
         <v>7</v>
       </c>
       <c r="AD26" s="29" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="AE26" s="8">
         <v>6</v>
       </c>
       <c r="AF26" s="40" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="AH26" s="2">
         <v>7</v>
       </c>
       <c r="AI26" s="4" t="s">
-        <v>791</v>
+        <v>2716</v>
       </c>
       <c r="AM26" s="8">
         <v>20</v>
       </c>
       <c r="AN26" s="4" t="s">
-        <v>19</v>
+        <v>862</v>
       </c>
       <c r="AQ26" s="2">
         <v>7</v>
@@ -28808,7 +28843,7 @@
       <c r="AX26" s="8">
         <v>7</v>
       </c>
-      <c r="AY26" s="76" t="s">
+      <c r="AY26" s="53" t="s">
         <v>1183</v>
       </c>
       <c r="AZ26" s="4"/>
@@ -28836,7 +28871,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="G27" s="2">
         <v>8</v>
@@ -28860,7 +28895,7 @@
         <v>8</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="O27" s="2">
         <v>8</v>
@@ -28872,7 +28907,7 @@
         <v>8</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="S27" s="2">
         <v>7</v>
@@ -28890,31 +28925,31 @@
       <c r="Z27" s="38"/>
       <c r="AA27" s="38"/>
       <c r="AB27" s="29" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="AC27" s="38">
         <v>8</v>
       </c>
       <c r="AD27" s="29" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="AE27" s="8">
         <v>7</v>
       </c>
       <c r="AF27" s="40" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="AH27" s="2">
         <v>8</v>
       </c>
       <c r="AI27" s="4" t="s">
-        <v>2713</v>
+        <v>791</v>
       </c>
       <c r="AM27" s="8">
         <v>21</v>
       </c>
       <c r="AN27" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AQ27" s="2">
         <v>8</v>
@@ -28932,7 +28967,7 @@
       <c r="AX27" s="8">
         <v>8</v>
       </c>
-      <c r="AY27" s="76" t="s">
+      <c r="AY27" s="53" t="s">
         <v>1184</v>
       </c>
       <c r="AZ27" s="4"/>
@@ -28984,13 +29019,13 @@
         <v>9</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="O28" s="2">
         <v>9</v>
       </c>
       <c r="P28" s="29" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="Q28" s="2">
         <v>9</v>
@@ -29009,31 +29044,31 @@
       <c r="Z28" s="38"/>
       <c r="AA28" s="38"/>
       <c r="AB28" s="29" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="AC28" s="38">
         <v>9</v>
       </c>
       <c r="AD28" s="29" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="AE28" s="8">
         <v>8</v>
       </c>
       <c r="AF28" s="40" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="AH28" s="2">
         <v>9</v>
       </c>
       <c r="AI28" s="4" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c r="AM28" s="8">
         <v>22</v>
       </c>
       <c r="AN28" s="4" t="s">
-        <v>865</v>
+        <v>19</v>
       </c>
       <c r="AQ28" s="2">
         <v>9</v>
@@ -29051,7 +29086,7 @@
       <c r="AX28" s="8">
         <v>9</v>
       </c>
-      <c r="AY28" s="76" t="s">
+      <c r="AY28" s="53" t="s">
         <v>1195</v>
       </c>
       <c r="AZ28" s="4"/>
@@ -29104,19 +29139,19 @@
         <v>10</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="O29" s="2">
         <v>10</v>
       </c>
       <c r="P29" s="29" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="Q29" s="2">
         <v>10</v>
       </c>
       <c r="R29" s="29" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="S29" s="2">
         <v>9</v>
@@ -29129,25 +29164,25 @@
       <c r="Z29" s="38"/>
       <c r="AA29" s="38"/>
       <c r="AB29" s="29" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="AC29" s="29"/>
       <c r="AD29" s="29"/>
       <c r="AE29" s="29"/>
       <c r="AF29" s="43" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="AH29" s="2">
         <v>10</v>
       </c>
       <c r="AI29" s="4" t="s">
-        <v>789</v>
+        <v>2711</v>
       </c>
       <c r="AM29" s="8">
         <v>23</v>
       </c>
       <c r="AN29" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="AQ29" s="2">
         <v>10</v>
@@ -29165,7 +29200,7 @@
       <c r="AX29" s="8">
         <v>10</v>
       </c>
-      <c r="AY29" s="77" t="s">
+      <c r="AY29" s="54" t="s">
         <v>1196</v>
       </c>
       <c r="AZ29" s="4"/>
@@ -29218,7 +29253,7 @@
         <v>11</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -29226,17 +29261,17 @@
         <v>11</v>
       </c>
       <c r="R30" s="29" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="T30" s="37" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="U30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Z30" s="38"/>
       <c r="AA30" s="38"/>
       <c r="AB30" s="29" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="AC30" s="29"/>
       <c r="AD30" s="29"/>
@@ -29244,19 +29279,19 @@
         <v>1</v>
       </c>
       <c r="AF30" s="42" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="AH30" s="2">
         <v>11</v>
       </c>
       <c r="AI30" s="4" t="s">
-        <v>2709</v>
+        <v>789</v>
       </c>
       <c r="AM30" s="8">
         <v>24</v>
       </c>
       <c r="AN30" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="AQ30" s="2">
         <v>11</v>
@@ -29274,7 +29309,7 @@
       <c r="AX30" s="8">
         <v>11</v>
       </c>
-      <c r="AY30" s="80" t="s">
+      <c r="AY30" s="57" t="s">
         <v>1155</v>
       </c>
       <c r="AZ30" s="4"/>
@@ -29291,7 +29326,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="C31" s="2">
         <v>12</v>
@@ -29327,7 +29362,7 @@
         <v>12</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -29335,7 +29370,7 @@
         <v>12</v>
       </c>
       <c r="R31" s="29" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="S31" s="2">
         <v>10</v>
@@ -29345,7 +29380,7 @@
       </c>
       <c r="U31" s="4"/>
       <c r="AB31" s="29" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="AC31" s="29"/>
       <c r="AD31" s="29"/>
@@ -29353,7 +29388,7 @@
         <v>2</v>
       </c>
       <c r="AF31" s="42" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="AH31" s="2">
         <v>12</v>
@@ -29365,7 +29400,7 @@
         <v>25</v>
       </c>
       <c r="AN31" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AQ31" s="2">
         <v>12</v>
@@ -29399,7 +29434,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="C32" s="2">
         <v>13</v>
@@ -29435,7 +29470,7 @@
         <v>13</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -29457,7 +29492,7 @@
         <v>3</v>
       </c>
       <c r="AF32" s="42" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="AH32" s="2">
         <v>13</v>
@@ -29469,7 +29504,7 @@
         <v>26</v>
       </c>
       <c r="AN32" s="4" t="s">
-        <v>728</v>
+        <v>867</v>
       </c>
       <c r="AX32" s="8">
         <v>13</v>
@@ -29490,7 +29525,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="C33" s="2">
         <v>14</v>
@@ -29526,7 +29561,7 @@
         <v>14</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -29548,7 +29583,7 @@
         <v>4</v>
       </c>
       <c r="AF33" s="42" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="AH33" s="2">
         <v>14</v>
@@ -29560,7 +29595,7 @@
         <v>27</v>
       </c>
       <c r="AN33" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AX33" s="8">
         <v>14</v>
@@ -29582,7 +29617,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="C34" s="2">
         <v>15</v>
@@ -29618,7 +29653,7 @@
         <v>15</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -29640,7 +29675,7 @@
         <v>5</v>
       </c>
       <c r="AF34" s="42" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="AH34" s="2">
         <v>15</v>
@@ -29652,7 +29687,7 @@
         <v>28</v>
       </c>
       <c r="AN34" s="4" t="s">
-        <v>870</v>
+        <v>728</v>
       </c>
       <c r="AX34" s="8">
         <v>15</v>
@@ -29665,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="BC34" s="3" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="BE34" s="3"/>
       <c r="BF34" s="3"/>
@@ -29678,7 +29713,7 @@
         <v>0</v>
       </c>
       <c r="BM34" s="3" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="BP34" s="3" t="s">
         <v>0</v>
@@ -29716,7 +29751,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="E35" s="2">
         <v>16</v>
@@ -29760,7 +29795,7 @@
       </c>
       <c r="U35" s="4"/>
       <c r="AB35" s="29" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="AC35" s="29"/>
       <c r="AD35" s="29"/>
@@ -29768,7 +29803,7 @@
         <v>6</v>
       </c>
       <c r="AF35" s="42" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="AH35" s="2">
         <v>16</v>
@@ -29780,7 +29815,7 @@
         <v>29</v>
       </c>
       <c r="AN35" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="AX35" s="8">
         <v>16</v>
@@ -29789,7 +29824,7 @@
         <v>1162</v>
       </c>
       <c r="AZ35" s="4"/>
-      <c r="BA35" s="52" t="s">
+      <c r="BA35" s="77" t="s">
         <v>3025</v>
       </c>
       <c r="BB35" s="22">
@@ -29808,7 +29843,7 @@
       <c r="BL35" s="2">
         <v>1</v>
       </c>
-      <c r="BM35" s="73" t="s">
+      <c r="BM35" s="50" t="s">
         <v>1381</v>
       </c>
       <c r="BP35" s="2">
@@ -29877,7 +29912,7 @@
         <v>17</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
@@ -29899,7 +29934,7 @@
         <v>7</v>
       </c>
       <c r="AF36" s="42" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="AH36" s="2">
         <v>17</v>
@@ -29911,7 +29946,7 @@
         <v>30</v>
       </c>
       <c r="AN36" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AX36" s="8">
         <v>17</v>
@@ -29920,7 +29955,7 @@
         <v>1156</v>
       </c>
       <c r="AZ36" s="4"/>
-      <c r="BA36" s="53"/>
+      <c r="BA36" s="78"/>
       <c r="BB36" s="23">
         <v>2</v>
       </c>
@@ -30022,7 +30057,7 @@
       </c>
       <c r="U37" s="4"/>
       <c r="AF37" s="43" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="AH37" s="2">
         <v>18</v>
@@ -30034,7 +30069,7 @@
         <v>31</v>
       </c>
       <c r="AN37" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AX37" s="8">
         <v>18</v>
@@ -30046,7 +30081,7 @@
       <c r="BB37" s="22">
         <v>3</v>
       </c>
-      <c r="BC37" s="80" t="s">
+      <c r="BC37" s="57" t="s">
         <v>1360</v>
       </c>
       <c r="BE37" s="9"/>
@@ -30118,7 +30153,7 @@
         <v>19</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -30135,13 +30170,13 @@
         <v>1</v>
       </c>
       <c r="AF38" s="42" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="AM38" s="8">
         <v>32</v>
       </c>
       <c r="AN38" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AX38" s="8">
         <v>19</v>
@@ -30153,7 +30188,7 @@
       <c r="BB38" s="8">
         <v>4</v>
       </c>
-      <c r="BC38" s="80" t="s">
+      <c r="BC38" s="57" t="s">
         <v>1155</v>
       </c>
       <c r="BD38" s="4"/>
@@ -30237,13 +30272,13 @@
         <v>2</v>
       </c>
       <c r="AF39" s="42" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="AM39" s="8">
         <v>33</v>
       </c>
       <c r="AN39" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="AX39" s="8">
         <v>20</v>
@@ -30264,7 +30299,7 @@
       <c r="BL39" s="2">
         <v>5</v>
       </c>
-      <c r="BM39" s="73" t="s">
+      <c r="BM39" s="50" t="s">
         <v>1372</v>
       </c>
       <c r="BP39" s="2">
@@ -30332,13 +30367,13 @@
         <v>3</v>
       </c>
       <c r="AF40" s="42" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="AM40" s="8">
         <v>34</v>
       </c>
       <c r="AN40" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="AX40" s="8">
         <v>21</v>
@@ -30357,7 +30392,7 @@
       <c r="BL40" s="2">
         <v>6</v>
       </c>
-      <c r="BM40" s="73" t="s">
+      <c r="BM40" s="50" t="s">
         <v>1393</v>
       </c>
       <c r="BP40" s="2">
@@ -30408,7 +30443,7 @@
         <v>22</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -30425,13 +30460,13 @@
         <v>4</v>
       </c>
       <c r="AF41" s="42" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="AM41" s="8">
         <v>35</v>
       </c>
       <c r="AN41" s="4" t="s">
-        <v>854</v>
+        <v>875</v>
       </c>
       <c r="AX41" s="8">
         <v>22</v>
@@ -30463,7 +30498,7 @@
       <c r="BL41" s="2">
         <v>7</v>
       </c>
-      <c r="BM41" s="73" t="s">
+      <c r="BM41" s="50" t="s">
         <v>1203</v>
       </c>
       <c r="BP41" s="2">
@@ -30479,7 +30514,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="42" spans="1:75">
+    <row r="42" spans="1:75" ht="23.25" customHeight="1">
       <c r="A42" s="2">
         <v>23</v>
       </c>
@@ -30516,13 +30551,13 @@
         <v>5</v>
       </c>
       <c r="AF42" s="42" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="AM42" s="8">
         <v>36</v>
       </c>
       <c r="AN42" s="4" t="s">
-        <v>847</v>
+        <v>876</v>
       </c>
       <c r="AX42" s="8">
         <v>23</v>
@@ -30538,7 +30573,7 @@
       <c r="BC42" s="4" t="s">
         <v>1362</v>
       </c>
-      <c r="BD42" s="58" t="s">
+      <c r="BD42" s="82" t="s">
         <v>3030</v>
       </c>
       <c r="BE42" s="22">
@@ -30548,8 +30583,8 @@
         <v>3021</v>
       </c>
       <c r="BG42" s="9"/>
-      <c r="BH42" s="52" t="s">
-        <v>3032</v>
+      <c r="BH42" s="59" t="s">
+        <v>3143</v>
       </c>
       <c r="BI42" s="22">
         <v>1</v>
@@ -30557,9 +30592,15 @@
       <c r="BJ42" s="44" t="s">
         <v>1711</v>
       </c>
-      <c r="BK42" s="4"/>
-      <c r="BL42" s="4"/>
-      <c r="BM42" s="4"/>
+      <c r="BK42" s="59" t="s">
+        <v>3145</v>
+      </c>
+      <c r="BL42" s="2">
+        <v>8</v>
+      </c>
+      <c r="BM42" s="50" t="s">
+        <v>1672</v>
+      </c>
       <c r="BP42" s="2">
         <v>8</v>
       </c>
@@ -30573,7 +30614,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="43" spans="1:75">
+    <row r="43" spans="1:75" ht="23.25" customHeight="1">
       <c r="A43" s="2">
         <v>24</v>
       </c>
@@ -30610,13 +30651,13 @@
         <v>6</v>
       </c>
       <c r="AF43" s="42" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="AM43" s="8">
         <v>37</v>
       </c>
       <c r="AN43" s="4" t="s">
-        <v>879</v>
+        <v>854</v>
       </c>
       <c r="AX43" s="8">
         <v>24</v>
@@ -30632,7 +30673,7 @@
       <c r="BC43" s="4" t="s">
         <v>1363</v>
       </c>
-      <c r="BD43" s="59"/>
+      <c r="BD43" s="83"/>
       <c r="BE43" s="8">
         <v>2</v>
       </c>
@@ -30640,14 +30681,14 @@
         <v>1415</v>
       </c>
       <c r="BG43" s="9"/>
-      <c r="BH43" s="57"/>
+      <c r="BH43" s="60"/>
       <c r="BI43" s="8">
         <v>2</v>
       </c>
       <c r="BJ43" s="45" t="s">
         <v>1745</v>
       </c>
-      <c r="BK43" s="4"/>
+      <c r="BK43" s="60"/>
       <c r="BL43" s="4"/>
       <c r="BM43" s="4"/>
       <c r="BP43" s="2">
@@ -30663,7 +30704,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="44" spans="1:75">
+    <row r="44" spans="1:75" ht="23.25" customHeight="1" thickBot="1">
       <c r="A44" s="2">
         <v>25</v>
       </c>
@@ -30700,13 +30741,13 @@
         <v>7</v>
       </c>
       <c r="AF44" s="42" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="AM44" s="8">
         <v>38</v>
       </c>
       <c r="AN44" s="4" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="AX44" s="8">
         <v>25</v>
@@ -30722,7 +30763,7 @@
       <c r="BC44" s="4" t="s">
         <v>1364</v>
       </c>
-      <c r="BD44" s="59"/>
+      <c r="BD44" s="83"/>
       <c r="BE44" s="8">
         <v>3</v>
       </c>
@@ -30730,14 +30771,14 @@
         <v>110</v>
       </c>
       <c r="BG44" s="9"/>
-      <c r="BH44" s="57"/>
-      <c r="BI44" s="8">
+      <c r="BH44" s="85"/>
+      <c r="BI44" s="23">
         <v>3</v>
       </c>
-      <c r="BJ44" s="45" t="s">
+      <c r="BJ44" s="46" t="s">
         <v>1746</v>
       </c>
-      <c r="BK44" s="4"/>
+      <c r="BK44" s="60"/>
       <c r="BL44" s="4"/>
       <c r="BM44" s="4"/>
       <c r="BP44" s="2">
@@ -30747,12 +30788,12 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="45" spans="1:75" ht="24" thickBot="1">
+    <row r="45" spans="1:75" ht="24" customHeight="1" thickBot="1">
       <c r="A45" s="2">
         <v>26</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="C45" s="2">
         <v>26</v>
@@ -30784,13 +30825,13 @@
         <v>8</v>
       </c>
       <c r="AF45" s="42" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="AM45" s="8">
         <v>39</v>
       </c>
       <c r="AN45" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="AX45" s="8">
         <v>26</v>
@@ -30806,7 +30847,7 @@
       <c r="BC45" s="4" t="s">
         <v>1365</v>
       </c>
-      <c r="BD45" s="60"/>
+      <c r="BD45" s="84"/>
       <c r="BE45" s="23">
         <v>4</v>
       </c>
@@ -30814,14 +30855,16 @@
         <v>3022</v>
       </c>
       <c r="BG45" s="9"/>
-      <c r="BH45" s="53"/>
-      <c r="BI45" s="23">
+      <c r="BH45" s="59" t="s">
+        <v>3144</v>
+      </c>
+      <c r="BI45" s="22">
         <v>4</v>
       </c>
-      <c r="BJ45" s="46" t="s">
+      <c r="BJ45" s="44" t="s">
         <v>1761</v>
       </c>
-      <c r="BK45" s="4"/>
+      <c r="BK45" s="60"/>
       <c r="BL45" s="4"/>
       <c r="BM45" s="4"/>
       <c r="BP45" s="2">
@@ -30865,13 +30908,13 @@
       </c>
       <c r="U46" s="4"/>
       <c r="AF46" s="43" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="AM46" s="8">
         <v>40</v>
       </c>
       <c r="AN46" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="AX46" s="8">
         <v>27</v>
@@ -30895,11 +30938,11 @@
         <v>1370</v>
       </c>
       <c r="BG46" s="9"/>
-      <c r="BH46" s="9"/>
+      <c r="BH46" s="60"/>
       <c r="BI46" s="8">
         <v>5</v>
       </c>
-      <c r="BJ46" s="73" t="s">
+      <c r="BJ46" s="45" t="s">
         <v>1715</v>
       </c>
       <c r="BK46" s="4"/>
@@ -30918,7 +30961,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="47" spans="1:75">
+    <row r="47" spans="1:75" ht="24" thickBot="1">
       <c r="A47" s="2">
         <v>28</v>
       </c>
@@ -30955,13 +30998,13 @@
         <v>1</v>
       </c>
       <c r="AF47" s="4" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="AM47" s="8">
         <v>41</v>
       </c>
       <c r="AN47" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="AX47" s="8">
         <v>28</v>
@@ -30981,11 +31024,11 @@
       <c r="BE47" s="4"/>
       <c r="BF47" s="4"/>
       <c r="BG47" s="4"/>
-      <c r="BH47" s="4"/>
-      <c r="BI47" s="8">
+      <c r="BH47" s="85"/>
+      <c r="BI47" s="23">
         <v>6</v>
       </c>
-      <c r="BJ47" s="4" t="s">
+      <c r="BJ47" s="46" t="s">
         <v>1713</v>
       </c>
       <c r="BK47" s="4"/>
@@ -30994,7 +31037,7 @@
       <c r="BN47" s="2">
         <v>1</v>
       </c>
-      <c r="BO47" s="74" t="s">
+      <c r="BO47" s="51" t="s">
         <v>2721</v>
       </c>
       <c r="BP47" s="2">
@@ -31015,7 +31058,7 @@
         <v>29</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="E48" s="4"/>
       <c r="G48" s="2">
@@ -31038,13 +31081,13 @@
       </c>
       <c r="U48" s="4"/>
       <c r="AF48" s="43" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="AM48" s="8">
         <v>42</v>
       </c>
       <c r="AN48" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="AX48" s="8">
         <v>29</v>
@@ -31077,7 +31120,7 @@
       <c r="BN48" s="2">
         <v>2</v>
       </c>
-      <c r="BO48" s="74" t="s">
+      <c r="BO48" s="51" t="s">
         <v>2720</v>
       </c>
       <c r="BP48" s="2">
@@ -31098,7 +31141,7 @@
         <v>30</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="G49" s="2">
         <v>30</v>
@@ -31113,20 +31156,20 @@
         <v>411</v>
       </c>
       <c r="T49" s="37" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="U49" s="4"/>
       <c r="AE49" s="8">
         <v>1</v>
       </c>
       <c r="AF49" s="42" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="AM49" s="8">
         <v>43</v>
       </c>
       <c r="AN49" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="AX49" s="8">
         <v>30</v>
@@ -31159,7 +31202,7 @@
       <c r="BN49" s="2">
         <v>3</v>
       </c>
-      <c r="BO49" s="74" t="s">
+      <c r="BO49" s="51" t="s">
         <v>2719</v>
       </c>
       <c r="BP49" s="2">
@@ -31205,13 +31248,13 @@
         <v>2</v>
       </c>
       <c r="AF50" s="42" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="AM50" s="8">
         <v>44</v>
       </c>
       <c r="AN50" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="AX50" s="8">
         <v>31</v>
@@ -31244,7 +31287,7 @@
       <c r="BN50" s="2">
         <v>4</v>
       </c>
-      <c r="BO50" s="74" t="s">
+      <c r="BO50" s="51" t="s">
         <v>2718</v>
       </c>
       <c r="BP50" s="2">
@@ -31285,13 +31328,13 @@
         <v>3</v>
       </c>
       <c r="AF51" s="42" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="AM51" s="8">
         <v>45</v>
       </c>
       <c r="AN51" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="AX51" s="8">
         <v>32</v>
@@ -31324,7 +31367,7 @@
       <c r="BN51" s="2">
         <v>5</v>
       </c>
-      <c r="BO51" s="74" t="s">
+      <c r="BO51" s="51" t="s">
         <v>2717</v>
       </c>
       <c r="BP51" s="2">
@@ -31365,7 +31408,7 @@
         <v>46</v>
       </c>
       <c r="AN52" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="AX52" s="8">
         <v>33</v>
@@ -31398,7 +31441,7 @@
       <c r="BN52" s="2">
         <v>6</v>
       </c>
-      <c r="BO52" s="74" t="s">
+      <c r="BO52" s="51" t="s">
         <v>2715</v>
       </c>
     </row>
@@ -31432,7 +31475,7 @@
         <v>47</v>
       </c>
       <c r="AN53" s="4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="AX53" s="8">
         <v>34</v>
@@ -31465,7 +31508,7 @@
       <c r="BN53" s="2">
         <v>7</v>
       </c>
-      <c r="BO53" s="74" t="s">
+      <c r="BO53" s="51" t="s">
         <v>2714</v>
       </c>
     </row>
@@ -31499,7 +31542,7 @@
         <v>48</v>
       </c>
       <c r="AN54" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="AX54" s="8">
         <v>35</v>
@@ -31532,7 +31575,7 @@
       <c r="BN54" s="2">
         <v>8</v>
       </c>
-      <c r="BO54" s="74" t="s">
+      <c r="BO54" s="51" t="s">
         <v>2712</v>
       </c>
     </row>
@@ -31566,7 +31609,7 @@
         <v>49</v>
       </c>
       <c r="AN55" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="AX55" s="8">
         <v>36</v>
@@ -31590,7 +31633,7 @@
       <c r="BI55" s="8">
         <v>14</v>
       </c>
-      <c r="BJ55" s="73" t="s">
+      <c r="BJ55" s="50" t="s">
         <v>1754</v>
       </c>
       <c r="BK55" s="4"/>
@@ -31599,7 +31642,7 @@
       <c r="BN55" s="2">
         <v>9</v>
       </c>
-      <c r="BO55" s="74" t="s">
+      <c r="BO55" s="51" t="s">
         <v>2710</v>
       </c>
     </row>
@@ -31633,7 +31676,7 @@
         <v>50</v>
       </c>
       <c r="AN56" s="4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="AX56" s="8">
         <v>37</v>
@@ -31657,7 +31700,7 @@
       <c r="BI56" s="2">
         <v>15</v>
       </c>
-      <c r="BJ56" s="73" t="s">
+      <c r="BJ56" s="50" t="s">
         <v>1755</v>
       </c>
       <c r="BK56" s="4"/>
@@ -31666,7 +31709,7 @@
       <c r="BN56" s="2">
         <v>10</v>
       </c>
-      <c r="BO56" s="74" t="s">
+      <c r="BO56" s="51" t="s">
         <v>1781</v>
       </c>
     </row>
@@ -31675,7 +31718,7 @@
         <v>38</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="G57" s="2">
         <v>38</v>
@@ -31701,7 +31744,7 @@
         <v>51</v>
       </c>
       <c r="AN57" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="AX57" s="8">
         <v>38</v>
@@ -31725,7 +31768,7 @@
       <c r="BI57" s="8">
         <v>16</v>
       </c>
-      <c r="BJ57" s="73" t="s">
+      <c r="BJ57" s="50" t="s">
         <v>1756</v>
       </c>
       <c r="BK57" s="4"/>
@@ -31734,7 +31777,7 @@
       <c r="BN57" s="2">
         <v>11</v>
       </c>
-      <c r="BO57" s="74" t="s">
+      <c r="BO57" s="51" t="s">
         <v>2708</v>
       </c>
     </row>
@@ -31743,7 +31786,7 @@
         <v>39</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="G58" s="2">
         <v>39</v>
@@ -31802,7 +31845,7 @@
       <c r="BN58" s="2">
         <v>12</v>
       </c>
-      <c r="BO58" s="74" t="s">
+      <c r="BO58" s="51" t="s">
         <v>2707</v>
       </c>
     </row>
@@ -31811,7 +31854,7 @@
         <v>40</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="G59" s="2">
         <v>40</v>
@@ -31870,7 +31913,7 @@
       <c r="BN59" s="2">
         <v>13</v>
       </c>
-      <c r="BO59" s="74" t="s">
+      <c r="BO59" s="51" t="s">
         <v>2706</v>
       </c>
     </row>
@@ -31894,7 +31937,7 @@
         <v>431</v>
       </c>
       <c r="T60" s="37" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="U60" s="4"/>
       <c r="AF60" s="42"/>
@@ -31935,7 +31978,7 @@
       <c r="BN60" s="2">
         <v>14</v>
       </c>
-      <c r="BO60" s="74" t="s">
+      <c r="BO60" s="51" t="s">
         <v>2705</v>
       </c>
     </row>
@@ -31956,7 +31999,7 @@
         <v>38</v>
       </c>
       <c r="T61" s="29" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="U61" s="4"/>
       <c r="AF61" s="42"/>
@@ -31997,7 +32040,7 @@
       <c r="BN61" s="2">
         <v>15</v>
       </c>
-      <c r="BO61" s="74" t="s">
+      <c r="BO61" s="51" t="s">
         <v>2704</v>
       </c>
     </row>
@@ -32059,7 +32102,7 @@
       <c r="BN62" s="2">
         <v>16</v>
       </c>
-      <c r="BO62" s="74" t="s">
+      <c r="BO62" s="51" t="s">
         <v>2702</v>
       </c>
     </row>
@@ -32068,7 +32111,7 @@
         <v>44</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="I63" s="2">
         <v>44</v>
@@ -32121,7 +32164,7 @@
       <c r="BN63" s="2">
         <v>17</v>
       </c>
-      <c r="BO63" s="74" t="s">
+      <c r="BO63" s="51" t="s">
         <v>2701</v>
       </c>
     </row>
@@ -32140,7 +32183,6 @@
       </c>
       <c r="U64" s="4"/>
       <c r="AF64" s="42"/>
-      <c r="AM64" s="2"/>
       <c r="AX64" s="8">
         <v>45</v>
       </c>
@@ -32172,7 +32214,7 @@
       <c r="BN64" s="2">
         <v>18</v>
       </c>
-      <c r="BO64" s="74" t="s">
+      <c r="BO64" s="51" t="s">
         <v>2700</v>
       </c>
     </row>
@@ -32190,7 +32232,6 @@
         <v>606</v>
       </c>
       <c r="U65" s="4"/>
-      <c r="AM65" s="2"/>
       <c r="AX65" s="8">
         <v>46</v>
       </c>
@@ -32222,7 +32263,7 @@
       <c r="BN65" s="2">
         <v>19</v>
       </c>
-      <c r="BO65" s="74" t="s">
+      <c r="BO65" s="51" t="s">
         <v>2699</v>
       </c>
     </row>
@@ -32240,7 +32281,6 @@
         <v>607</v>
       </c>
       <c r="U66" s="4"/>
-      <c r="AM66" s="2"/>
       <c r="AX66" s="8">
         <v>47</v>
       </c>
@@ -32272,7 +32312,7 @@
       <c r="BN66" s="2">
         <v>20</v>
       </c>
-      <c r="BO66" s="74" t="s">
+      <c r="BO66" s="51" t="s">
         <v>2698</v>
       </c>
     </row>
@@ -32284,7 +32324,7 @@
         <v>226</v>
       </c>
       <c r="T67" s="37" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="U67" s="4"/>
       <c r="AM67" s="2"/>
@@ -32319,7 +32359,7 @@
       <c r="BN67" s="2">
         <v>21</v>
       </c>
-      <c r="BO67" s="74" t="s">
+      <c r="BO67" s="51" t="s">
         <v>2697</v>
       </c>
     </row>
@@ -32369,7 +32409,7 @@
       <c r="BN68" s="2">
         <v>22</v>
       </c>
-      <c r="BO68" s="74" t="s">
+      <c r="BO68" s="51" t="s">
         <v>2696</v>
       </c>
     </row>
@@ -32419,7 +32459,7 @@
       <c r="BN69" s="2">
         <v>23</v>
       </c>
-      <c r="BO69" s="74" t="s">
+      <c r="BO69" s="51" t="s">
         <v>2695</v>
       </c>
     </row>
@@ -32469,7 +32509,7 @@
       <c r="BN70" s="2">
         <v>24</v>
       </c>
-      <c r="BO70" s="74" t="s">
+      <c r="BO70" s="51" t="s">
         <v>2694</v>
       </c>
     </row>
@@ -32519,7 +32559,7 @@
       <c r="BN71" s="2">
         <v>25</v>
       </c>
-      <c r="BO71" s="74" t="s">
+      <c r="BO71" s="51" t="s">
         <v>2693</v>
       </c>
     </row>
@@ -32562,7 +32602,7 @@
       <c r="BN72" s="2">
         <v>26</v>
       </c>
-      <c r="BO72" s="74" t="s">
+      <c r="BO72" s="51" t="s">
         <v>2692</v>
       </c>
     </row>
@@ -32599,7 +32639,7 @@
       <c r="BN73" s="2">
         <v>27</v>
       </c>
-      <c r="BO73" s="74" t="s">
+      <c r="BO73" s="51" t="s">
         <v>2691</v>
       </c>
     </row>
@@ -32636,7 +32676,7 @@
       <c r="BN74" s="2">
         <v>28</v>
       </c>
-      <c r="BO74" s="74" t="s">
+      <c r="BO74" s="51" t="s">
         <v>2690</v>
       </c>
     </row>
@@ -32666,7 +32706,7 @@
       <c r="BN75" s="2">
         <v>29</v>
       </c>
-      <c r="BO75" s="74" t="s">
+      <c r="BO75" s="51" t="s">
         <v>2689</v>
       </c>
     </row>
@@ -32696,7 +32736,7 @@
       <c r="BN76" s="2">
         <v>30</v>
       </c>
-      <c r="BO76" s="74" t="s">
+      <c r="BO76" s="51" t="s">
         <v>2688</v>
       </c>
     </row>
@@ -32725,7 +32765,7 @@
       <c r="BN77" s="2">
         <v>31</v>
       </c>
-      <c r="BO77" s="74" t="s">
+      <c r="BO77" s="51" t="s">
         <v>2686</v>
       </c>
     </row>
@@ -32754,7 +32794,7 @@
       <c r="BN78" s="2">
         <v>32</v>
       </c>
-      <c r="BO78" s="74" t="s">
+      <c r="BO78" s="51" t="s">
         <v>2684</v>
       </c>
     </row>
@@ -32782,7 +32822,7 @@
       <c r="BN79" s="2">
         <v>33</v>
       </c>
-      <c r="BO79" s="74" t="s">
+      <c r="BO79" s="51" t="s">
         <v>2683</v>
       </c>
     </row>
@@ -32810,7 +32850,7 @@
       <c r="BN80" s="2">
         <v>34</v>
       </c>
-      <c r="BO80" s="74" t="s">
+      <c r="BO80" s="51" t="s">
         <v>2682</v>
       </c>
     </row>
@@ -32838,7 +32878,7 @@
       <c r="BN81" s="2">
         <v>35</v>
       </c>
-      <c r="BO81" s="74" t="s">
+      <c r="BO81" s="51" t="s">
         <v>2681</v>
       </c>
     </row>
@@ -32866,7 +32906,7 @@
       <c r="BN82" s="2">
         <v>36</v>
       </c>
-      <c r="BO82" s="74" t="s">
+      <c r="BO82" s="51" t="s">
         <v>2680</v>
       </c>
     </row>
@@ -32894,7 +32934,7 @@
       <c r="BN83" s="2">
         <v>37</v>
       </c>
-      <c r="BO83" s="74" t="s">
+      <c r="BO83" s="51" t="s">
         <v>2679</v>
       </c>
     </row>
@@ -32922,7 +32962,7 @@
       <c r="BN84" s="2">
         <v>38</v>
       </c>
-      <c r="BO84" s="74" t="s">
+      <c r="BO84" s="51" t="s">
         <v>2678</v>
       </c>
     </row>
@@ -32950,7 +32990,7 @@
       <c r="BN85" s="2">
         <v>39</v>
       </c>
-      <c r="BO85" s="74" t="s">
+      <c r="BO85" s="51" t="s">
         <v>2677</v>
       </c>
     </row>
@@ -32978,7 +33018,7 @@
       <c r="BN86" s="2">
         <v>40</v>
       </c>
-      <c r="BO86" s="74" t="s">
+      <c r="BO86" s="51" t="s">
         <v>2676</v>
       </c>
     </row>
@@ -33006,7 +33046,7 @@
       <c r="BN87" s="2">
         <v>41</v>
       </c>
-      <c r="BO87" s="74" t="s">
+      <c r="BO87" s="51" t="s">
         <v>2675</v>
       </c>
     </row>
@@ -33034,7 +33074,7 @@
       <c r="BN88" s="2">
         <v>42</v>
       </c>
-      <c r="BO88" s="74" t="s">
+      <c r="BO88" s="51" t="s">
         <v>2674</v>
       </c>
     </row>
@@ -33062,7 +33102,7 @@
       <c r="BN89" s="2">
         <v>43</v>
       </c>
-      <c r="BO89" s="74" t="s">
+      <c r="BO89" s="51" t="s">
         <v>2673</v>
       </c>
     </row>
@@ -33090,7 +33130,7 @@
       <c r="BN90" s="2">
         <v>44</v>
       </c>
-      <c r="BO90" s="74" t="s">
+      <c r="BO90" s="51" t="s">
         <v>2672</v>
       </c>
     </row>
@@ -33118,7 +33158,7 @@
       <c r="BN91" s="2">
         <v>45</v>
       </c>
-      <c r="BO91" s="74" t="s">
+      <c r="BO91" s="51" t="s">
         <v>2671</v>
       </c>
     </row>
@@ -33146,7 +33186,7 @@
       <c r="BN92" s="2">
         <v>46</v>
       </c>
-      <c r="BO92" s="74" t="s">
+      <c r="BO92" s="51" t="s">
         <v>2670</v>
       </c>
     </row>
@@ -33174,7 +33214,7 @@
       <c r="BN93" s="2">
         <v>47</v>
       </c>
-      <c r="BO93" s="74" t="s">
+      <c r="BO93" s="51" t="s">
         <v>2669</v>
       </c>
     </row>
@@ -33202,7 +33242,7 @@
       <c r="BN94" s="2">
         <v>48</v>
       </c>
-      <c r="BO94" s="74" t="s">
+      <c r="BO94" s="51" t="s">
         <v>2668</v>
       </c>
     </row>
@@ -33230,7 +33270,7 @@
       <c r="BN95" s="2">
         <v>49</v>
       </c>
-      <c r="BO95" s="74" t="s">
+      <c r="BO95" s="51" t="s">
         <v>2667</v>
       </c>
     </row>
@@ -33258,7 +33298,7 @@
       <c r="BN96" s="2">
         <v>50</v>
       </c>
-      <c r="BO96" s="74" t="s">
+      <c r="BO96" s="51" t="s">
         <v>2666</v>
       </c>
     </row>
@@ -33286,7 +33326,7 @@
       <c r="BN97" s="2">
         <v>51</v>
       </c>
-      <c r="BO97" s="74" t="s">
+      <c r="BO97" s="51" t="s">
         <v>2665</v>
       </c>
     </row>
@@ -33314,7 +33354,7 @@
       <c r="BN98" s="2">
         <v>52</v>
       </c>
-      <c r="BO98" s="74" t="s">
+      <c r="BO98" s="51" t="s">
         <v>2664</v>
       </c>
     </row>
@@ -33342,7 +33382,7 @@
       <c r="BN99" s="2">
         <v>53</v>
       </c>
-      <c r="BO99" s="74" t="s">
+      <c r="BO99" s="51" t="s">
         <v>2663</v>
       </c>
     </row>
@@ -33370,7 +33410,7 @@
       <c r="BN100" s="2">
         <v>54</v>
       </c>
-      <c r="BO100" s="74" t="s">
+      <c r="BO100" s="51" t="s">
         <v>2662</v>
       </c>
     </row>
@@ -33398,7 +33438,7 @@
       <c r="BN101" s="2">
         <v>55</v>
       </c>
-      <c r="BO101" s="74" t="s">
+      <c r="BO101" s="51" t="s">
         <v>2661</v>
       </c>
     </row>
@@ -33426,7 +33466,7 @@
       <c r="BN102" s="2">
         <v>56</v>
       </c>
-      <c r="BO102" s="74" t="s">
+      <c r="BO102" s="51" t="s">
         <v>2660</v>
       </c>
     </row>
@@ -33454,7 +33494,7 @@
       <c r="BN103" s="2">
         <v>57</v>
       </c>
-      <c r="BO103" s="74" t="s">
+      <c r="BO103" s="51" t="s">
         <v>2659</v>
       </c>
     </row>
@@ -33482,7 +33522,7 @@
       <c r="BN104" s="2">
         <v>58</v>
       </c>
-      <c r="BO104" s="74" t="s">
+      <c r="BO104" s="51" t="s">
         <v>2658</v>
       </c>
     </row>
@@ -33510,7 +33550,7 @@
       <c r="BN105" s="2">
         <v>59</v>
       </c>
-      <c r="BO105" s="74" t="s">
+      <c r="BO105" s="51" t="s">
         <v>2657</v>
       </c>
     </row>
@@ -33538,7 +33578,7 @@
       <c r="BN106" s="2">
         <v>60</v>
       </c>
-      <c r="BO106" s="74" t="s">
+      <c r="BO106" s="51" t="s">
         <v>2656</v>
       </c>
     </row>
@@ -33566,7 +33606,7 @@
       <c r="BN107" s="2">
         <v>61</v>
       </c>
-      <c r="BO107" s="74" t="s">
+      <c r="BO107" s="51" t="s">
         <v>2655</v>
       </c>
     </row>
@@ -33594,7 +33634,7 @@
       <c r="BN108" s="2">
         <v>62</v>
       </c>
-      <c r="BO108" s="74" t="s">
+      <c r="BO108" s="51" t="s">
         <v>2654</v>
       </c>
     </row>
@@ -33622,7 +33662,7 @@
       <c r="BN109" s="2">
         <v>63</v>
       </c>
-      <c r="BO109" s="74" t="s">
+      <c r="BO109" s="51" t="s">
         <v>2653</v>
       </c>
     </row>
@@ -33650,7 +33690,7 @@
       <c r="BN110" s="2">
         <v>64</v>
       </c>
-      <c r="BO110" s="74" t="s">
+      <c r="BO110" s="51" t="s">
         <v>2652</v>
       </c>
     </row>
@@ -33678,7 +33718,7 @@
       <c r="BN111" s="2">
         <v>65</v>
       </c>
-      <c r="BO111" s="74" t="s">
+      <c r="BO111" s="51" t="s">
         <v>2651</v>
       </c>
     </row>
@@ -33706,7 +33746,7 @@
       <c r="BN112" s="2">
         <v>66</v>
       </c>
-      <c r="BO112" s="74" t="s">
+      <c r="BO112" s="51" t="s">
         <v>2650</v>
       </c>
     </row>
@@ -33734,7 +33774,7 @@
       <c r="BN113" s="2">
         <v>67</v>
       </c>
-      <c r="BO113" s="74" t="s">
+      <c r="BO113" s="51" t="s">
         <v>2649</v>
       </c>
     </row>
@@ -33762,7 +33802,7 @@
       <c r="BN114" s="2">
         <v>68</v>
       </c>
-      <c r="BO114" s="74" t="s">
+      <c r="BO114" s="51" t="s">
         <v>2648</v>
       </c>
     </row>
@@ -33790,7 +33830,7 @@
       <c r="BN115" s="2">
         <v>69</v>
       </c>
-      <c r="BO115" s="74" t="s">
+      <c r="BO115" s="51" t="s">
         <v>2647</v>
       </c>
     </row>
@@ -33818,7 +33858,7 @@
       <c r="BN116" s="2">
         <v>70</v>
       </c>
-      <c r="BO116" s="74" t="s">
+      <c r="BO116" s="51" t="s">
         <v>2646</v>
       </c>
     </row>
@@ -33835,7 +33875,7 @@
       <c r="BN117" s="2">
         <v>71</v>
       </c>
-      <c r="BO117" s="74" t="s">
+      <c r="BO117" s="51" t="s">
         <v>2645</v>
       </c>
     </row>
@@ -33852,7 +33892,7 @@
       <c r="BN118" s="2">
         <v>72</v>
       </c>
-      <c r="BO118" s="74" t="s">
+      <c r="BO118" s="51" t="s">
         <v>2644</v>
       </c>
     </row>
@@ -33869,7 +33909,7 @@
       <c r="BN119" s="2">
         <v>73</v>
       </c>
-      <c r="BO119" s="74" t="s">
+      <c r="BO119" s="51" t="s">
         <v>2643</v>
       </c>
     </row>
@@ -33886,7 +33926,7 @@
       <c r="BN120" s="2">
         <v>74</v>
       </c>
-      <c r="BO120" s="74" t="s">
+      <c r="BO120" s="51" t="s">
         <v>2642</v>
       </c>
     </row>
@@ -33903,7 +33943,7 @@
       <c r="BN121" s="2">
         <v>75</v>
       </c>
-      <c r="BO121" s="74" t="s">
+      <c r="BO121" s="51" t="s">
         <v>2641</v>
       </c>
     </row>
@@ -33920,7 +33960,7 @@
       <c r="BN122" s="2">
         <v>76</v>
       </c>
-      <c r="BO122" s="74" t="s">
+      <c r="BO122" s="51" t="s">
         <v>2640</v>
       </c>
     </row>
@@ -33937,7 +33977,7 @@
       <c r="BN123" s="2">
         <v>77</v>
       </c>
-      <c r="BO123" s="74" t="s">
+      <c r="BO123" s="51" t="s">
         <v>2639</v>
       </c>
     </row>
@@ -33951,7 +33991,7 @@
       <c r="BN124" s="2">
         <v>78</v>
       </c>
-      <c r="BO124" s="74" t="s">
+      <c r="BO124" s="51" t="s">
         <v>2638</v>
       </c>
     </row>
@@ -33965,7 +34005,7 @@
       <c r="BN125" s="2">
         <v>79</v>
       </c>
-      <c r="BO125" s="74" t="s">
+      <c r="BO125" s="51" t="s">
         <v>2637</v>
       </c>
     </row>
@@ -33979,7 +34019,7 @@
       <c r="BN126" s="2">
         <v>80</v>
       </c>
-      <c r="BO126" s="74" t="s">
+      <c r="BO126" s="51" t="s">
         <v>2636</v>
       </c>
     </row>
@@ -33993,7 +34033,7 @@
       <c r="BN127" s="2">
         <v>81</v>
       </c>
-      <c r="BO127" s="74" t="s">
+      <c r="BO127" s="51" t="s">
         <v>2635</v>
       </c>
     </row>
@@ -34007,7 +34047,7 @@
       <c r="BN128" s="2">
         <v>82</v>
       </c>
-      <c r="BO128" s="74" t="s">
+      <c r="BO128" s="51" t="s">
         <v>2634</v>
       </c>
     </row>
@@ -34021,7 +34061,7 @@
       <c r="BN129" s="2">
         <v>83</v>
       </c>
-      <c r="BO129" s="74" t="s">
+      <c r="BO129" s="51" t="s">
         <v>2633</v>
       </c>
     </row>
@@ -34035,7 +34075,7 @@
       <c r="BN130" s="2">
         <v>84</v>
       </c>
-      <c r="BO130" s="74" t="s">
+      <c r="BO130" s="51" t="s">
         <v>2632</v>
       </c>
     </row>
@@ -34049,7 +34089,7 @@
       <c r="BN131" s="2">
         <v>85</v>
       </c>
-      <c r="BO131" s="74" t="s">
+      <c r="BO131" s="51" t="s">
         <v>2631</v>
       </c>
     </row>
@@ -34063,7 +34103,7 @@
       <c r="BN132" s="2">
         <v>86</v>
       </c>
-      <c r="BO132" s="74" t="s">
+      <c r="BO132" s="51" t="s">
         <v>2630</v>
       </c>
     </row>
@@ -34077,7 +34117,7 @@
       <c r="BN133" s="2">
         <v>87</v>
       </c>
-      <c r="BO133" s="74" t="s">
+      <c r="BO133" s="51" t="s">
         <v>2629</v>
       </c>
     </row>
@@ -34091,7 +34131,7 @@
       <c r="BN134" s="2">
         <v>88</v>
       </c>
-      <c r="BO134" s="74" t="s">
+      <c r="BO134" s="51" t="s">
         <v>2628</v>
       </c>
     </row>
@@ -34105,7 +34145,7 @@
       <c r="BN135" s="2">
         <v>89</v>
       </c>
-      <c r="BO135" s="74" t="s">
+      <c r="BO135" s="51" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -34119,7 +34159,7 @@
       <c r="BN136" s="2">
         <v>90</v>
       </c>
-      <c r="BO136" s="74" t="s">
+      <c r="BO136" s="51" t="s">
         <v>2626</v>
       </c>
     </row>
@@ -34133,7 +34173,7 @@
       <c r="BN137" s="2">
         <v>91</v>
       </c>
-      <c r="BO137" s="74" t="s">
+      <c r="BO137" s="51" t="s">
         <v>2625</v>
       </c>
     </row>
@@ -34147,7 +34187,7 @@
       <c r="BN138" s="2">
         <v>92</v>
       </c>
-      <c r="BO138" s="74" t="s">
+      <c r="BO138" s="51" t="s">
         <v>2624</v>
       </c>
     </row>
@@ -34161,7 +34201,7 @@
       <c r="BN139" s="2">
         <v>93</v>
       </c>
-      <c r="BO139" s="74" t="s">
+      <c r="BO139" s="51" t="s">
         <v>2623</v>
       </c>
     </row>
@@ -34175,7 +34215,7 @@
       <c r="BN140" s="2">
         <v>94</v>
       </c>
-      <c r="BO140" s="74" t="s">
+      <c r="BO140" s="51" t="s">
         <v>2622</v>
       </c>
     </row>
@@ -34189,7 +34229,7 @@
       <c r="BN141" s="2">
         <v>95</v>
       </c>
-      <c r="BO141" s="74" t="s">
+      <c r="BO141" s="51" t="s">
         <v>2621</v>
       </c>
     </row>
@@ -34203,7 +34243,7 @@
       <c r="BN142" s="2">
         <v>96</v>
       </c>
-      <c r="BO142" s="74" t="s">
+      <c r="BO142" s="51" t="s">
         <v>1129</v>
       </c>
     </row>
@@ -34217,7 +34257,7 @@
       <c r="BN143" s="2">
         <v>97</v>
       </c>
-      <c r="BO143" s="74" t="s">
+      <c r="BO143" s="51" t="s">
         <v>2620</v>
       </c>
     </row>
@@ -34231,7 +34271,7 @@
       <c r="BN144" s="2">
         <v>98</v>
       </c>
-      <c r="BO144" s="74" t="s">
+      <c r="BO144" s="51" t="s">
         <v>2619</v>
       </c>
     </row>
@@ -34245,7 +34285,7 @@
       <c r="BN145" s="2">
         <v>99</v>
       </c>
-      <c r="BO145" s="74" t="s">
+      <c r="BO145" s="51" t="s">
         <v>2618</v>
       </c>
     </row>
@@ -34259,7 +34299,7 @@
       <c r="BN146" s="2">
         <v>100</v>
       </c>
-      <c r="BO146" s="74" t="s">
+      <c r="BO146" s="51" t="s">
         <v>2617</v>
       </c>
     </row>
@@ -34273,7 +34313,7 @@
       <c r="BN147" s="2">
         <v>101</v>
       </c>
-      <c r="BO147" s="74" t="s">
+      <c r="BO147" s="51" t="s">
         <v>2616</v>
       </c>
     </row>
@@ -34287,7 +34327,7 @@
       <c r="BN148" s="2">
         <v>102</v>
       </c>
-      <c r="BO148" s="74" t="s">
+      <c r="BO148" s="51" t="s">
         <v>2615</v>
       </c>
     </row>
@@ -34301,7 +34341,7 @@
       <c r="BN149" s="2">
         <v>103</v>
       </c>
-      <c r="BO149" s="74" t="s">
+      <c r="BO149" s="51" t="s">
         <v>2614</v>
       </c>
     </row>
@@ -34315,7 +34355,7 @@
       <c r="BN150" s="2">
         <v>104</v>
       </c>
-      <c r="BO150" s="74" t="s">
+      <c r="BO150" s="51" t="s">
         <v>2613</v>
       </c>
     </row>
@@ -34329,7 +34369,7 @@
       <c r="BN151" s="2">
         <v>105</v>
       </c>
-      <c r="BO151" s="74" t="s">
+      <c r="BO151" s="51" t="s">
         <v>2612</v>
       </c>
     </row>
@@ -34343,7 +34383,7 @@
       <c r="BN152" s="2">
         <v>106</v>
       </c>
-      <c r="BO152" s="74" t="s">
+      <c r="BO152" s="51" t="s">
         <v>2611</v>
       </c>
     </row>
@@ -34357,7 +34397,7 @@
       <c r="BN153" s="2">
         <v>107</v>
       </c>
-      <c r="BO153" s="74" t="s">
+      <c r="BO153" s="51" t="s">
         <v>2610</v>
       </c>
     </row>
@@ -34371,7 +34411,7 @@
       <c r="BN154" s="2">
         <v>108</v>
       </c>
-      <c r="BO154" s="74" t="s">
+      <c r="BO154" s="51" t="s">
         <v>2609</v>
       </c>
     </row>
@@ -34385,7 +34425,7 @@
       <c r="BN155" s="2">
         <v>109</v>
       </c>
-      <c r="BO155" s="74" t="s">
+      <c r="BO155" s="51" t="s">
         <v>2608</v>
       </c>
     </row>
@@ -34399,7 +34439,7 @@
       <c r="BN156" s="2">
         <v>110</v>
       </c>
-      <c r="BO156" s="74" t="s">
+      <c r="BO156" s="51" t="s">
         <v>2607</v>
       </c>
     </row>
@@ -34413,7 +34453,7 @@
       <c r="BN157" s="2">
         <v>111</v>
       </c>
-      <c r="BO157" s="74" t="s">
+      <c r="BO157" s="51" t="s">
         <v>2606</v>
       </c>
     </row>
@@ -34427,7 +34467,7 @@
       <c r="BN158" s="2">
         <v>112</v>
       </c>
-      <c r="BO158" s="74" t="s">
+      <c r="BO158" s="51" t="s">
         <v>2605</v>
       </c>
     </row>
@@ -34441,7 +34481,7 @@
       <c r="BN159" s="2">
         <v>113</v>
       </c>
-      <c r="BO159" s="74" t="s">
+      <c r="BO159" s="51" t="s">
         <v>2604</v>
       </c>
     </row>
@@ -34455,7 +34495,7 @@
       <c r="BN160" s="2">
         <v>114</v>
       </c>
-      <c r="BO160" s="74" t="s">
+      <c r="BO160" s="51" t="s">
         <v>2603</v>
       </c>
     </row>
@@ -34469,7 +34509,7 @@
       <c r="BN161" s="2">
         <v>115</v>
       </c>
-      <c r="BO161" s="74" t="s">
+      <c r="BO161" s="51" t="s">
         <v>2602</v>
       </c>
     </row>
@@ -34483,7 +34523,7 @@
       <c r="BN162" s="2">
         <v>116</v>
       </c>
-      <c r="BO162" s="74" t="s">
+      <c r="BO162" s="51" t="s">
         <v>2601</v>
       </c>
     </row>
@@ -34497,7 +34537,7 @@
       <c r="BN163" s="2">
         <v>117</v>
       </c>
-      <c r="BO163" s="74" t="s">
+      <c r="BO163" s="51" t="s">
         <v>2600</v>
       </c>
     </row>
@@ -34511,7 +34551,7 @@
       <c r="BN164" s="2">
         <v>118</v>
       </c>
-      <c r="BO164" s="74" t="s">
+      <c r="BO164" s="51" t="s">
         <v>2599</v>
       </c>
     </row>
@@ -34525,7 +34565,7 @@
       <c r="BN165" s="2">
         <v>119</v>
       </c>
-      <c r="BO165" s="74" t="s">
+      <c r="BO165" s="51" t="s">
         <v>2598</v>
       </c>
     </row>
@@ -34539,7 +34579,7 @@
       <c r="BN166" s="2">
         <v>120</v>
       </c>
-      <c r="BO166" s="74" t="s">
+      <c r="BO166" s="51" t="s">
         <v>2597</v>
       </c>
     </row>
@@ -34553,7 +34593,7 @@
       <c r="BN167" s="2">
         <v>121</v>
       </c>
-      <c r="BO167" s="74" t="s">
+      <c r="BO167" s="51" t="s">
         <v>2596</v>
       </c>
     </row>
@@ -34567,7 +34607,7 @@
       <c r="BN168" s="2">
         <v>122</v>
       </c>
-      <c r="BO168" s="74" t="s">
+      <c r="BO168" s="51" t="s">
         <v>2595</v>
       </c>
     </row>
@@ -34581,7 +34621,7 @@
       <c r="BN169" s="2">
         <v>123</v>
       </c>
-      <c r="BO169" s="74" t="s">
+      <c r="BO169" s="51" t="s">
         <v>2594</v>
       </c>
     </row>
@@ -34595,7 +34635,7 @@
       <c r="BN170" s="2">
         <v>124</v>
       </c>
-      <c r="BO170" s="74" t="s">
+      <c r="BO170" s="51" t="s">
         <v>2593</v>
       </c>
     </row>
@@ -34609,7 +34649,7 @@
       <c r="BN171" s="2">
         <v>125</v>
       </c>
-      <c r="BO171" s="74" t="s">
+      <c r="BO171" s="51" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -34623,7 +34663,7 @@
       <c r="BN172" s="2">
         <v>126</v>
       </c>
-      <c r="BO172" s="74" t="s">
+      <c r="BO172" s="51" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -34637,7 +34677,7 @@
       <c r="BN173" s="2">
         <v>127</v>
       </c>
-      <c r="BO173" s="74" t="s">
+      <c r="BO173" s="51" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -34651,7 +34691,7 @@
       <c r="BN174" s="2">
         <v>128</v>
       </c>
-      <c r="BO174" s="74" t="s">
+      <c r="BO174" s="51" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -34665,7 +34705,7 @@
       <c r="BN175" s="2">
         <v>129</v>
       </c>
-      <c r="BO175" s="74" t="s">
+      <c r="BO175" s="51" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -34679,7 +34719,7 @@
       <c r="BN176" s="2">
         <v>130</v>
       </c>
-      <c r="BO176" s="74" t="s">
+      <c r="BO176" s="51" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -34693,7 +34733,7 @@
       <c r="BN177" s="2">
         <v>131</v>
       </c>
-      <c r="BO177" s="74" t="s">
+      <c r="BO177" s="51" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -34707,7 +34747,7 @@
       <c r="BN178" s="2">
         <v>132</v>
       </c>
-      <c r="BO178" s="74" t="s">
+      <c r="BO178" s="51" t="s">
         <v>2585</v>
       </c>
     </row>
@@ -34715,7 +34755,7 @@
       <c r="BN179" s="2">
         <v>133</v>
       </c>
-      <c r="BO179" s="74" t="s">
+      <c r="BO179" s="51" t="s">
         <v>2584</v>
       </c>
     </row>
@@ -34723,7 +34763,7 @@
       <c r="BN180" s="2">
         <v>134</v>
       </c>
-      <c r="BO180" s="74" t="s">
+      <c r="BO180" s="51" t="s">
         <v>2583</v>
       </c>
     </row>
@@ -34731,7 +34771,7 @@
       <c r="BN181" s="2">
         <v>135</v>
       </c>
-      <c r="BO181" s="74" t="s">
+      <c r="BO181" s="51" t="s">
         <v>2582</v>
       </c>
     </row>
@@ -34739,7 +34779,7 @@
       <c r="BN182" s="2">
         <v>136</v>
       </c>
-      <c r="BO182" s="74" t="s">
+      <c r="BO182" s="51" t="s">
         <v>2581</v>
       </c>
     </row>
@@ -34747,7 +34787,7 @@
       <c r="BN183" s="2">
         <v>137</v>
       </c>
-      <c r="BO183" s="74" t="s">
+      <c r="BO183" s="51" t="s">
         <v>2580</v>
       </c>
     </row>
@@ -34755,7 +34795,7 @@
       <c r="BN184" s="2">
         <v>138</v>
       </c>
-      <c r="BO184" s="74" t="s">
+      <c r="BO184" s="51" t="s">
         <v>2499</v>
       </c>
     </row>
@@ -34763,7 +34803,7 @@
       <c r="BN185" s="2">
         <v>139</v>
       </c>
-      <c r="BO185" s="74" t="s">
+      <c r="BO185" s="51" t="s">
         <v>2579</v>
       </c>
     </row>
@@ -34771,7 +34811,7 @@
       <c r="BN186" s="2">
         <v>140</v>
       </c>
-      <c r="BO186" s="74" t="s">
+      <c r="BO186" s="51" t="s">
         <v>1759</v>
       </c>
     </row>
@@ -34779,7 +34819,7 @@
       <c r="BN187" s="2">
         <v>141</v>
       </c>
-      <c r="BO187" s="74" t="s">
+      <c r="BO187" s="51" t="s">
         <v>2578</v>
       </c>
     </row>
@@ -34787,7 +34827,7 @@
       <c r="BN188" s="2">
         <v>142</v>
       </c>
-      <c r="BO188" s="74" t="s">
+      <c r="BO188" s="51" t="s">
         <v>2577</v>
       </c>
     </row>
@@ -34795,7 +34835,7 @@
       <c r="BN189" s="2">
         <v>143</v>
       </c>
-      <c r="BO189" s="74" t="s">
+      <c r="BO189" s="51" t="s">
         <v>2576</v>
       </c>
     </row>
@@ -34803,7 +34843,7 @@
       <c r="BN190" s="2">
         <v>144</v>
       </c>
-      <c r="BO190" s="74" t="s">
+      <c r="BO190" s="51" t="s">
         <v>2575</v>
       </c>
     </row>
@@ -34811,7 +34851,7 @@
       <c r="BN191" s="2">
         <v>145</v>
       </c>
-      <c r="BO191" s="74" t="s">
+      <c r="BO191" s="51" t="s">
         <v>2574</v>
       </c>
     </row>
@@ -34819,7 +34859,7 @@
       <c r="BN192" s="2">
         <v>146</v>
       </c>
-      <c r="BO192" s="74" t="s">
+      <c r="BO192" s="51" t="s">
         <v>2573</v>
       </c>
     </row>
@@ -34827,7 +34867,7 @@
       <c r="BN193" s="2">
         <v>147</v>
       </c>
-      <c r="BO193" s="74" t="s">
+      <c r="BO193" s="51" t="s">
         <v>2572</v>
       </c>
     </row>
@@ -34835,7 +34875,7 @@
       <c r="BN194" s="2">
         <v>148</v>
       </c>
-      <c r="BO194" s="74" t="s">
+      <c r="BO194" s="51" t="s">
         <v>2571</v>
       </c>
     </row>
@@ -34843,7 +34883,7 @@
       <c r="BN195" s="2">
         <v>149</v>
       </c>
-      <c r="BO195" s="74" t="s">
+      <c r="BO195" s="51" t="s">
         <v>2570</v>
       </c>
     </row>
@@ -34851,7 +34891,7 @@
       <c r="BN196" s="2">
         <v>150</v>
       </c>
-      <c r="BO196" s="74" t="s">
+      <c r="BO196" s="51" t="s">
         <v>2569</v>
       </c>
     </row>
@@ -34859,7 +34899,7 @@
       <c r="BN197" s="2">
         <v>151</v>
       </c>
-      <c r="BO197" s="74" t="s">
+      <c r="BO197" s="51" t="s">
         <v>2568</v>
       </c>
     </row>
@@ -34867,7 +34907,7 @@
       <c r="BN198" s="2">
         <v>152</v>
       </c>
-      <c r="BO198" s="74" t="s">
+      <c r="BO198" s="51" t="s">
         <v>2567</v>
       </c>
     </row>
@@ -34875,7 +34915,7 @@
       <c r="BN199" s="2">
         <v>153</v>
       </c>
-      <c r="BO199" s="74" t="s">
+      <c r="BO199" s="51" t="s">
         <v>2566</v>
       </c>
     </row>
@@ -34883,7 +34923,7 @@
       <c r="BN200" s="2">
         <v>154</v>
       </c>
-      <c r="BO200" s="74" t="s">
+      <c r="BO200" s="51" t="s">
         <v>2565</v>
       </c>
     </row>
@@ -34891,7 +34931,7 @@
       <c r="BN201" s="2">
         <v>155</v>
       </c>
-      <c r="BO201" s="74" t="s">
+      <c r="BO201" s="51" t="s">
         <v>896</v>
       </c>
     </row>
@@ -34899,7 +34939,7 @@
       <c r="BN202" s="2">
         <v>156</v>
       </c>
-      <c r="BO202" s="74" t="s">
+      <c r="BO202" s="51" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -34907,7 +34947,7 @@
       <c r="BN203" s="2">
         <v>157</v>
       </c>
-      <c r="BO203" s="74" t="s">
+      <c r="BO203" s="51" t="s">
         <v>2563</v>
       </c>
     </row>
@@ -34915,7 +34955,7 @@
       <c r="BN204" s="2">
         <v>158</v>
       </c>
-      <c r="BO204" s="74" t="s">
+      <c r="BO204" s="51" t="s">
         <v>2562</v>
       </c>
     </row>
@@ -34923,7 +34963,7 @@
       <c r="BN205" s="2">
         <v>159</v>
       </c>
-      <c r="BO205" s="74" t="s">
+      <c r="BO205" s="51" t="s">
         <v>2561</v>
       </c>
     </row>
@@ -34931,7 +34971,7 @@
       <c r="BN206" s="2">
         <v>160</v>
       </c>
-      <c r="BO206" s="74" t="s">
+      <c r="BO206" s="51" t="s">
         <v>2560</v>
       </c>
     </row>
@@ -34939,7 +34979,7 @@
       <c r="BN207" s="2">
         <v>161</v>
       </c>
-      <c r="BO207" s="74" t="s">
+      <c r="BO207" s="51" t="s">
         <v>2559</v>
       </c>
     </row>
@@ -34947,7 +34987,7 @@
       <c r="BN208" s="2">
         <v>162</v>
       </c>
-      <c r="BO208" s="74" t="s">
+      <c r="BO208" s="51" t="s">
         <v>2558</v>
       </c>
     </row>
@@ -34955,7 +34995,7 @@
       <c r="BN209" s="2">
         <v>163</v>
       </c>
-      <c r="BO209" s="74" t="s">
+      <c r="BO209" s="51" t="s">
         <v>2557</v>
       </c>
     </row>
@@ -34963,7 +35003,7 @@
       <c r="BN210" s="2">
         <v>164</v>
       </c>
-      <c r="BO210" s="74" t="s">
+      <c r="BO210" s="51" t="s">
         <v>2556</v>
       </c>
     </row>
@@ -34971,7 +35011,7 @@
       <c r="BN211" s="2">
         <v>165</v>
       </c>
-      <c r="BO211" s="74" t="s">
+      <c r="BO211" s="51" t="s">
         <v>2555</v>
       </c>
     </row>
@@ -34979,7 +35019,7 @@
       <c r="BN212" s="2">
         <v>166</v>
       </c>
-      <c r="BO212" s="74" t="s">
+      <c r="BO212" s="51" t="s">
         <v>2554</v>
       </c>
     </row>
@@ -34987,7 +35027,7 @@
       <c r="BN213" s="2">
         <v>167</v>
       </c>
-      <c r="BO213" s="74" t="s">
+      <c r="BO213" s="51" t="s">
         <v>2553</v>
       </c>
     </row>
@@ -34995,7 +35035,7 @@
       <c r="BN214" s="2">
         <v>168</v>
       </c>
-      <c r="BO214" s="74" t="s">
+      <c r="BO214" s="51" t="s">
         <v>1131</v>
       </c>
     </row>
@@ -35003,7 +35043,7 @@
       <c r="BN215" s="2">
         <v>169</v>
       </c>
-      <c r="BO215" s="74" t="s">
+      <c r="BO215" s="51" t="s">
         <v>2552</v>
       </c>
     </row>
@@ -35011,7 +35051,7 @@
       <c r="BN216" s="2">
         <v>170</v>
       </c>
-      <c r="BO216" s="74" t="s">
+      <c r="BO216" s="51" t="s">
         <v>2551</v>
       </c>
     </row>
@@ -35019,7 +35059,7 @@
       <c r="BN217" s="2">
         <v>171</v>
       </c>
-      <c r="BO217" s="74" t="s">
+      <c r="BO217" s="51" t="s">
         <v>2550</v>
       </c>
     </row>
@@ -35027,7 +35067,7 @@
       <c r="BN218" s="2">
         <v>172</v>
       </c>
-      <c r="BO218" s="74" t="s">
+      <c r="BO218" s="51" t="s">
         <v>2549</v>
       </c>
     </row>
@@ -35035,23 +35075,26 @@
       <c r="BN219" s="2">
         <v>173</v>
       </c>
-      <c r="BO219" s="74" t="s">
+      <c r="BO219" s="51" t="s">
         <v>2548</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B1:AK1"/>
-    <mergeCell ref="AN1:AV1"/>
-    <mergeCell ref="AY1:BU1"/>
+  <mergeCells count="14">
     <mergeCell ref="BW1:CA1"/>
     <mergeCell ref="AL7:AL10"/>
     <mergeCell ref="AL2:AN2"/>
     <mergeCell ref="AW20:AW21"/>
     <mergeCell ref="BA35:BA36"/>
+    <mergeCell ref="BK42:BK45"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="B1:AK1"/>
+    <mergeCell ref="AN1:AV1"/>
+    <mergeCell ref="AY1:BU1"/>
     <mergeCell ref="AG20:AG22"/>
-    <mergeCell ref="BH42:BH45"/>
     <mergeCell ref="BD42:BD45"/>
+    <mergeCell ref="BH42:BH44"/>
+    <mergeCell ref="BH45:BH47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/3-JavaScript/Mashq/JS_KORIN_1.xlsx
+++ b/3-JavaScript/Mashq/JS_KORIN_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="27"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" firstSheet="21" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5416" uniqueCount="3148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5419" uniqueCount="3153">
   <si>
     <t>№</t>
   </si>
@@ -9196,15 +9196,6 @@
     <t>Vazifa 8</t>
   </si>
   <si>
-    <t>Vazifa 9 Vazifa 10</t>
-  </si>
-  <si>
-    <t>Vazifa 11 Vazifa 12 Vazifa 13</t>
-  </si>
-  <si>
-    <t>Vazifa 14</t>
-  </si>
-  <si>
     <t>window</t>
   </si>
   <si>
@@ -9538,19 +9529,43 @@
     <t>Логические операторы</t>
   </si>
   <si>
-    <t>Vazifa 15</t>
-  </si>
-  <si>
     <t>Vazifa 16</t>
   </si>
   <si>
-    <t>Vazifa 17      Vazifa 18      Vazifa 19</t>
-  </si>
-  <si>
-    <t>Vazifa 20 Vazifa 21</t>
-  </si>
-  <si>
-    <t>Vazifa 22 Vazifa 23 Vazifa 24 Vazifa 25</t>
+    <t>hasOwnProperty()</t>
+  </si>
+  <si>
+    <t>onscroll()</t>
+  </si>
+  <si>
+    <t>Vazifa 9 Vazifa 10 Vazifa 11 Vazifa 12</t>
+  </si>
+  <si>
+    <t>Vazifa 13 Vazifa 14 Vazifa 15</t>
+  </si>
+  <si>
+    <t>Vazifa 17</t>
+  </si>
+  <si>
+    <t>Vazifa 18</t>
+  </si>
+  <si>
+    <t>Vazifa 19      Vazifa 20      Vazifa 21</t>
+  </si>
+  <si>
+    <t>Vazifa 22 Vazifa 23</t>
+  </si>
+  <si>
+    <t>Vazifa 24 Vazifa 25 Vazifa 26 Vazifa 27 Vazifa 28</t>
+  </si>
+  <si>
+    <t>Vazifa 29  Vazifa 30</t>
+  </si>
+  <si>
+    <t>Vazifa 31 Vazifa 32</t>
+  </si>
+  <si>
+    <t>Vazifa 33 Vazifa 34</t>
   </si>
 </sst>
 </file>
@@ -9700,14 +9715,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color rgb="FFFFC000"/>
@@ -9732,6 +9739,15 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -10001,7 +10017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -10057,7 +10073,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
@@ -10065,14 +10080,14 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
@@ -10083,13 +10098,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -10105,36 +10117,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10165,6 +10162,30 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -10177,17 +10198,22 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10239,7 +10265,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10281,7 +10307,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10323,7 +10349,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10365,7 +10391,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10407,7 +10433,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10449,7 +10475,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10491,7 +10517,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10947,8 +10973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="40372393" y="8309428"/>
-          <a:ext cx="3188607" cy="2344965"/>
+          <a:off x="53734608" y="8785678"/>
+          <a:ext cx="3188606" cy="2385786"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11395,13 +11421,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>1932214</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:colOff>2490106</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>244929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>217715</xdr:colOff>
+      <xdr:colOff>217714</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -11412,8 +11438,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39365464" y="9837964"/>
-          <a:ext cx="12518572" cy="3211286"/>
+          <a:off x="53285570" y="9783536"/>
+          <a:ext cx="10218965" cy="3782785"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11638,6 +11664,193 @@
                 <a:pt x="41142708" y="2349500"/>
                 <a:pt x="41510479" y="3937000"/>
                 <a:pt x="41878250" y="5524500"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>1496787</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>258537</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Полилиния 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42753644" y="1832429"/>
+          <a:ext cx="45026036" cy="4277178"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 45275500"/>
+            <a:gd name="connsiteY0" fmla="*/ 4413250 h 4413250"/>
+            <a:gd name="connsiteX1" fmla="*/ 36385500 w 45275500"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 4413250"/>
+            <a:gd name="connsiteX2" fmla="*/ 45275500 w 45275500"/>
+            <a:gd name="connsiteY2" fmla="*/ 4413250 h 4413250"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="45275500" h="4413250">
+              <a:moveTo>
+                <a:pt x="0" y="4413250"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="14419791" y="2206625"/>
+                <a:pt x="28839583" y="0"/>
+                <a:pt x="36385500" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="43931417" y="0"/>
+                <a:pt x="44603458" y="2206625"/>
+                <a:pt x="45275500" y="4413250"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln>
+          <a:headEnd w="lg" len="lg"/>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>2013857</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>680357</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Полилиния 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="52809321" y="10287000"/>
+          <a:ext cx="3878036" cy="979714"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3188607"/>
+            <a:gd name="connsiteY0" fmla="*/ 113393 h 2344965"/>
+            <a:gd name="connsiteX1" fmla="*/ 2667000 w 3188607"/>
+            <a:gd name="connsiteY1" fmla="*/ 371929 h 2344965"/>
+            <a:gd name="connsiteX2" fmla="*/ 3129643 w 3188607"/>
+            <a:gd name="connsiteY2" fmla="*/ 2344965 h 2344965"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3188607" h="2344965">
+              <a:moveTo>
+                <a:pt x="0" y="113393"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1072696" y="56696"/>
+                <a:pt x="2145393" y="0"/>
+                <a:pt x="2667000" y="371929"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3188607" y="743858"/>
+                <a:pt x="3159125" y="1544411"/>
+                <a:pt x="3129643" y="2344965"/>
               </a:cubicBezTo>
             </a:path>
           </a:pathLst>
@@ -26119,8 +26332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CA219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AG24" sqref="AG24"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
@@ -26132,7 +26345,7 @@
     <col min="5" max="5" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -26208,92 +26421,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:79" ht="26.25">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="78" t="s">
         <v>2725</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="64"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="79"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="65" t="s">
+      <c r="AN1" s="80" t="s">
         <v>2724</v>
       </c>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="66"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="81"/>
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
-      <c r="AY1" s="67" t="s">
+      <c r="AY1" s="82" t="s">
         <v>2723</v>
       </c>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
-      <c r="BG1" s="67"/>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="67"/>
-      <c r="BJ1" s="67"/>
-      <c r="BK1" s="67"/>
-      <c r="BL1" s="67"/>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="67"/>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="67"/>
-      <c r="BR1" s="67"/>
-      <c r="BS1" s="67"/>
-      <c r="BT1" s="67"/>
-      <c r="BU1" s="68"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="82"/>
+      <c r="BI1" s="82"/>
+      <c r="BJ1" s="82"/>
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="82"/>
+      <c r="BM1" s="82"/>
+      <c r="BN1" s="82"/>
+      <c r="BO1" s="82"/>
+      <c r="BP1" s="82"/>
+      <c r="BQ1" s="82"/>
+      <c r="BR1" s="82"/>
+      <c r="BS1" s="82"/>
+      <c r="BT1" s="82"/>
+      <c r="BU1" s="83"/>
       <c r="BV1" s="19"/>
-      <c r="BW1" s="69" t="s">
+      <c r="BW1" s="66" t="s">
         <v>3020</v>
       </c>
-      <c r="BX1" s="69"/>
-      <c r="BY1" s="69"/>
-      <c r="BZ1" s="69"/>
-      <c r="CA1" s="69"/>
+      <c r="BX1" s="66"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="66"/>
+      <c r="CA1" s="66"/>
     </row>
     <row r="2" spans="2:79" ht="28.5">
       <c r="B2" s="30"/>
@@ -26332,11 +26545,11 @@
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
       <c r="AK2" s="16"/>
-      <c r="AL2" s="73" t="s">
-        <v>3035</v>
-      </c>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
+      <c r="AL2" s="70" t="s">
+        <v>3032</v>
+      </c>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
       <c r="AO2" s="17"/>
       <c r="AP2" s="17"/>
       <c r="AQ2" s="17"/>
@@ -26419,7 +26632,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="25" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="AO3" s="17"/>
       <c r="AP3" s="17"/>
@@ -26738,13 +26951,13 @@
       <c r="AI7" s="15"/>
       <c r="AJ7" s="15"/>
       <c r="AK7" s="16"/>
-      <c r="AL7" s="70" t="s">
+      <c r="AL7" s="67" t="s">
         <v>3023</v>
       </c>
       <c r="AM7" s="22">
         <v>1</v>
       </c>
-      <c r="AN7" s="44" t="s">
+      <c r="AN7" s="43" t="s">
         <v>845</v>
       </c>
       <c r="AO7" s="17"/>
@@ -26824,11 +27037,11 @@
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
       <c r="AK8" s="16"/>
-      <c r="AL8" s="71"/>
+      <c r="AL8" s="68"/>
       <c r="AM8" s="8">
         <v>2</v>
       </c>
-      <c r="AN8" s="45" t="s">
+      <c r="AN8" s="44" t="s">
         <v>853</v>
       </c>
       <c r="AO8" s="17"/>
@@ -26908,11 +27121,11 @@
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
       <c r="AK9" s="16"/>
-      <c r="AL9" s="71"/>
+      <c r="AL9" s="68"/>
       <c r="AM9" s="8">
         <v>3</v>
       </c>
-      <c r="AN9" s="45" t="s">
+      <c r="AN9" s="44" t="s">
         <v>878</v>
       </c>
       <c r="AO9" s="17"/>
@@ -26930,7 +27143,7 @@
       <c r="BA9" s="19"/>
       <c r="BB9" s="19"/>
       <c r="BC9" s="28" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BD9" s="19"/>
       <c r="BE9" s="19"/>
@@ -26994,11 +27207,11 @@
       <c r="AI10" s="15"/>
       <c r="AJ10" s="15"/>
       <c r="AK10" s="16"/>
-      <c r="AL10" s="72"/>
+      <c r="AL10" s="69"/>
       <c r="AM10" s="23">
         <v>4</v>
       </c>
-      <c r="AN10" s="46" t="s">
+      <c r="AN10" s="45" t="s">
         <v>877</v>
       </c>
       <c r="AO10" s="17"/>
@@ -27077,14 +27290,14 @@
       <c r="AH11" s="15"/>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="61" t="s">
-        <v>3146</v>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="76" t="s">
+        <v>3148</v>
       </c>
       <c r="AM11" s="22">
         <v>5</v>
       </c>
-      <c r="AN11" s="44" t="s">
+      <c r="AN11" s="43" t="s">
         <v>848</v>
       </c>
       <c r="AO11" s="17"/>
@@ -27163,12 +27376,12 @@
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
       <c r="AJ12" s="15"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="62"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="77"/>
       <c r="AM12" s="23">
         <v>6</v>
       </c>
-      <c r="AN12" s="46" t="s">
+      <c r="AN12" s="45" t="s">
         <v>846</v>
       </c>
       <c r="AO12" s="17"/>
@@ -27463,7 +27676,7 @@
       <c r="BZ15" s="21"/>
       <c r="CA15" s="21"/>
     </row>
-    <row r="16" spans="2:79" ht="26.25">
+    <row r="16" spans="2:79" ht="27" thickBot="1">
       <c r="B16" s="30"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -27547,7 +27760,7 @@
       <c r="BZ16" s="21"/>
       <c r="CA16" s="21"/>
     </row>
-    <row r="17" spans="1:79" ht="26.25">
+    <row r="17" spans="1:79" ht="27" thickBot="1">
       <c r="B17" s="30"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -27555,8 +27768,10 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="I17" s="93" t="s">
+        <v>3152</v>
+      </c>
+      <c r="J17" s="93"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="27"/>
@@ -27585,11 +27800,11 @@
       <c r="AJ17" s="15"/>
       <c r="AK17" s="16"/>
       <c r="AL17" s="2"/>
-      <c r="AM17" s="8">
+      <c r="AM17" s="58">
         <v>11</v>
       </c>
-      <c r="AN17" s="4" t="s">
-        <v>851</v>
+      <c r="AN17" s="59" t="s">
+        <v>864</v>
       </c>
       <c r="AO17" s="17"/>
       <c r="AP17" s="17"/>
@@ -27636,116 +27851,117 @@
         <v>12</v>
       </c>
       <c r="AN18" s="4" t="s">
-        <v>852</v>
+        <v>890</v>
       </c>
     </row>
     <row r="19" spans="1:79" s="3" customFormat="1" ht="27" thickBot="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="57" t="s">
         <v>531</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>3052</v>
-      </c>
-      <c r="O19" s="3" t="s">
+      <c r="N19" s="57" t="s">
+        <v>3049</v>
+      </c>
+      <c r="O19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>3075</v>
-      </c>
-      <c r="Q19" s="3" t="s">
+      <c r="P19" s="57" t="s">
+        <v>3072</v>
+      </c>
+      <c r="Q19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="R19" s="3" t="s">
-        <v>3079</v>
-      </c>
-      <c r="S19" s="3" t="s">
+      <c r="R19" s="57" t="s">
+        <v>3076</v>
+      </c>
+      <c r="S19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="T19" s="57" t="s">
         <v>577</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="U19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="V19" s="57" t="s">
         <v>714</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="W19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="X19" s="57" t="s">
         <v>727</v>
       </c>
-      <c r="Y19" s="3" t="s">
+      <c r="Y19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="Z19" s="3" t="s">
+      <c r="Z19" s="57" t="s">
         <v>776</v>
       </c>
-      <c r="AA19" s="3" t="s">
+      <c r="AA19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="AB19" s="3" t="s">
-        <v>3090</v>
-      </c>
-      <c r="AC19" s="3" t="s">
+      <c r="AB19" s="57" t="s">
+        <v>3087</v>
+      </c>
+      <c r="AC19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="AD19" s="3" t="s">
-        <v>3112</v>
-      </c>
-      <c r="AE19" s="10" t="s">
+      <c r="AD19" s="57" t="s">
+        <v>3109</v>
+      </c>
+      <c r="AE19" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="AF19" s="10" t="s">
+      <c r="AF19" s="63" t="s">
         <v>2722</v>
       </c>
-      <c r="AH19" s="3" t="s">
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="AI19" s="3" t="s">
+      <c r="AI19" s="57" t="s">
         <v>785</v>
       </c>
-      <c r="AJ19" s="3" t="s">
+      <c r="AJ19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="AK19" s="6" t="s">
+      <c r="AK19" s="64" t="s">
         <v>838</v>
       </c>
       <c r="AL19" s="10"/>
@@ -27753,7 +27969,7 @@
         <v>13</v>
       </c>
       <c r="AN19" s="4" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="AO19" s="3" t="s">
         <v>0</v>
@@ -27798,10 +28014,10 @@
       <c r="BY19" s="3" t="s">
         <v>2496</v>
       </c>
-      <c r="BZ19" s="3" t="s">
+      <c r="BZ19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="CA19" s="3" t="s">
+      <c r="CA19" s="57" t="s">
         <v>2526</v>
       </c>
     </row>
@@ -27809,8 +28025,8 @@
       <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>3053</v>
+      <c r="B20" s="4" t="s">
+        <v>3050</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -27833,13 +28049,13 @@
       <c r="I20" s="2">
         <v>1</v>
       </c>
-      <c r="J20" s="32" t="s">
-        <v>3070</v>
+      <c r="J20" s="65" t="s">
+        <v>3067</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
       </c>
-      <c r="L20" s="34" t="s">
+      <c r="L20" s="33" t="s">
         <v>532</v>
       </c>
       <c r="M20" s="2">
@@ -27852,16 +28068,16 @@
         <v>1</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="Q20" s="2">
         <v>1</v>
       </c>
       <c r="R20" s="29" t="s">
-        <v>3076</v>
-      </c>
-      <c r="T20" s="36" t="s">
-        <v>3083</v>
+        <v>3073</v>
+      </c>
+      <c r="T20" s="35" t="s">
+        <v>3080</v>
       </c>
       <c r="U20" s="2">
         <v>1</v>
@@ -27881,28 +28097,28 @@
       <c r="Z20" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AA20" s="38">
+      <c r="AA20" s="37">
         <v>1</v>
       </c>
       <c r="AB20" s="29" t="s">
-        <v>3091</v>
-      </c>
-      <c r="AC20" s="38">
+        <v>3088</v>
+      </c>
+      <c r="AC20" s="37">
         <v>1</v>
       </c>
-      <c r="AD20" s="39" t="s">
-        <v>3103</v>
-      </c>
-      <c r="AF20" s="43" t="s">
-        <v>3138</v>
-      </c>
-      <c r="AG20" s="79" t="s">
+      <c r="AD20" s="38" t="s">
+        <v>3100</v>
+      </c>
+      <c r="AF20" s="42" t="s">
+        <v>3135</v>
+      </c>
+      <c r="AG20" s="84" t="s">
         <v>3028</v>
       </c>
       <c r="AH20" s="22">
         <v>1</v>
       </c>
-      <c r="AI20" s="44" t="s">
+      <c r="AI20" s="43" t="s">
         <v>797</v>
       </c>
       <c r="AJ20" s="2">
@@ -27916,7 +28132,7 @@
         <v>14</v>
       </c>
       <c r="AN20" s="4" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="AO20" s="2">
         <v>1</v>
@@ -27942,20 +28158,20 @@
       <c r="AV20" s="9" t="s">
         <v>1126</v>
       </c>
-      <c r="AW20" s="75" t="s">
+      <c r="AW20" s="72" t="s">
         <v>3024</v>
       </c>
       <c r="AX20" s="22">
         <v>1</v>
       </c>
-      <c r="AY20" s="44" t="s">
+      <c r="AY20" s="43" t="s">
         <v>1205</v>
       </c>
       <c r="AZ20" s="3"/>
       <c r="BV20" s="2">
         <v>1</v>
       </c>
-      <c r="BW20" s="50" t="s">
+      <c r="BW20" s="48" t="s">
         <v>2439</v>
       </c>
       <c r="BX20" s="2">
@@ -27975,8 +28191,8 @@
       <c r="A21" s="2">
         <v>2</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>3054</v>
+      <c r="B21" s="4" t="s">
+        <v>3051</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -27988,7 +28204,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="G21" s="2">
         <v>2</v>
@@ -27999,13 +28215,13 @@
       <c r="I21" s="2">
         <v>2</v>
       </c>
-      <c r="J21" s="32" t="s">
-        <v>3</v>
+      <c r="J21" s="65" t="s">
+        <v>387</v>
       </c>
       <c r="K21" s="2">
         <v>2</v>
       </c>
-      <c r="L21" s="34" t="s">
+      <c r="L21" s="33" t="s">
         <v>545</v>
       </c>
       <c r="M21" s="2">
@@ -28030,7 +28246,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="29" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="U21" s="2">
         <v>2</v>
@@ -28050,27 +28266,27 @@
       <c r="Z21" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="AA21" s="38"/>
+      <c r="AA21" s="37"/>
       <c r="AB21" s="29" t="s">
-        <v>3092</v>
-      </c>
-      <c r="AC21" s="38">
+        <v>3089</v>
+      </c>
+      <c r="AC21" s="37">
         <v>2</v>
       </c>
-      <c r="AD21" s="39" t="s">
-        <v>3104</v>
+      <c r="AD21" s="38" t="s">
+        <v>3101</v>
       </c>
       <c r="AE21" s="8">
         <v>1</v>
       </c>
-      <c r="AF21" s="40" t="s">
+      <c r="AF21" s="39" t="s">
         <v>2687</v>
       </c>
-      <c r="AG21" s="80"/>
+      <c r="AG21" s="85"/>
       <c r="AH21" s="8">
         <v>2</v>
       </c>
-      <c r="AI21" s="45" t="s">
+      <c r="AI21" s="44" t="s">
         <v>793</v>
       </c>
       <c r="AJ21" s="2">
@@ -28084,7 +28300,7 @@
         <v>15</v>
       </c>
       <c r="AN21" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AO21" s="2">
         <v>2</v>
@@ -28110,11 +28326,11 @@
       <c r="AV21" s="9" t="s">
         <v>1127</v>
       </c>
-      <c r="AW21" s="76"/>
+      <c r="AW21" s="73"/>
       <c r="AX21" s="23">
         <v>2</v>
       </c>
-      <c r="AY21" s="46" t="s">
+      <c r="AY21" s="45" t="s">
         <v>1206</v>
       </c>
       <c r="AZ21" s="3"/>
@@ -28141,7 +28357,7 @@
       <c r="A22" s="2">
         <v>3</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="2">
@@ -28165,20 +28381,20 @@
       <c r="I22" s="2">
         <v>3</v>
       </c>
-      <c r="J22" s="32" t="s">
-        <v>3</v>
+      <c r="J22" s="65" t="s">
+        <v>388</v>
       </c>
       <c r="K22" s="2">
         <v>3</v>
       </c>
-      <c r="L22" s="34" t="s">
+      <c r="L22" s="33" t="s">
         <v>546</v>
       </c>
       <c r="M22" s="2">
         <v>3</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="O22" s="2">
         <v>3</v>
@@ -28190,13 +28406,13 @@
         <v>3</v>
       </c>
       <c r="R22" s="29" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="S22" s="2">
         <v>2</v>
       </c>
       <c r="T22" s="29" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="U22" s="2">
         <v>3</v>
@@ -28216,27 +28432,27 @@
       <c r="Z22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AA22" s="38"/>
+      <c r="AA22" s="37"/>
       <c r="AB22" s="29" t="s">
-        <v>3093</v>
-      </c>
-      <c r="AC22" s="38">
+        <v>3090</v>
+      </c>
+      <c r="AC22" s="37">
         <v>3</v>
       </c>
-      <c r="AD22" s="39" t="s">
-        <v>3105</v>
+      <c r="AD22" s="38" t="s">
+        <v>3102</v>
       </c>
       <c r="AE22" s="8">
         <v>2</v>
       </c>
-      <c r="AF22" s="40" t="s">
-        <v>3113</v>
-      </c>
-      <c r="AG22" s="81"/>
+      <c r="AF22" s="39" t="s">
+        <v>3110</v>
+      </c>
+      <c r="AG22" s="86"/>
       <c r="AH22" s="23">
         <v>3</v>
       </c>
-      <c r="AI22" s="46" t="s">
+      <c r="AI22" s="45" t="s">
         <v>788</v>
       </c>
       <c r="AK22" s="8"/>
@@ -28245,7 +28461,7 @@
         <v>16</v>
       </c>
       <c r="AN22" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AO22" s="2">
         <v>3</v>
@@ -28272,11 +28488,11 @@
         <v>1128</v>
       </c>
       <c r="AW22" s="9"/>
-      <c r="AX22" s="22">
+      <c r="AX22" s="8">
         <v>3</v>
       </c>
-      <c r="AY22" s="55" t="s">
-        <v>870</v>
+      <c r="AY22" s="50" t="s">
+        <v>1181</v>
       </c>
       <c r="AZ22" s="3"/>
       <c r="BA22" s="3"/>
@@ -28303,7 +28519,7 @@
       <c r="A23" s="2">
         <v>4</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="2">
@@ -28327,26 +28543,26 @@
       <c r="I23" s="2">
         <v>4</v>
       </c>
-      <c r="J23" s="32" t="s">
-        <v>387</v>
+      <c r="J23" s="65" t="s">
+        <v>389</v>
       </c>
       <c r="K23" s="2">
         <v>4</v>
       </c>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="33" t="s">
         <v>534</v>
       </c>
       <c r="M23" s="2">
         <v>4</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="O23" s="2">
         <v>4</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="Q23" s="2">
         <v>4</v>
@@ -28358,7 +28574,7 @@
         <v>3</v>
       </c>
       <c r="T23" s="29" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="U23" s="2">
         <v>4</v>
@@ -28378,29 +28594,29 @@
       <c r="Z23" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AA23" s="38"/>
+      <c r="AA23" s="37"/>
       <c r="AB23" s="29" t="s">
-        <v>3094</v>
-      </c>
-      <c r="AC23" s="38">
+        <v>3091</v>
+      </c>
+      <c r="AC23" s="37">
         <v>4</v>
       </c>
-      <c r="AD23" s="39" t="s">
-        <v>3106</v>
+      <c r="AD23" s="38" t="s">
+        <v>3103</v>
       </c>
       <c r="AE23" s="8">
         <v>3</v>
       </c>
-      <c r="AF23" s="40" t="s">
+      <c r="AF23" s="39" t="s">
         <v>2685</v>
       </c>
-      <c r="AG23" s="47" t="s">
-        <v>3029</v>
+      <c r="AG23" s="62" t="s">
+        <v>3143</v>
       </c>
       <c r="AH23" s="23">
         <v>4</v>
       </c>
-      <c r="AI23" s="46" t="s">
+      <c r="AI23" s="45" t="s">
         <v>792</v>
       </c>
       <c r="AK23" s="8"/>
@@ -28409,7 +28625,7 @@
         <v>17</v>
       </c>
       <c r="AN23" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AO23" s="2">
         <v>4</v>
@@ -28439,8 +28655,8 @@
       <c r="AX23" s="8">
         <v>4</v>
       </c>
-      <c r="AY23" s="56" t="s">
-        <v>851</v>
+      <c r="AY23" s="51" t="s">
+        <v>1182</v>
       </c>
       <c r="AZ23" s="3"/>
       <c r="BV23" s="2">
@@ -28460,7 +28676,7 @@
       <c r="A24" s="2">
         <v>5</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2">
@@ -28484,20 +28700,20 @@
       <c r="I24" s="2">
         <v>5</v>
       </c>
-      <c r="J24" s="32" t="s">
-        <v>388</v>
+      <c r="J24" s="65" t="s">
+        <v>390</v>
       </c>
       <c r="K24" s="2">
         <v>5</v>
       </c>
-      <c r="L24" s="34" t="s">
+      <c r="L24" s="33" t="s">
         <v>547</v>
       </c>
       <c r="M24" s="2">
         <v>5</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="O24" s="2">
         <v>5</v>
@@ -28514,8 +28730,8 @@
       <c r="S24" s="2">
         <v>4</v>
       </c>
-      <c r="T24" s="35" t="s">
-        <v>3084</v>
+      <c r="T24" s="34" t="s">
+        <v>3081</v>
       </c>
       <c r="U24" s="4"/>
       <c r="W24" s="2">
@@ -28524,37 +28740,37 @@
       <c r="X24" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
       <c r="AB24" s="29" t="s">
-        <v>3095</v>
-      </c>
-      <c r="AC24" s="38">
+        <v>3092</v>
+      </c>
+      <c r="AC24" s="37">
         <v>5</v>
       </c>
       <c r="AD24" s="29" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="AE24" s="8">
         <v>4</v>
       </c>
-      <c r="AF24" s="41" t="s">
-        <v>3114</v>
-      </c>
-      <c r="AG24" s="86" t="s">
-        <v>3147</v>
-      </c>
-      <c r="AH24" s="2">
+      <c r="AF24" s="40" t="s">
+        <v>3111</v>
+      </c>
+      <c r="AG24" s="60" t="s">
+        <v>3149</v>
+      </c>
+      <c r="AH24" s="24">
         <v>5</v>
       </c>
-      <c r="AI24" s="4" t="s">
+      <c r="AI24" s="47" t="s">
         <v>2709</v>
       </c>
       <c r="AM24" s="8">
         <v>18</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AQ24" s="2">
         <v>5</v>
@@ -28578,8 +28794,8 @@
       <c r="AX24" s="8">
         <v>5</v>
       </c>
-      <c r="AY24" s="52" t="s">
-        <v>1181</v>
+      <c r="AY24" s="51" t="s">
+        <v>1183</v>
       </c>
       <c r="AZ24" s="3"/>
       <c r="BV24" s="2">
@@ -28595,11 +28811,11 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="25" spans="1:79">
+    <row r="25" spans="1:79" ht="27" thickBot="1">
       <c r="A25" s="2">
         <v>6</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="2">
@@ -28623,13 +28839,13 @@
       <c r="I25" s="2">
         <v>6</v>
       </c>
-      <c r="J25" s="32" t="s">
-        <v>389</v>
+      <c r="J25" s="65" t="s">
+        <v>391</v>
       </c>
       <c r="K25" s="2">
         <v>6</v>
       </c>
-      <c r="L25" s="34" t="s">
+      <c r="L25" s="33" t="s">
         <v>546</v>
       </c>
       <c r="M25" s="2">
@@ -28648,7 +28864,7 @@
         <v>6</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="S25" s="2">
         <v>5</v>
@@ -28663,34 +28879,37 @@
       <c r="X25" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
       <c r="AB25" s="29" t="s">
-        <v>3096</v>
-      </c>
-      <c r="AC25" s="38">
+        <v>3093</v>
+      </c>
+      <c r="AC25" s="37">
         <v>6</v>
       </c>
       <c r="AD25" s="29" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="AE25" s="8">
         <v>5</v>
       </c>
-      <c r="AF25" s="40" t="s">
-        <v>3115</v>
-      </c>
-      <c r="AH25" s="2">
+      <c r="AF25" s="39" t="s">
+        <v>3112</v>
+      </c>
+      <c r="AG25" s="60" t="s">
+        <v>3151</v>
+      </c>
+      <c r="AH25" s="24">
         <v>6</v>
       </c>
-      <c r="AI25" s="4" t="s">
-        <v>790</v>
+      <c r="AI25" s="47" t="s">
+        <v>795</v>
       </c>
       <c r="AM25" s="8">
         <v>19</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AQ25" s="2">
         <v>6</v>
@@ -28713,8 +28932,8 @@
       <c r="AX25" s="8">
         <v>6</v>
       </c>
-      <c r="AY25" s="53" t="s">
-        <v>1182</v>
+      <c r="AY25" s="51" t="s">
+        <v>1184</v>
       </c>
       <c r="AZ25" s="4"/>
       <c r="BV25" s="2">
@@ -28734,7 +28953,7 @@
       <c r="A26" s="2">
         <v>7</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="2">
@@ -28747,7 +28966,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="G26" s="2">
         <v>7</v>
@@ -28758,32 +28977,32 @@
       <c r="I26" s="2">
         <v>7</v>
       </c>
-      <c r="J26" s="32" t="s">
-        <v>390</v>
+      <c r="J26" s="65" t="s">
+        <v>392</v>
       </c>
       <c r="K26" s="2">
         <v>7</v>
       </c>
-      <c r="L26" s="34" t="s">
+      <c r="L26" s="33" t="s">
         <v>536</v>
       </c>
       <c r="M26" s="2">
         <v>7</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="O26" s="2">
         <v>7</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="Q26" s="2">
         <v>7</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="S26" s="2">
         <v>6</v>
@@ -28798,34 +29017,34 @@
       <c r="X26" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
       <c r="AB26" s="29" t="s">
-        <v>3097</v>
-      </c>
-      <c r="AC26" s="38">
+        <v>3094</v>
+      </c>
+      <c r="AC26" s="37">
         <v>7</v>
       </c>
       <c r="AD26" s="29" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="AE26" s="8">
         <v>6</v>
       </c>
-      <c r="AF26" s="40" t="s">
-        <v>3116</v>
+      <c r="AF26" s="39" t="s">
+        <v>3113</v>
       </c>
       <c r="AH26" s="2">
         <v>7</v>
       </c>
       <c r="AI26" s="4" t="s">
-        <v>2716</v>
+        <v>790</v>
       </c>
       <c r="AM26" s="8">
         <v>20</v>
       </c>
       <c r="AN26" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="AQ26" s="2">
         <v>7</v>
@@ -28843,8 +29062,8 @@
       <c r="AX26" s="8">
         <v>7</v>
       </c>
-      <c r="AY26" s="53" t="s">
-        <v>1183</v>
+      <c r="AY26" s="51" t="s">
+        <v>1195</v>
       </c>
       <c r="AZ26" s="4"/>
       <c r="BV26" s="2">
@@ -28854,11 +29073,11 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="27" spans="1:79">
+    <row r="27" spans="1:79" ht="24" thickBot="1">
       <c r="A27" s="2">
         <v>8</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="2">
@@ -28871,7 +29090,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="G27" s="2">
         <v>8</v>
@@ -28882,20 +29101,20 @@
       <c r="I27" s="2">
         <v>8</v>
       </c>
-      <c r="J27" s="32" t="s">
-        <v>391</v>
+      <c r="J27" s="65" t="s">
+        <v>393</v>
       </c>
       <c r="K27" s="2">
         <v>8</v>
       </c>
-      <c r="L27" s="34" t="s">
+      <c r="L27" s="33" t="s">
         <v>537</v>
       </c>
       <c r="M27" s="2">
         <v>8</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="O27" s="2">
         <v>8</v>
@@ -28907,7 +29126,7 @@
         <v>8</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="S27" s="2">
         <v>7</v>
@@ -28922,34 +29141,34 @@
       <c r="X27" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
       <c r="AB27" s="29" t="s">
-        <v>3098</v>
-      </c>
-      <c r="AC27" s="38">
+        <v>3095</v>
+      </c>
+      <c r="AC27" s="37">
         <v>8</v>
       </c>
       <c r="AD27" s="29" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="AE27" s="8">
         <v>7</v>
       </c>
-      <c r="AF27" s="40" t="s">
-        <v>3117</v>
+      <c r="AF27" s="39" t="s">
+        <v>3114</v>
       </c>
       <c r="AH27" s="2">
         <v>8</v>
       </c>
       <c r="AI27" s="4" t="s">
-        <v>791</v>
+        <v>2716</v>
       </c>
       <c r="AM27" s="8">
         <v>21</v>
       </c>
       <c r="AN27" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AQ27" s="2">
         <v>8</v>
@@ -28967,8 +29186,8 @@
       <c r="AX27" s="8">
         <v>8</v>
       </c>
-      <c r="AY27" s="53" t="s">
-        <v>1184</v>
+      <c r="AY27" s="51" t="s">
+        <v>1196</v>
       </c>
       <c r="AZ27" s="4"/>
       <c r="BV27" s="2">
@@ -28982,7 +29201,7 @@
       <c r="A28" s="2">
         <v>9</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="2">
@@ -29006,26 +29225,26 @@
       <c r="I28" s="2">
         <v>9</v>
       </c>
-      <c r="J28" s="32" t="s">
-        <v>392</v>
+      <c r="J28" s="65" t="s">
+        <v>394</v>
       </c>
       <c r="K28" s="2">
         <v>9</v>
       </c>
-      <c r="L28" s="34" t="s">
+      <c r="L28" s="33" t="s">
         <v>538</v>
       </c>
       <c r="M28" s="2">
         <v>9</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="O28" s="2">
         <v>9</v>
       </c>
       <c r="P28" s="29" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="Q28" s="2">
         <v>9</v>
@@ -29041,34 +29260,34 @@
       </c>
       <c r="U28" s="4"/>
       <c r="X28" s="4"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
       <c r="AB28" s="29" t="s">
-        <v>3099</v>
-      </c>
-      <c r="AC28" s="38">
+        <v>3096</v>
+      </c>
+      <c r="AC28" s="37">
         <v>9</v>
       </c>
       <c r="AD28" s="29" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="AE28" s="8">
         <v>8</v>
       </c>
-      <c r="AF28" s="40" t="s">
-        <v>3118</v>
+      <c r="AF28" s="39" t="s">
+        <v>3115</v>
       </c>
       <c r="AH28" s="2">
         <v>9</v>
       </c>
       <c r="AI28" s="4" t="s">
-        <v>2713</v>
+        <v>791</v>
       </c>
       <c r="AM28" s="8">
         <v>22</v>
       </c>
       <c r="AN28" s="4" t="s">
-        <v>19</v>
+        <v>862</v>
       </c>
       <c r="AQ28" s="2">
         <v>9</v>
@@ -29086,8 +29305,8 @@
       <c r="AX28" s="8">
         <v>9</v>
       </c>
-      <c r="AY28" s="53" t="s">
-        <v>1195</v>
+      <c r="AY28" s="50" t="s">
+        <v>1155</v>
       </c>
       <c r="AZ28" s="4"/>
       <c r="BA28" s="4"/>
@@ -29102,7 +29321,7 @@
       <c r="A29" s="2">
         <v>10</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="2">
@@ -29126,32 +29345,32 @@
       <c r="I29" s="2">
         <v>10</v>
       </c>
-      <c r="J29" s="32" t="s">
-        <v>393</v>
+      <c r="J29" s="65" t="s">
+        <v>395</v>
       </c>
       <c r="K29" s="2">
         <v>10</v>
       </c>
-      <c r="L29" s="34" t="s">
+      <c r="L29" s="33" t="s">
         <v>217</v>
       </c>
       <c r="M29" s="2">
         <v>10</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="O29" s="2">
         <v>10</v>
       </c>
       <c r="P29" s="29" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="Q29" s="2">
         <v>10</v>
       </c>
       <c r="R29" s="29" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="S29" s="2">
         <v>9</v>
@@ -29161,28 +29380,28 @@
       </c>
       <c r="U29" s="4"/>
       <c r="X29" s="4"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
       <c r="AB29" s="29" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="AC29" s="29"/>
       <c r="AD29" s="29"/>
       <c r="AE29" s="29"/>
-      <c r="AF29" s="43" t="s">
-        <v>3139</v>
+      <c r="AF29" s="42" t="s">
+        <v>3136</v>
       </c>
       <c r="AH29" s="2">
         <v>10</v>
       </c>
       <c r="AI29" s="4" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c r="AM29" s="8">
         <v>23</v>
       </c>
       <c r="AN29" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AQ29" s="2">
         <v>10</v>
@@ -29200,8 +29419,8 @@
       <c r="AX29" s="8">
         <v>10</v>
       </c>
-      <c r="AY29" s="54" t="s">
-        <v>1196</v>
+      <c r="AY29" s="52" t="s">
+        <v>1199</v>
       </c>
       <c r="AZ29" s="4"/>
       <c r="BA29" s="4"/>
@@ -29216,7 +29435,7 @@
       <c r="A30" s="2">
         <v>11</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="2">
@@ -29240,20 +29459,20 @@
       <c r="I30" s="2">
         <v>11</v>
       </c>
-      <c r="J30" s="32" t="s">
-        <v>394</v>
+      <c r="J30" s="65" t="s">
+        <v>396</v>
       </c>
       <c r="K30" s="2">
         <v>11</v>
       </c>
-      <c r="L30" s="34" t="s">
+      <c r="L30" s="33" t="s">
         <v>219</v>
       </c>
       <c r="M30" s="2">
         <v>11</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -29261,37 +29480,37 @@
         <v>11</v>
       </c>
       <c r="R30" s="29" t="s">
-        <v>3074</v>
-      </c>
-      <c r="T30" s="37" t="s">
-        <v>3085</v>
+        <v>3071</v>
+      </c>
+      <c r="T30" s="36" t="s">
+        <v>3082</v>
       </c>
       <c r="U30" s="4"/>
       <c r="X30" s="4"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
       <c r="AB30" s="29" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="AC30" s="29"/>
       <c r="AD30" s="29"/>
       <c r="AE30" s="8">
         <v>1</v>
       </c>
-      <c r="AF30" s="42" t="s">
-        <v>3119</v>
+      <c r="AF30" s="41" t="s">
+        <v>3116</v>
       </c>
       <c r="AH30" s="2">
         <v>11</v>
       </c>
       <c r="AI30" s="4" t="s">
-        <v>789</v>
+        <v>2711</v>
       </c>
       <c r="AM30" s="8">
         <v>24</v>
       </c>
       <c r="AN30" s="4" t="s">
-        <v>865</v>
+        <v>19</v>
       </c>
       <c r="AQ30" s="2">
         <v>11</v>
@@ -29309,8 +29528,8 @@
       <c r="AX30" s="8">
         <v>11</v>
       </c>
-      <c r="AY30" s="57" t="s">
-        <v>1155</v>
+      <c r="AY30" s="55" t="s">
+        <v>1173</v>
       </c>
       <c r="AZ30" s="4"/>
       <c r="BA30" s="4"/>
@@ -29325,8 +29544,8 @@
       <c r="A31" s="2">
         <v>12</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>3055</v>
+      <c r="B31" s="4" t="s">
+        <v>3052</v>
       </c>
       <c r="C31" s="2">
         <v>12</v>
@@ -29349,20 +29568,20 @@
       <c r="I31" s="2">
         <v>12</v>
       </c>
-      <c r="J31" s="32" t="s">
-        <v>395</v>
+      <c r="J31" s="65" t="s">
+        <v>397</v>
       </c>
       <c r="K31" s="2">
         <v>12</v>
       </c>
-      <c r="L31" s="34" t="s">
+      <c r="L31" s="33" t="s">
         <v>224</v>
       </c>
       <c r="M31" s="2">
         <v>12</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -29370,7 +29589,7 @@
         <v>12</v>
       </c>
       <c r="R31" s="29" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="S31" s="2">
         <v>10</v>
@@ -29380,27 +29599,27 @@
       </c>
       <c r="U31" s="4"/>
       <c r="AB31" s="29" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="AC31" s="29"/>
       <c r="AD31" s="29"/>
       <c r="AE31" s="8">
         <v>2</v>
       </c>
-      <c r="AF31" s="42" t="s">
-        <v>3120</v>
+      <c r="AF31" s="41" t="s">
+        <v>3117</v>
       </c>
       <c r="AH31" s="2">
         <v>12</v>
       </c>
       <c r="AI31" s="4" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="AM31" s="8">
         <v>25</v>
       </c>
       <c r="AN31" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AQ31" s="2">
         <v>12</v>
@@ -29419,7 +29638,7 @@
         <v>12</v>
       </c>
       <c r="AY31" s="4" t="s">
-        <v>1199</v>
+        <v>1159</v>
       </c>
       <c r="AZ31" s="4"/>
       <c r="BV31" s="2">
@@ -29433,8 +29652,8 @@
       <c r="A32" s="2">
         <v>13</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>3056</v>
+      <c r="B32" s="4" t="s">
+        <v>3053</v>
       </c>
       <c r="C32" s="2">
         <v>13</v>
@@ -29457,20 +29676,20 @@
       <c r="I32" s="2">
         <v>13</v>
       </c>
-      <c r="J32" s="32" t="s">
-        <v>396</v>
+      <c r="J32" s="65" t="s">
+        <v>398</v>
       </c>
       <c r="K32" s="2">
         <v>13</v>
       </c>
-      <c r="L32" s="34" t="s">
+      <c r="L32" s="33" t="s">
         <v>539</v>
       </c>
       <c r="M32" s="2">
         <v>13</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -29491,26 +29710,26 @@
       <c r="AE32" s="8">
         <v>3</v>
       </c>
-      <c r="AF32" s="42" t="s">
-        <v>3121</v>
+      <c r="AF32" s="41" t="s">
+        <v>3118</v>
       </c>
       <c r="AH32" s="2">
         <v>13</v>
       </c>
       <c r="AI32" s="4" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="AM32" s="8">
         <v>26</v>
       </c>
       <c r="AN32" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AX32" s="8">
         <v>13</v>
       </c>
       <c r="AY32" s="4" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="AZ32" s="4"/>
       <c r="BV32" s="2">
@@ -29524,8 +29743,8 @@
       <c r="A33" s="2">
         <v>14</v>
       </c>
-      <c r="B33" s="31" t="s">
-        <v>3057</v>
+      <c r="B33" s="4" t="s">
+        <v>3054</v>
       </c>
       <c r="C33" s="2">
         <v>14</v>
@@ -29548,20 +29767,20 @@
       <c r="I33" s="2">
         <v>14</v>
       </c>
-      <c r="J33" s="32" t="s">
-        <v>397</v>
+      <c r="J33" s="65" t="s">
+        <v>399</v>
       </c>
       <c r="K33" s="2">
         <v>14</v>
       </c>
-      <c r="L33" s="34" t="s">
+      <c r="L33" s="33" t="s">
         <v>540</v>
       </c>
       <c r="M33" s="2">
         <v>14</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -29582,26 +29801,26 @@
       <c r="AE33" s="8">
         <v>4</v>
       </c>
-      <c r="AF33" s="42" t="s">
-        <v>3122</v>
+      <c r="AF33" s="41" t="s">
+        <v>3119</v>
       </c>
       <c r="AH33" s="2">
         <v>14</v>
       </c>
       <c r="AI33" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AM33" s="8">
         <v>27</v>
       </c>
       <c r="AN33" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AX33" s="8">
         <v>14</v>
       </c>
       <c r="AY33" s="4" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="AZ33" s="4"/>
       <c r="BA33" s="4"/>
@@ -29616,8 +29835,8 @@
       <c r="A34" s="2">
         <v>15</v>
       </c>
-      <c r="B34" s="31" t="s">
-        <v>3058</v>
+      <c r="B34" s="4" t="s">
+        <v>3055</v>
       </c>
       <c r="C34" s="2">
         <v>15</v>
@@ -29640,20 +29859,20 @@
       <c r="I34" s="2">
         <v>15</v>
       </c>
-      <c r="J34" s="32" t="s">
-        <v>398</v>
+      <c r="J34" s="65" t="s">
+        <v>400</v>
       </c>
       <c r="K34" s="2">
         <v>15</v>
       </c>
-      <c r="L34" s="34" t="s">
+      <c r="L34" s="33" t="s">
         <v>541</v>
       </c>
       <c r="M34" s="2">
         <v>15</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -29674,8 +29893,8 @@
       <c r="AE34" s="8">
         <v>5</v>
       </c>
-      <c r="AF34" s="42" t="s">
-        <v>3123</v>
+      <c r="AF34" s="41" t="s">
+        <v>3120</v>
       </c>
       <c r="AH34" s="2">
         <v>15</v>
@@ -29687,20 +29906,20 @@
         <v>28</v>
       </c>
       <c r="AN34" s="4" t="s">
-        <v>728</v>
+        <v>868</v>
       </c>
       <c r="AX34" s="8">
         <v>15</v>
       </c>
       <c r="AY34" s="4" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="AZ34" s="4"/>
-      <c r="BB34" s="3" t="s">
+      <c r="BB34" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="BC34" s="3" t="s">
-        <v>3033</v>
+      <c r="BC34" s="57" t="s">
+        <v>3030</v>
       </c>
       <c r="BE34" s="3"/>
       <c r="BF34" s="3"/>
@@ -29709,11 +29928,11 @@
       <c r="BI34" s="3"/>
       <c r="BJ34" s="3"/>
       <c r="BK34" s="3"/>
-      <c r="BL34" s="3" t="s">
+      <c r="BL34" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="BM34" s="3" t="s">
-        <v>3034</v>
+      <c r="BM34" s="57" t="s">
+        <v>3031</v>
       </c>
       <c r="BP34" s="3" t="s">
         <v>0</v>
@@ -29744,14 +29963,14 @@
       <c r="A35" s="2">
         <v>16</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="2">
         <v>16</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="E35" s="2">
         <v>16</v>
@@ -29768,13 +29987,13 @@
       <c r="I35" s="2">
         <v>16</v>
       </c>
-      <c r="J35" s="32" t="s">
-        <v>399</v>
+      <c r="J35" s="65" t="s">
+        <v>401</v>
       </c>
       <c r="K35" s="2">
         <v>16</v>
       </c>
-      <c r="L35" s="34" t="s">
+      <c r="L35" s="33" t="s">
         <v>542</v>
       </c>
       <c r="M35" s="2">
@@ -29795,15 +30014,15 @@
       </c>
       <c r="U35" s="4"/>
       <c r="AB35" s="29" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="AC35" s="29"/>
       <c r="AD35" s="29"/>
       <c r="AE35" s="8">
         <v>6</v>
       </c>
-      <c r="AF35" s="42" t="s">
-        <v>3124</v>
+      <c r="AF35" s="41" t="s">
+        <v>3121</v>
       </c>
       <c r="AH35" s="2">
         <v>16</v>
@@ -29815,22 +30034,22 @@
         <v>29</v>
       </c>
       <c r="AN35" s="4" t="s">
-        <v>869</v>
+        <v>728</v>
       </c>
       <c r="AX35" s="8">
         <v>16</v>
       </c>
       <c r="AY35" s="4" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="AZ35" s="4"/>
-      <c r="BA35" s="77" t="s">
+      <c r="BA35" s="74" t="s">
         <v>3025</v>
       </c>
       <c r="BB35" s="22">
         <v>1</v>
       </c>
-      <c r="BC35" s="44" t="s">
+      <c r="BC35" s="43" t="s">
         <v>1382</v>
       </c>
       <c r="BE35" s="9"/>
@@ -29843,7 +30062,7 @@
       <c r="BL35" s="2">
         <v>1</v>
       </c>
-      <c r="BM35" s="50" t="s">
+      <c r="BM35" s="48" t="s">
         <v>1381</v>
       </c>
       <c r="BP35" s="2">
@@ -29875,7 +30094,7 @@
       <c r="A36" s="2">
         <v>17</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="2">
@@ -29899,20 +30118,20 @@
       <c r="I36" s="2">
         <v>17</v>
       </c>
-      <c r="J36" s="32" t="s">
-        <v>400</v>
+      <c r="J36" s="65" t="s">
+        <v>402</v>
       </c>
       <c r="K36" s="2">
         <v>17</v>
       </c>
-      <c r="L36" s="34" t="s">
+      <c r="L36" s="33" t="s">
         <v>543</v>
       </c>
       <c r="M36" s="2">
         <v>17</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
@@ -29933,8 +30152,8 @@
       <c r="AE36" s="8">
         <v>7</v>
       </c>
-      <c r="AF36" s="42" t="s">
-        <v>3125</v>
+      <c r="AF36" s="41" t="s">
+        <v>3122</v>
       </c>
       <c r="AH36" s="2">
         <v>17</v>
@@ -29946,20 +30165,20 @@
         <v>30</v>
       </c>
       <c r="AN36" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AX36" s="8">
         <v>17</v>
       </c>
       <c r="AY36" s="4" t="s">
-        <v>1156</v>
+        <v>1163</v>
       </c>
       <c r="AZ36" s="4"/>
-      <c r="BA36" s="78"/>
+      <c r="BA36" s="75"/>
       <c r="BB36" s="23">
         <v>2</v>
       </c>
-      <c r="BC36" s="46" t="s">
+      <c r="BC36" s="45" t="s">
         <v>1383</v>
       </c>
       <c r="BE36" s="9"/>
@@ -29968,13 +30187,13 @@
       <c r="BH36" s="9"/>
       <c r="BI36" s="9"/>
       <c r="BJ36" s="9"/>
-      <c r="BK36" s="48" t="s">
+      <c r="BK36" s="46" t="s">
         <v>3026</v>
       </c>
       <c r="BL36" s="24">
         <v>2</v>
       </c>
-      <c r="BM36" s="49" t="s">
+      <c r="BM36" s="47" t="s">
         <v>3019</v>
       </c>
       <c r="BP36" s="2">
@@ -30006,7 +30225,7 @@
       <c r="A37" s="2">
         <v>18</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="2">
@@ -30030,13 +30249,13 @@
       <c r="I37" s="2">
         <v>18</v>
       </c>
-      <c r="J37" s="32" t="s">
-        <v>401</v>
+      <c r="J37" s="65" t="s">
+        <v>403</v>
       </c>
       <c r="K37" s="2">
         <v>18</v>
       </c>
-      <c r="L37" s="34" t="s">
+      <c r="L37" s="33" t="s">
         <v>544</v>
       </c>
       <c r="M37" s="2">
@@ -30056,8 +30275,8 @@
         <v>592</v>
       </c>
       <c r="U37" s="4"/>
-      <c r="AF37" s="43" t="s">
-        <v>3140</v>
+      <c r="AF37" s="42" t="s">
+        <v>3137</v>
       </c>
       <c r="AH37" s="2">
         <v>18</v>
@@ -30069,19 +30288,19 @@
         <v>31</v>
       </c>
       <c r="AN37" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AX37" s="8">
         <v>18</v>
       </c>
       <c r="AY37" s="4" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="AZ37" s="4"/>
       <c r="BB37" s="22">
         <v>3</v>
       </c>
-      <c r="BC37" s="57" t="s">
+      <c r="BC37" s="55" t="s">
         <v>1360</v>
       </c>
       <c r="BE37" s="9"/>
@@ -30090,13 +30309,13 @@
       <c r="BH37" s="9"/>
       <c r="BI37" s="9"/>
       <c r="BJ37" s="9"/>
-      <c r="BK37" s="48" t="s">
+      <c r="BK37" s="46" t="s">
         <v>3027</v>
       </c>
       <c r="BL37" s="24">
         <v>3</v>
       </c>
-      <c r="BM37" s="49" t="s">
+      <c r="BM37" s="47" t="s">
         <v>1427</v>
       </c>
       <c r="BP37" s="2">
@@ -30122,7 +30341,7 @@
       <c r="A38" s="2">
         <v>19</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="2">
@@ -30146,14 +30365,14 @@
       <c r="I38" s="2">
         <v>19</v>
       </c>
-      <c r="J38" s="32" t="s">
-        <v>402</v>
+      <c r="J38" s="65" t="s">
+        <v>404</v>
       </c>
       <c r="M38" s="2">
         <v>19</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -30169,26 +30388,26 @@
       <c r="AE38" s="8">
         <v>1</v>
       </c>
-      <c r="AF38" s="42" t="s">
-        <v>3126</v>
+      <c r="AF38" s="41" t="s">
+        <v>3123</v>
       </c>
       <c r="AM38" s="8">
         <v>32</v>
       </c>
       <c r="AN38" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AX38" s="8">
         <v>19</v>
       </c>
       <c r="AY38" s="4" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="AZ38" s="4"/>
       <c r="BB38" s="8">
         <v>4</v>
       </c>
-      <c r="BC38" s="57" t="s">
+      <c r="BC38" s="50" t="s">
         <v>1155</v>
       </c>
       <c r="BD38" s="4"/>
@@ -30198,13 +30417,13 @@
       <c r="BH38" s="4"/>
       <c r="BI38" s="4"/>
       <c r="BJ38" s="4"/>
-      <c r="BK38" s="48" t="s">
-        <v>3031</v>
+      <c r="BK38" s="46" t="s">
+        <v>3140</v>
       </c>
       <c r="BL38" s="24">
         <v>4</v>
       </c>
-      <c r="BM38" s="49" t="s">
+      <c r="BM38" s="47" t="s">
         <v>1354</v>
       </c>
       <c r="BP38" s="2">
@@ -30220,11 +30439,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:75">
+    <row r="39" spans="1:75" ht="27" thickBot="1">
       <c r="A39" s="2">
         <v>20</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="2">
@@ -30249,7 +30468,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="M39" s="2">
         <v>20</v>
@@ -30271,35 +30490,37 @@
       <c r="AE39" s="8">
         <v>2</v>
       </c>
-      <c r="AF39" s="42" t="s">
-        <v>3127</v>
+      <c r="AF39" s="41" t="s">
+        <v>3124</v>
       </c>
       <c r="AM39" s="8">
         <v>33</v>
       </c>
       <c r="AN39" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AX39" s="8">
         <v>20</v>
       </c>
       <c r="AY39" s="4" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="AZ39" s="4"/>
-      <c r="BA39" s="4"/>
-      <c r="BB39" s="8">
+      <c r="BA39" s="61" t="s">
+        <v>3150</v>
+      </c>
+      <c r="BB39" s="24">
         <v>5</v>
       </c>
-      <c r="BC39" s="4" t="s">
-        <v>1358</v>
+      <c r="BC39" s="47" t="s">
+        <v>1423</v>
       </c>
       <c r="BD39" s="4"/>
       <c r="BK39" s="4"/>
       <c r="BL39" s="2">
         <v>5</v>
       </c>
-      <c r="BM39" s="50" t="s">
+      <c r="BM39" s="48" t="s">
         <v>1372</v>
       </c>
       <c r="BP39" s="2">
@@ -30319,7 +30540,7 @@
       <c r="A40" s="2">
         <v>21</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="2">
@@ -30343,8 +30564,8 @@
       <c r="I40" s="2">
         <v>21</v>
       </c>
-      <c r="J40" s="32" t="s">
-        <v>404</v>
+      <c r="J40" s="31" t="s">
+        <v>405</v>
       </c>
       <c r="M40" s="2">
         <v>21</v>
@@ -30366,33 +30587,33 @@
       <c r="AE40" s="8">
         <v>3</v>
       </c>
-      <c r="AF40" s="42" t="s">
-        <v>3128</v>
+      <c r="AF40" s="41" t="s">
+        <v>3125</v>
       </c>
       <c r="AM40" s="8">
         <v>34</v>
       </c>
       <c r="AN40" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AX40" s="8">
         <v>21</v>
       </c>
       <c r="AY40" s="4" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="AZ40" s="4"/>
       <c r="BB40" s="8">
         <v>6</v>
       </c>
       <c r="BC40" s="4" t="s">
-        <v>1359</v>
+        <v>1422</v>
       </c>
       <c r="BK40" s="9"/>
       <c r="BL40" s="2">
         <v>6</v>
       </c>
-      <c r="BM40" s="50" t="s">
+      <c r="BM40" s="48" t="s">
         <v>1393</v>
       </c>
       <c r="BP40" s="2">
@@ -30412,7 +30633,7 @@
       <c r="A41" s="2">
         <v>22</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="2">
@@ -30436,14 +30657,14 @@
       <c r="I41" s="2">
         <v>22</v>
       </c>
-      <c r="J41" s="33" t="s">
-        <v>430</v>
+      <c r="J41" s="31" t="s">
+        <v>406</v>
       </c>
       <c r="M41" s="2">
         <v>22</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -30459,27 +30680,27 @@
       <c r="AE41" s="8">
         <v>4</v>
       </c>
-      <c r="AF41" s="42" t="s">
-        <v>3129</v>
+      <c r="AF41" s="41" t="s">
+        <v>3126</v>
       </c>
       <c r="AM41" s="8">
         <v>35</v>
       </c>
       <c r="AN41" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AX41" s="8">
         <v>22</v>
       </c>
       <c r="AY41" s="4" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="AZ41" s="4"/>
       <c r="BB41" s="8">
         <v>7</v>
       </c>
       <c r="BC41" s="4" t="s">
-        <v>1361</v>
+        <v>1424</v>
       </c>
       <c r="BD41" s="8"/>
       <c r="BE41" s="3" t="s">
@@ -30498,7 +30719,7 @@
       <c r="BL41" s="2">
         <v>7</v>
       </c>
-      <c r="BM41" s="50" t="s">
+      <c r="BM41" s="48" t="s">
         <v>1203</v>
       </c>
       <c r="BP41" s="2">
@@ -30514,11 +30735,11 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="42" spans="1:75" ht="23.25" customHeight="1">
+    <row r="42" spans="1:75" ht="23.25" customHeight="1" thickBot="1">
       <c r="A42" s="2">
         <v>23</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="2">
@@ -30537,8 +30758,14 @@
       <c r="I42" s="2">
         <v>23</v>
       </c>
-      <c r="J42" s="32" t="s">
-        <v>405</v>
+      <c r="J42" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="2">
+        <v>23</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>3141</v>
       </c>
       <c r="S42" s="2">
         <v>21</v>
@@ -30550,20 +30777,20 @@
       <c r="AE42" s="8">
         <v>5</v>
       </c>
-      <c r="AF42" s="42" t="s">
-        <v>3130</v>
+      <c r="AF42" s="41" t="s">
+        <v>3127</v>
       </c>
       <c r="AM42" s="8">
         <v>36</v>
       </c>
       <c r="AN42" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AX42" s="8">
         <v>23</v>
       </c>
       <c r="AY42" s="4" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="AZ42" s="4"/>
       <c r="BA42" s="4"/>
@@ -30571,34 +30798,34 @@
         <v>8</v>
       </c>
       <c r="BC42" s="4" t="s">
-        <v>1362</v>
-      </c>
-      <c r="BD42" s="82" t="s">
-        <v>3030</v>
+        <v>1420</v>
+      </c>
+      <c r="BD42" s="87" t="s">
+        <v>3144</v>
       </c>
       <c r="BE42" s="22">
         <v>1</v>
       </c>
-      <c r="BF42" s="44" t="s">
+      <c r="BF42" s="43" t="s">
         <v>3021</v>
       </c>
       <c r="BG42" s="9"/>
-      <c r="BH42" s="59" t="s">
-        <v>3143</v>
+      <c r="BH42" s="90" t="s">
+        <v>3145</v>
       </c>
       <c r="BI42" s="22">
         <v>1</v>
       </c>
-      <c r="BJ42" s="44" t="s">
+      <c r="BJ42" s="43" t="s">
         <v>1711</v>
       </c>
-      <c r="BK42" s="59" t="s">
-        <v>3145</v>
-      </c>
-      <c r="BL42" s="2">
+      <c r="BK42" s="60" t="s">
+        <v>3147</v>
+      </c>
+      <c r="BL42" s="24">
         <v>8</v>
       </c>
-      <c r="BM42" s="50" t="s">
+      <c r="BM42" s="47" t="s">
         <v>1672</v>
       </c>
       <c r="BP42" s="2">
@@ -30618,7 +30845,7 @@
       <c r="A43" s="2">
         <v>24</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="2">
@@ -30637,8 +30864,8 @@
       <c r="I43" s="2">
         <v>24</v>
       </c>
-      <c r="J43" s="32" t="s">
-        <v>406</v>
+      <c r="J43" s="31" t="s">
+        <v>407</v>
       </c>
       <c r="S43" s="2">
         <v>22</v>
@@ -30650,20 +30877,20 @@
       <c r="AE43" s="8">
         <v>6</v>
       </c>
-      <c r="AF43" s="42" t="s">
-        <v>3131</v>
+      <c r="AF43" s="41" t="s">
+        <v>3128</v>
       </c>
       <c r="AM43" s="8">
         <v>37</v>
       </c>
       <c r="AN43" s="4" t="s">
-        <v>854</v>
+        <v>876</v>
       </c>
       <c r="AX43" s="8">
         <v>24</v>
       </c>
       <c r="AY43" s="4" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="AZ43" s="4"/>
       <c r="BA43" s="4"/>
@@ -30671,24 +30898,24 @@
         <v>9</v>
       </c>
       <c r="BC43" s="4" t="s">
-        <v>1363</v>
-      </c>
-      <c r="BD43" s="83"/>
+        <v>1421</v>
+      </c>
+      <c r="BD43" s="88"/>
       <c r="BE43" s="8">
         <v>2</v>
       </c>
-      <c r="BF43" s="45" t="s">
+      <c r="BF43" s="44" t="s">
         <v>1415</v>
       </c>
       <c r="BG43" s="9"/>
-      <c r="BH43" s="60"/>
+      <c r="BH43" s="91"/>
       <c r="BI43" s="8">
         <v>2</v>
       </c>
-      <c r="BJ43" s="45" t="s">
+      <c r="BJ43" s="44" t="s">
         <v>1745</v>
       </c>
-      <c r="BK43" s="60"/>
+      <c r="BK43" s="4"/>
       <c r="BL43" s="4"/>
       <c r="BM43" s="4"/>
       <c r="BP43" s="2">
@@ -30708,7 +30935,7 @@
       <c r="A44" s="2">
         <v>25</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="2">
@@ -30727,8 +30954,8 @@
       <c r="I44" s="2">
         <v>25</v>
       </c>
-      <c r="J44" s="32" t="s">
-        <v>22</v>
+      <c r="J44" s="31" t="s">
+        <v>408</v>
       </c>
       <c r="S44" s="2">
         <v>23</v>
@@ -30740,20 +30967,20 @@
       <c r="AE44" s="8">
         <v>7</v>
       </c>
-      <c r="AF44" s="42" t="s">
-        <v>3132</v>
+      <c r="AF44" s="41" t="s">
+        <v>3129</v>
       </c>
       <c r="AM44" s="8">
         <v>38</v>
       </c>
       <c r="AN44" s="4" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="AX44" s="8">
         <v>25</v>
       </c>
       <c r="AY44" s="4" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="AZ44" s="4"/>
       <c r="BA44" s="4"/>
@@ -30761,24 +30988,24 @@
         <v>10</v>
       </c>
       <c r="BC44" s="4" t="s">
-        <v>1364</v>
-      </c>
-      <c r="BD44" s="83"/>
+        <v>1358</v>
+      </c>
+      <c r="BD44" s="88"/>
       <c r="BE44" s="8">
         <v>3</v>
       </c>
-      <c r="BF44" s="45" t="s">
+      <c r="BF44" s="44" t="s">
         <v>110</v>
       </c>
       <c r="BG44" s="9"/>
-      <c r="BH44" s="85"/>
+      <c r="BH44" s="92"/>
       <c r="BI44" s="23">
         <v>3</v>
       </c>
-      <c r="BJ44" s="46" t="s">
+      <c r="BJ44" s="45" t="s">
         <v>1746</v>
       </c>
-      <c r="BK44" s="60"/>
+      <c r="BK44" s="4"/>
       <c r="BL44" s="4"/>
       <c r="BM44" s="4"/>
       <c r="BP44" s="2">
@@ -30792,8 +31019,8 @@
       <c r="A45" s="2">
         <v>26</v>
       </c>
-      <c r="B45" s="31" t="s">
-        <v>3059</v>
+      <c r="B45" s="4" t="s">
+        <v>3056</v>
       </c>
       <c r="C45" s="2">
         <v>26</v>
@@ -30811,8 +31038,8 @@
       <c r="I45" s="2">
         <v>26</v>
       </c>
-      <c r="J45" s="32" t="s">
-        <v>407</v>
+      <c r="J45" s="31" t="s">
+        <v>409</v>
       </c>
       <c r="S45" s="2">
         <v>24</v>
@@ -30824,20 +31051,20 @@
       <c r="AE45" s="8">
         <v>8</v>
       </c>
-      <c r="AF45" s="42" t="s">
-        <v>3133</v>
+      <c r="AF45" s="41" t="s">
+        <v>3130</v>
       </c>
       <c r="AM45" s="8">
         <v>39</v>
       </c>
       <c r="AN45" s="4" t="s">
-        <v>879</v>
+        <v>847</v>
       </c>
       <c r="AX45" s="8">
         <v>26</v>
       </c>
       <c r="AY45" s="4" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="AZ45" s="4"/>
       <c r="BA45" s="4"/>
@@ -30845,26 +31072,26 @@
         <v>11</v>
       </c>
       <c r="BC45" s="4" t="s">
-        <v>1365</v>
-      </c>
-      <c r="BD45" s="84"/>
+        <v>1359</v>
+      </c>
+      <c r="BD45" s="89"/>
       <c r="BE45" s="23">
         <v>4</v>
       </c>
-      <c r="BF45" s="46" t="s">
+      <c r="BF45" s="45" t="s">
         <v>3022</v>
       </c>
       <c r="BG45" s="9"/>
-      <c r="BH45" s="59" t="s">
-        <v>3144</v>
+      <c r="BH45" s="90" t="s">
+        <v>3146</v>
       </c>
       <c r="BI45" s="22">
         <v>4</v>
       </c>
-      <c r="BJ45" s="44" t="s">
+      <c r="BJ45" s="43" t="s">
         <v>1761</v>
       </c>
-      <c r="BK45" s="60"/>
+      <c r="BK45" s="4"/>
       <c r="BL45" s="4"/>
       <c r="BM45" s="4"/>
       <c r="BP45" s="2">
@@ -30878,7 +31105,7 @@
       <c r="A46" s="2">
         <v>27</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C46" s="2">
@@ -30897,8 +31124,8 @@
       <c r="I46" s="2">
         <v>27</v>
       </c>
-      <c r="J46" s="32" t="s">
-        <v>408</v>
+      <c r="J46" s="31" t="s">
+        <v>410</v>
       </c>
       <c r="S46" s="2">
         <v>25</v>
@@ -30907,20 +31134,20 @@
         <v>601</v>
       </c>
       <c r="U46" s="4"/>
-      <c r="AF46" s="43" t="s">
-        <v>3141</v>
+      <c r="AF46" s="42" t="s">
+        <v>3138</v>
       </c>
       <c r="AM46" s="8">
         <v>40</v>
       </c>
       <c r="AN46" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AX46" s="8">
         <v>27</v>
       </c>
       <c r="AY46" s="4" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="AZ46" s="4"/>
       <c r="BA46" s="4"/>
@@ -30928,7 +31155,7 @@
         <v>12</v>
       </c>
       <c r="BC46" s="4" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="BD46" s="4"/>
       <c r="BE46" s="2">
@@ -30938,11 +31165,11 @@
         <v>1370</v>
       </c>
       <c r="BG46" s="9"/>
-      <c r="BH46" s="60"/>
+      <c r="BH46" s="91"/>
       <c r="BI46" s="8">
         <v>5</v>
       </c>
-      <c r="BJ46" s="45" t="s">
+      <c r="BJ46" s="44" t="s">
         <v>1715</v>
       </c>
       <c r="BK46" s="4"/>
@@ -30965,7 +31192,7 @@
       <c r="A47" s="2">
         <v>28</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C47" s="2">
@@ -30984,8 +31211,8 @@
       <c r="I47" s="2">
         <v>28</v>
       </c>
-      <c r="J47" s="32" t="s">
-        <v>409</v>
+      <c r="J47" s="31" t="s">
+        <v>411</v>
       </c>
       <c r="S47" s="2">
         <v>26</v>
@@ -30998,19 +31225,19 @@
         <v>1</v>
       </c>
       <c r="AF47" s="4" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="AM47" s="8">
         <v>41</v>
       </c>
       <c r="AN47" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AX47" s="8">
         <v>28</v>
       </c>
       <c r="AY47" s="4" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="AZ47" s="4"/>
       <c r="BA47" s="4"/>
@@ -31018,17 +31245,17 @@
         <v>13</v>
       </c>
       <c r="BC47" s="4" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="BD47" s="4"/>
       <c r="BE47" s="4"/>
       <c r="BF47" s="4"/>
       <c r="BG47" s="4"/>
-      <c r="BH47" s="85"/>
+      <c r="BH47" s="92"/>
       <c r="BI47" s="23">
         <v>6</v>
       </c>
-      <c r="BJ47" s="46" t="s">
+      <c r="BJ47" s="45" t="s">
         <v>1713</v>
       </c>
       <c r="BK47" s="4"/>
@@ -31037,7 +31264,7 @@
       <c r="BN47" s="2">
         <v>1</v>
       </c>
-      <c r="BO47" s="51" t="s">
+      <c r="BO47" s="49" t="s">
         <v>2721</v>
       </c>
       <c r="BP47" s="2">
@@ -31051,14 +31278,14 @@
       <c r="A48" s="2">
         <v>29</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="2">
         <v>29</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="E48" s="4"/>
       <c r="G48" s="2">
@@ -31070,8 +31297,8 @@
       <c r="I48" s="2">
         <v>29</v>
       </c>
-      <c r="J48" s="32" t="s">
-        <v>410</v>
+      <c r="J48" s="31" t="s">
+        <v>412</v>
       </c>
       <c r="S48" s="2">
         <v>27</v>
@@ -31080,20 +31307,20 @@
         <v>611</v>
       </c>
       <c r="U48" s="4"/>
-      <c r="AF48" s="43" t="s">
-        <v>3142</v>
+      <c r="AF48" s="42" t="s">
+        <v>3139</v>
       </c>
       <c r="AM48" s="8">
         <v>42</v>
       </c>
       <c r="AN48" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AX48" s="8">
         <v>29</v>
       </c>
       <c r="AY48" s="4" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="AZ48" s="4"/>
       <c r="BA48" s="4"/>
@@ -31101,7 +31328,7 @@
         <v>14</v>
       </c>
       <c r="BC48" s="4" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="BD48" s="4"/>
       <c r="BE48" s="4"/>
@@ -31120,7 +31347,7 @@
       <c r="BN48" s="2">
         <v>2</v>
       </c>
-      <c r="BO48" s="51" t="s">
+      <c r="BO48" s="49" t="s">
         <v>2720</v>
       </c>
       <c r="BP48" s="2">
@@ -31134,14 +31361,14 @@
       <c r="A49" s="2">
         <v>30</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="2">
         <v>30</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="G49" s="2">
         <v>30</v>
@@ -31152,30 +31379,30 @@
       <c r="I49" s="2">
         <v>30</v>
       </c>
-      <c r="J49" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="T49" s="37" t="s">
-        <v>3086</v>
+      <c r="J49" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="T49" s="36" t="s">
+        <v>3083</v>
       </c>
       <c r="U49" s="4"/>
       <c r="AE49" s="8">
         <v>1</v>
       </c>
-      <c r="AF49" s="42" t="s">
-        <v>3135</v>
+      <c r="AF49" s="41" t="s">
+        <v>3132</v>
       </c>
       <c r="AM49" s="8">
         <v>43</v>
       </c>
       <c r="AN49" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AX49" s="8">
         <v>30</v>
       </c>
       <c r="AY49" s="4" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="AZ49" s="4"/>
       <c r="BA49" s="4"/>
@@ -31183,7 +31410,7 @@
         <v>15</v>
       </c>
       <c r="BC49" s="4" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="BD49" s="4"/>
       <c r="BE49" s="4"/>
@@ -31202,7 +31429,7 @@
       <c r="BN49" s="2">
         <v>3</v>
       </c>
-      <c r="BO49" s="51" t="s">
+      <c r="BO49" s="49" t="s">
         <v>2719</v>
       </c>
       <c r="BP49" s="2">
@@ -31216,7 +31443,7 @@
       <c r="A50" s="2">
         <v>31</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C50" s="2">
@@ -31234,8 +31461,8 @@
       <c r="I50" s="2">
         <v>31</v>
       </c>
-      <c r="J50" s="32" t="s">
-        <v>412</v>
+      <c r="J50" s="31" t="s">
+        <v>414</v>
       </c>
       <c r="S50" s="2">
         <v>28</v>
@@ -31247,20 +31474,20 @@
       <c r="AE50" s="8">
         <v>2</v>
       </c>
-      <c r="AF50" s="42" t="s">
-        <v>3136</v>
+      <c r="AF50" s="41" t="s">
+        <v>3133</v>
       </c>
       <c r="AM50" s="8">
         <v>44</v>
       </c>
       <c r="AN50" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AX50" s="8">
         <v>31</v>
       </c>
       <c r="AY50" s="4" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="AZ50" s="4"/>
       <c r="BA50" s="4"/>
@@ -31268,7 +31495,7 @@
         <v>16</v>
       </c>
       <c r="BC50" s="4" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="BD50" s="4"/>
       <c r="BE50" s="4"/>
@@ -31287,7 +31514,7 @@
       <c r="BN50" s="2">
         <v>4</v>
       </c>
-      <c r="BO50" s="51" t="s">
+      <c r="BO50" s="49" t="s">
         <v>2718</v>
       </c>
       <c r="BP50" s="2">
@@ -31301,7 +31528,7 @@
       <c r="A51" s="2">
         <v>32</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C51" s="4"/>
@@ -31314,8 +31541,8 @@
       <c r="I51" s="2">
         <v>32</v>
       </c>
-      <c r="J51" s="32" t="s">
-        <v>413</v>
+      <c r="J51" s="31" t="s">
+        <v>415</v>
       </c>
       <c r="S51" s="2">
         <v>29</v>
@@ -31327,20 +31554,20 @@
       <c r="AE51" s="8">
         <v>3</v>
       </c>
-      <c r="AF51" s="42" t="s">
-        <v>3137</v>
+      <c r="AF51" s="41" t="s">
+        <v>3134</v>
       </c>
       <c r="AM51" s="8">
         <v>45</v>
       </c>
       <c r="AN51" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AX51" s="8">
         <v>32</v>
       </c>
       <c r="AY51" s="4" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="AZ51" s="4"/>
       <c r="BA51" s="4"/>
@@ -31348,7 +31575,7 @@
         <v>17</v>
       </c>
       <c r="BC51" s="4" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="BD51" s="4"/>
       <c r="BE51" s="4"/>
@@ -31367,7 +31594,7 @@
       <c r="BN51" s="2">
         <v>5</v>
       </c>
-      <c r="BO51" s="51" t="s">
+      <c r="BO51" s="49" t="s">
         <v>2717</v>
       </c>
       <c r="BP51" s="2">
@@ -31381,7 +31608,7 @@
       <c r="A52" s="2">
         <v>33</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="4"/>
@@ -31394,8 +31621,8 @@
       <c r="I52" s="2">
         <v>33</v>
       </c>
-      <c r="J52" s="32" t="s">
-        <v>414</v>
+      <c r="J52" s="31" t="s">
+        <v>416</v>
       </c>
       <c r="S52" s="2">
         <v>30</v>
@@ -31408,13 +31635,13 @@
         <v>46</v>
       </c>
       <c r="AN52" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AX52" s="8">
         <v>33</v>
       </c>
       <c r="AY52" s="4" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="AZ52" s="4"/>
       <c r="BA52" s="4"/>
@@ -31422,7 +31649,7 @@
         <v>18</v>
       </c>
       <c r="BC52" s="4" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="BD52" s="4"/>
       <c r="BE52" s="4"/>
@@ -31441,7 +31668,7 @@
       <c r="BN52" s="2">
         <v>6</v>
       </c>
-      <c r="BO52" s="51" t="s">
+      <c r="BO52" s="49" t="s">
         <v>2715</v>
       </c>
     </row>
@@ -31449,7 +31676,7 @@
       <c r="A53" s="2">
         <v>34</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G53" s="2">
@@ -31461,8 +31688,8 @@
       <c r="I53" s="2">
         <v>34</v>
       </c>
-      <c r="J53" s="32" t="s">
-        <v>415</v>
+      <c r="J53" s="31" t="s">
+        <v>417</v>
       </c>
       <c r="S53" s="2">
         <v>31</v>
@@ -31475,13 +31702,13 @@
         <v>47</v>
       </c>
       <c r="AN53" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AX53" s="8">
         <v>34</v>
       </c>
       <c r="AY53" s="4" t="s">
-        <v>1179</v>
+        <v>1158</v>
       </c>
       <c r="AZ53" s="4"/>
       <c r="BA53" s="4"/>
@@ -31489,7 +31716,7 @@
         <v>19</v>
       </c>
       <c r="BC53" s="4" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="BD53" s="4"/>
       <c r="BE53" s="4"/>
@@ -31508,7 +31735,7 @@
       <c r="BN53" s="2">
         <v>7</v>
       </c>
-      <c r="BO53" s="51" t="s">
+      <c r="BO53" s="49" t="s">
         <v>2714</v>
       </c>
     </row>
@@ -31516,7 +31743,7 @@
       <c r="A54" s="2">
         <v>35</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G54" s="2">
@@ -31528,8 +31755,8 @@
       <c r="I54" s="2">
         <v>35</v>
       </c>
-      <c r="J54" s="32" t="s">
-        <v>416</v>
+      <c r="J54" s="31" t="s">
+        <v>418</v>
       </c>
       <c r="S54" s="2">
         <v>32</v>
@@ -31542,13 +31769,13 @@
         <v>48</v>
       </c>
       <c r="AN54" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AX54" s="8">
         <v>35</v>
       </c>
       <c r="AY54" s="4" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="AZ54" s="4"/>
       <c r="BA54" s="4"/>
@@ -31556,7 +31783,7 @@
         <v>20</v>
       </c>
       <c r="BC54" s="4" t="s">
-        <v>857</v>
+        <v>1369</v>
       </c>
       <c r="BD54" s="4"/>
       <c r="BE54" s="4"/>
@@ -31575,7 +31802,7 @@
       <c r="BN54" s="2">
         <v>8</v>
       </c>
-      <c r="BO54" s="51" t="s">
+      <c r="BO54" s="49" t="s">
         <v>2712</v>
       </c>
     </row>
@@ -31583,7 +31810,7 @@
       <c r="A55" s="2">
         <v>36</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G55" s="2">
@@ -31595,8 +31822,8 @@
       <c r="I55" s="2">
         <v>36</v>
       </c>
-      <c r="J55" s="32" t="s">
-        <v>417</v>
+      <c r="J55" s="31" t="s">
+        <v>419</v>
       </c>
       <c r="S55" s="2">
         <v>33</v>
@@ -31609,13 +31836,13 @@
         <v>49</v>
       </c>
       <c r="AN55" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AX55" s="8">
         <v>36</v>
       </c>
       <c r="AY55" s="4" t="s">
-        <v>1158</v>
+        <v>1186</v>
       </c>
       <c r="AZ55" s="4"/>
       <c r="BA55" s="4"/>
@@ -31623,7 +31850,7 @@
         <v>21</v>
       </c>
       <c r="BC55" s="4" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="BD55" s="4"/>
       <c r="BE55" s="4"/>
@@ -31633,7 +31860,7 @@
       <c r="BI55" s="8">
         <v>14</v>
       </c>
-      <c r="BJ55" s="50" t="s">
+      <c r="BJ55" s="48" t="s">
         <v>1754</v>
       </c>
       <c r="BK55" s="4"/>
@@ -31642,7 +31869,7 @@
       <c r="BN55" s="2">
         <v>9</v>
       </c>
-      <c r="BO55" s="51" t="s">
+      <c r="BO55" s="49" t="s">
         <v>2710</v>
       </c>
     </row>
@@ -31650,7 +31877,7 @@
       <c r="A56" s="2">
         <v>37</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G56" s="2">
@@ -31662,8 +31889,8 @@
       <c r="I56" s="2">
         <v>37</v>
       </c>
-      <c r="J56" s="32" t="s">
-        <v>418</v>
+      <c r="J56" s="31" t="s">
+        <v>420</v>
       </c>
       <c r="S56" s="2">
         <v>34</v>
@@ -31676,13 +31903,13 @@
         <v>50</v>
       </c>
       <c r="AN56" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AX56" s="8">
         <v>37</v>
       </c>
       <c r="AY56" s="4" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="AZ56" s="4"/>
       <c r="BA56" s="4"/>
@@ -31690,7 +31917,7 @@
         <v>22</v>
       </c>
       <c r="BC56" s="4" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="BD56" s="4"/>
       <c r="BE56" s="4"/>
@@ -31700,7 +31927,7 @@
       <c r="BI56" s="2">
         <v>15</v>
       </c>
-      <c r="BJ56" s="50" t="s">
+      <c r="BJ56" s="48" t="s">
         <v>1755</v>
       </c>
       <c r="BK56" s="4"/>
@@ -31709,7 +31936,7 @@
       <c r="BN56" s="2">
         <v>10</v>
       </c>
-      <c r="BO56" s="51" t="s">
+      <c r="BO56" s="49" t="s">
         <v>1781</v>
       </c>
     </row>
@@ -31717,8 +31944,8 @@
       <c r="A57" s="2">
         <v>38</v>
       </c>
-      <c r="B57" s="31" t="s">
-        <v>3060</v>
+      <c r="B57" s="4" t="s">
+        <v>3057</v>
       </c>
       <c r="G57" s="2">
         <v>38</v>
@@ -31729,8 +31956,8 @@
       <c r="I57" s="2">
         <v>38</v>
       </c>
-      <c r="J57" s="32" t="s">
-        <v>419</v>
+      <c r="J57" s="31" t="s">
+        <v>421</v>
       </c>
       <c r="S57" s="2">
         <v>35</v>
@@ -31750,7 +31977,7 @@
         <v>38</v>
       </c>
       <c r="AY57" s="4" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="AZ57" s="4"/>
       <c r="BA57" s="4"/>
@@ -31758,7 +31985,7 @@
         <v>23</v>
       </c>
       <c r="BC57" s="4" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="BD57" s="4"/>
       <c r="BE57" s="4"/>
@@ -31768,7 +31995,7 @@
       <c r="BI57" s="8">
         <v>16</v>
       </c>
-      <c r="BJ57" s="50" t="s">
+      <c r="BJ57" s="48" t="s">
         <v>1756</v>
       </c>
       <c r="BK57" s="4"/>
@@ -31777,7 +32004,7 @@
       <c r="BN57" s="2">
         <v>11</v>
       </c>
-      <c r="BO57" s="51" t="s">
+      <c r="BO57" s="49" t="s">
         <v>2708</v>
       </c>
     </row>
@@ -31785,8 +32012,8 @@
       <c r="A58" s="2">
         <v>39</v>
       </c>
-      <c r="B58" s="31" t="s">
-        <v>3061</v>
+      <c r="B58" s="4" t="s">
+        <v>3058</v>
       </c>
       <c r="G58" s="2">
         <v>39</v>
@@ -31798,7 +32025,7 @@
         <v>39</v>
       </c>
       <c r="J58" s="32" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="S58" s="2">
         <v>36</v>
@@ -31807,7 +32034,7 @@
         <v>620</v>
       </c>
       <c r="U58" s="4"/>
-      <c r="AF58" s="42"/>
+      <c r="AF58" s="41"/>
       <c r="AM58" s="8">
         <v>52</v>
       </c>
@@ -31818,7 +32045,7 @@
         <v>39</v>
       </c>
       <c r="AY58" s="4" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="AZ58" s="4"/>
       <c r="BA58" s="4"/>
@@ -31826,7 +32053,7 @@
         <v>24</v>
       </c>
       <c r="BC58" s="4" t="s">
-        <v>1182</v>
+        <v>1374</v>
       </c>
       <c r="BD58" s="4"/>
       <c r="BE58" s="4"/>
@@ -31845,7 +32072,7 @@
       <c r="BN58" s="2">
         <v>12</v>
       </c>
-      <c r="BO58" s="51" t="s">
+      <c r="BO58" s="49" t="s">
         <v>2707</v>
       </c>
     </row>
@@ -31853,8 +32080,8 @@
       <c r="A59" s="2">
         <v>40</v>
       </c>
-      <c r="B59" s="31" t="s">
-        <v>3062</v>
+      <c r="B59" s="4" t="s">
+        <v>3059</v>
       </c>
       <c r="G59" s="2">
         <v>40</v>
@@ -31865,8 +32092,8 @@
       <c r="I59" s="2">
         <v>40</v>
       </c>
-      <c r="J59" s="32" t="s">
-        <v>421</v>
+      <c r="J59" s="65" t="s">
+        <v>422</v>
       </c>
       <c r="S59" s="2">
         <v>37</v>
@@ -31875,7 +32102,7 @@
         <v>621</v>
       </c>
       <c r="U59" s="4"/>
-      <c r="AF59" s="42"/>
+      <c r="AF59" s="41"/>
       <c r="AM59" s="8">
         <v>53</v>
       </c>
@@ -31886,7 +32113,7 @@
         <v>40</v>
       </c>
       <c r="AY59" s="4" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="AZ59" s="4"/>
       <c r="BA59" s="4"/>
@@ -31894,7 +32121,7 @@
         <v>25</v>
       </c>
       <c r="BC59" s="4" t="s">
-        <v>1184</v>
+        <v>857</v>
       </c>
       <c r="BD59" s="4"/>
       <c r="BE59" s="4"/>
@@ -31913,7 +32140,7 @@
       <c r="BN59" s="2">
         <v>13</v>
       </c>
-      <c r="BO59" s="51" t="s">
+      <c r="BO59" s="49" t="s">
         <v>2706</v>
       </c>
     </row>
@@ -31921,7 +32148,7 @@
       <c r="A60" s="2">
         <v>41</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G60" s="2">
@@ -31933,14 +32160,14 @@
       <c r="I60" s="2">
         <v>41</v>
       </c>
-      <c r="J60" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="T60" s="37" t="s">
-        <v>3087</v>
+      <c r="J60" s="94" t="s">
+        <v>432</v>
+      </c>
+      <c r="T60" s="36" t="s">
+        <v>3084</v>
       </c>
       <c r="U60" s="4"/>
-      <c r="AF60" s="42"/>
+      <c r="AF60" s="41"/>
       <c r="AM60" s="8">
         <v>54</v>
       </c>
@@ -31951,7 +32178,7 @@
         <v>41</v>
       </c>
       <c r="AY60" s="4" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="AZ60" s="4"/>
       <c r="BA60" s="4"/>
@@ -31959,7 +32186,7 @@
         <v>26</v>
       </c>
       <c r="BC60" s="4" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="BD60" s="4"/>
       <c r="BE60" s="4"/>
@@ -31978,7 +32205,7 @@
       <c r="BN60" s="2">
         <v>14</v>
       </c>
-      <c r="BO60" s="51" t="s">
+      <c r="BO60" s="49" t="s">
         <v>2705</v>
       </c>
     </row>
@@ -31986,23 +32213,23 @@
       <c r="A61" s="2">
         <v>42</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I61" s="2">
         <v>42</v>
       </c>
-      <c r="J61" s="32" t="s">
-        <v>422</v>
+      <c r="J61" s="65" t="s">
+        <v>423</v>
       </c>
       <c r="S61" s="2">
         <v>38</v>
       </c>
       <c r="T61" s="29" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="U61" s="4"/>
-      <c r="AF61" s="42"/>
+      <c r="AF61" s="41"/>
       <c r="AM61" s="8">
         <v>55</v>
       </c>
@@ -32013,7 +32240,7 @@
         <v>42</v>
       </c>
       <c r="AY61" s="4" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="AZ61" s="4"/>
       <c r="BA61" s="4"/>
@@ -32021,7 +32248,7 @@
         <v>27</v>
       </c>
       <c r="BC61" s="4" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="BD61" s="4"/>
       <c r="BE61" s="4"/>
@@ -32040,7 +32267,7 @@
       <c r="BN61" s="2">
         <v>15</v>
       </c>
-      <c r="BO61" s="51" t="s">
+      <c r="BO61" s="49" t="s">
         <v>2704</v>
       </c>
     </row>
@@ -32048,14 +32275,14 @@
       <c r="A62" s="2">
         <v>43</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I62" s="2">
         <v>43</v>
       </c>
-      <c r="J62" s="33" t="s">
-        <v>432</v>
+      <c r="J62" s="65" t="s">
+        <v>424</v>
       </c>
       <c r="S62" s="2">
         <v>39</v>
@@ -32064,7 +32291,7 @@
         <v>603</v>
       </c>
       <c r="U62" s="4"/>
-      <c r="AF62" s="42"/>
+      <c r="AF62" s="41"/>
       <c r="AM62" s="8">
         <v>56</v>
       </c>
@@ -32075,7 +32302,7 @@
         <v>43</v>
       </c>
       <c r="AY62" s="4" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="AZ62" s="4"/>
       <c r="BA62" s="4"/>
@@ -32083,7 +32310,7 @@
         <v>28</v>
       </c>
       <c r="BC62" s="4" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="BD62" s="4"/>
       <c r="BE62" s="4"/>
@@ -32102,7 +32329,7 @@
       <c r="BN62" s="2">
         <v>16</v>
       </c>
-      <c r="BO62" s="51" t="s">
+      <c r="BO62" s="49" t="s">
         <v>2702</v>
       </c>
     </row>
@@ -32110,14 +32337,14 @@
       <c r="A63" s="2">
         <v>44</v>
       </c>
-      <c r="B63" s="31" t="s">
-        <v>3063</v>
+      <c r="B63" s="4" t="s">
+        <v>3060</v>
       </c>
       <c r="I63" s="2">
         <v>44</v>
       </c>
-      <c r="J63" s="32" t="s">
-        <v>423</v>
+      <c r="J63" s="65" t="s">
+        <v>425</v>
       </c>
       <c r="S63" s="2">
         <v>40</v>
@@ -32126,18 +32353,18 @@
         <v>604</v>
       </c>
       <c r="U63" s="4"/>
-      <c r="AF63" s="42"/>
+      <c r="AF63" s="41"/>
       <c r="AM63" s="8">
         <v>57</v>
       </c>
       <c r="AN63" s="4" t="s">
-        <v>899</v>
+        <v>3142</v>
       </c>
       <c r="AX63" s="8">
         <v>44</v>
       </c>
       <c r="AY63" s="4" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="AZ63" s="4"/>
       <c r="BA63" s="4"/>
@@ -32145,7 +32372,7 @@
         <v>29</v>
       </c>
       <c r="BC63" s="4" t="s">
-        <v>847</v>
+        <v>1182</v>
       </c>
       <c r="BD63" s="4"/>
       <c r="BE63" s="4"/>
@@ -32164,7 +32391,7 @@
       <c r="BN63" s="2">
         <v>17</v>
       </c>
-      <c r="BO63" s="51" t="s">
+      <c r="BO63" s="49" t="s">
         <v>2701</v>
       </c>
     </row>
@@ -32172,8 +32399,8 @@
       <c r="I64" s="2">
         <v>45</v>
       </c>
-      <c r="J64" s="32" t="s">
-        <v>424</v>
+      <c r="J64" s="65" t="s">
+        <v>426</v>
       </c>
       <c r="S64" s="2">
         <v>41</v>
@@ -32182,12 +32409,12 @@
         <v>605</v>
       </c>
       <c r="U64" s="4"/>
-      <c r="AF64" s="42"/>
+      <c r="AF64" s="41"/>
       <c r="AX64" s="8">
         <v>45</v>
       </c>
       <c r="AY64" s="4" t="s">
-        <v>1193</v>
+        <v>1157</v>
       </c>
       <c r="AZ64" s="4"/>
       <c r="BA64" s="4"/>
@@ -32195,7 +32422,7 @@
         <v>30</v>
       </c>
       <c r="BC64" s="4" t="s">
-        <v>1355</v>
+        <v>1184</v>
       </c>
       <c r="BD64" s="4"/>
       <c r="BE64" s="4"/>
@@ -32214,7 +32441,7 @@
       <c r="BN64" s="2">
         <v>18</v>
       </c>
-      <c r="BO64" s="51" t="s">
+      <c r="BO64" s="49" t="s">
         <v>2700</v>
       </c>
     </row>
@@ -32222,8 +32449,8 @@
       <c r="I65" s="2">
         <v>46</v>
       </c>
-      <c r="J65" s="32" t="s">
-        <v>425</v>
+      <c r="J65" s="65" t="s">
+        <v>226</v>
       </c>
       <c r="S65" s="2">
         <v>42</v>
@@ -32236,7 +32463,7 @@
         <v>46</v>
       </c>
       <c r="AY65" s="4" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="AZ65" s="4"/>
       <c r="BA65" s="4"/>
@@ -32244,7 +32471,7 @@
         <v>31</v>
       </c>
       <c r="BC65" s="4" t="s">
-        <v>1356</v>
+        <v>1378</v>
       </c>
       <c r="BD65" s="4"/>
       <c r="BE65" s="4"/>
@@ -32263,7 +32490,7 @@
       <c r="BN65" s="2">
         <v>19</v>
       </c>
-      <c r="BO65" s="51" t="s">
+      <c r="BO65" s="49" t="s">
         <v>2699</v>
       </c>
     </row>
@@ -32271,8 +32498,8 @@
       <c r="I66" s="2">
         <v>47</v>
       </c>
-      <c r="J66" s="32" t="s">
-        <v>426</v>
+      <c r="J66" s="65" t="s">
+        <v>32</v>
       </c>
       <c r="S66" s="2">
         <v>43</v>
@@ -32285,7 +32512,7 @@
         <v>47</v>
       </c>
       <c r="AY66" s="4" t="s">
-        <v>1157</v>
+        <v>1198</v>
       </c>
       <c r="AZ66" s="4"/>
       <c r="BA66" s="4"/>
@@ -32293,7 +32520,7 @@
         <v>32</v>
       </c>
       <c r="BC66" s="4" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="BD66" s="4"/>
       <c r="BE66" s="4"/>
@@ -32312,7 +32539,7 @@
       <c r="BN66" s="2">
         <v>20</v>
       </c>
-      <c r="BO66" s="51" t="s">
+      <c r="BO66" s="49" t="s">
         <v>2698</v>
       </c>
     </row>
@@ -32320,11 +32547,11 @@
       <c r="I67" s="2">
         <v>48</v>
       </c>
-      <c r="J67" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="T67" s="37" t="s">
-        <v>3089</v>
+      <c r="J67" s="65" t="s">
+        <v>427</v>
+      </c>
+      <c r="T67" s="36" t="s">
+        <v>3086</v>
       </c>
       <c r="U67" s="4"/>
       <c r="AM67" s="2"/>
@@ -32332,7 +32559,7 @@
         <v>48</v>
       </c>
       <c r="AY67" s="4" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="AZ67" s="4"/>
       <c r="BA67" s="4"/>
@@ -32340,7 +32567,7 @@
         <v>33</v>
       </c>
       <c r="BC67" s="4" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="BD67" s="4"/>
       <c r="BE67" s="4"/>
@@ -32359,7 +32586,7 @@
       <c r="BN67" s="2">
         <v>21</v>
       </c>
-      <c r="BO67" s="51" t="s">
+      <c r="BO67" s="49" t="s">
         <v>2697</v>
       </c>
     </row>
@@ -32367,8 +32594,8 @@
       <c r="I68" s="2">
         <v>49</v>
       </c>
-      <c r="J68" s="32" t="s">
-        <v>32</v>
+      <c r="J68" s="65" t="s">
+        <v>428</v>
       </c>
       <c r="S68" s="2">
         <v>44</v>
@@ -32382,7 +32609,7 @@
         <v>49</v>
       </c>
       <c r="AY68" s="4" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="AZ68" s="4"/>
       <c r="BA68" s="4"/>
@@ -32390,7 +32617,7 @@
         <v>34</v>
       </c>
       <c r="BC68" s="4" t="s">
-        <v>1386</v>
+        <v>847</v>
       </c>
       <c r="BD68" s="4"/>
       <c r="BE68" s="4"/>
@@ -32409,7 +32636,7 @@
       <c r="BN68" s="2">
         <v>22</v>
       </c>
-      <c r="BO68" s="51" t="s">
+      <c r="BO68" s="49" t="s">
         <v>2696</v>
       </c>
     </row>
@@ -32417,8 +32644,8 @@
       <c r="I69" s="2">
         <v>50</v>
       </c>
-      <c r="J69" s="32" t="s">
-        <v>427</v>
+      <c r="J69" s="31" t="s">
+        <v>429</v>
       </c>
       <c r="S69" s="2">
         <v>45</v>
@@ -32432,7 +32659,7 @@
         <v>50</v>
       </c>
       <c r="AY69" s="4" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="AZ69" s="4"/>
       <c r="BA69" s="4"/>
@@ -32440,7 +32667,7 @@
         <v>35</v>
       </c>
       <c r="BC69" s="4" t="s">
-        <v>1387</v>
+        <v>1355</v>
       </c>
       <c r="BD69" s="4"/>
       <c r="BE69" s="4"/>
@@ -32459,7 +32686,7 @@
       <c r="BN69" s="2">
         <v>23</v>
       </c>
-      <c r="BO69" s="51" t="s">
+      <c r="BO69" s="49" t="s">
         <v>2695</v>
       </c>
     </row>
@@ -32467,8 +32694,8 @@
       <c r="I70" s="2">
         <v>51</v>
       </c>
-      <c r="J70" s="32" t="s">
-        <v>428</v>
+      <c r="J70" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="S70" s="2">
         <v>46</v>
@@ -32482,7 +32709,7 @@
         <v>51</v>
       </c>
       <c r="AY70" s="4" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="AZ70" s="4"/>
       <c r="BA70" s="4"/>
@@ -32490,7 +32717,7 @@
         <v>36</v>
       </c>
       <c r="BC70" s="4" t="s">
-        <v>1388</v>
+        <v>1356</v>
       </c>
       <c r="BD70" s="4"/>
       <c r="BE70" s="4"/>
@@ -32509,7 +32736,7 @@
       <c r="BN70" s="2">
         <v>24</v>
       </c>
-      <c r="BO70" s="51" t="s">
+      <c r="BO70" s="49" t="s">
         <v>2694</v>
       </c>
     </row>
@@ -32517,8 +32744,8 @@
       <c r="I71" s="2">
         <v>52</v>
       </c>
-      <c r="J71" s="32" t="s">
-        <v>429</v>
+      <c r="J71" s="31" t="s">
+        <v>3</v>
       </c>
       <c r="S71" s="2">
         <v>47</v>
@@ -32532,7 +32759,7 @@
         <v>52</v>
       </c>
       <c r="AY71" s="4" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="AZ71" s="4"/>
       <c r="BA71" s="4"/>
@@ -32540,7 +32767,7 @@
         <v>37</v>
       </c>
       <c r="BC71" s="4" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="BD71" s="4"/>
       <c r="BE71" s="4"/>
@@ -32559,23 +32786,18 @@
       <c r="BN71" s="2">
         <v>25</v>
       </c>
-      <c r="BO71" s="51" t="s">
+      <c r="BO71" s="49" t="s">
         <v>2693</v>
       </c>
     </row>
-    <row r="72" spans="9:67">
-      <c r="I72" s="2">
-        <v>53</v>
-      </c>
-      <c r="J72" s="32" t="s">
-        <v>34</v>
-      </c>
+    <row r="72" spans="9:67" ht="24" thickBot="1">
+      <c r="J72" s="31"/>
       <c r="AM72" s="2"/>
       <c r="AX72" s="8">
         <v>53</v>
       </c>
       <c r="AY72" s="4" t="s">
-        <v>1203</v>
+        <v>1154</v>
       </c>
       <c r="AZ72" s="4"/>
       <c r="BA72" s="4"/>
@@ -32583,7 +32805,7 @@
         <v>38</v>
       </c>
       <c r="BC72" s="4" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="BD72" s="4"/>
       <c r="BE72" s="4"/>
@@ -32602,7 +32824,7 @@
       <c r="BN72" s="2">
         <v>26</v>
       </c>
-      <c r="BO72" s="51" t="s">
+      <c r="BO72" s="49" t="s">
         <v>2692</v>
       </c>
     </row>
@@ -32611,8 +32833,8 @@
       <c r="AX73" s="8">
         <v>54</v>
       </c>
-      <c r="AY73" s="4" t="s">
-        <v>1204</v>
+      <c r="AY73" s="53" t="s">
+        <v>870</v>
       </c>
       <c r="AZ73" s="4"/>
       <c r="BA73" s="4"/>
@@ -32620,7 +32842,7 @@
         <v>39</v>
       </c>
       <c r="BC73" s="4" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="BD73" s="4"/>
       <c r="BE73" s="4"/>
@@ -32639,17 +32861,17 @@
       <c r="BN73" s="2">
         <v>27</v>
       </c>
-      <c r="BO73" s="51" t="s">
+      <c r="BO73" s="49" t="s">
         <v>2691</v>
       </c>
     </row>
-    <row r="74" spans="9:67">
+    <row r="74" spans="9:67" ht="24" thickBot="1">
       <c r="AM74" s="2"/>
       <c r="AX74" s="8">
         <v>55</v>
       </c>
-      <c r="AY74" s="4" t="s">
-        <v>1154</v>
+      <c r="AY74" s="54" t="s">
+        <v>851</v>
       </c>
       <c r="AZ74" s="4"/>
       <c r="BA74" s="4"/>
@@ -32657,7 +32879,7 @@
         <v>40</v>
       </c>
       <c r="BC74" s="4" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="BD74" s="4"/>
       <c r="BE74" s="4"/>
@@ -32676,18 +32898,17 @@
       <c r="BN74" s="2">
         <v>28</v>
       </c>
-      <c r="BO74" s="51" t="s">
+      <c r="BO74" s="49" t="s">
         <v>2690</v>
       </c>
     </row>
     <row r="75" spans="9:67">
       <c r="AM75" s="2"/>
-      <c r="AX75" s="2"/>
       <c r="BB75" s="8">
         <v>41</v>
       </c>
       <c r="BC75" s="4" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="BD75" s="4"/>
       <c r="BE75" s="4"/>
@@ -32706,18 +32927,17 @@
       <c r="BN75" s="2">
         <v>29</v>
       </c>
-      <c r="BO75" s="51" t="s">
+      <c r="BO75" s="49" t="s">
         <v>2689</v>
       </c>
     </row>
     <row r="76" spans="9:67">
       <c r="AM76" s="2"/>
-      <c r="AX76" s="2"/>
       <c r="BB76" s="8">
         <v>42</v>
       </c>
       <c r="BC76" s="4" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="BD76" s="4"/>
       <c r="BE76" s="4"/>
@@ -32736,7 +32956,7 @@
       <c r="BN76" s="2">
         <v>30</v>
       </c>
-      <c r="BO76" s="51" t="s">
+      <c r="BO76" s="49" t="s">
         <v>2688</v>
       </c>
     </row>
@@ -32746,7 +32966,7 @@
         <v>43</v>
       </c>
       <c r="BC77" s="4" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="BD77" s="4"/>
       <c r="BE77" s="4"/>
@@ -32765,7 +32985,7 @@
       <c r="BN77" s="2">
         <v>31</v>
       </c>
-      <c r="BO77" s="51" t="s">
+      <c r="BO77" s="49" t="s">
         <v>2686</v>
       </c>
     </row>
@@ -32775,7 +32995,7 @@
         <v>44</v>
       </c>
       <c r="BC78" s="4" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="BD78" s="4"/>
       <c r="BE78" s="4"/>
@@ -32794,7 +33014,7 @@
       <c r="BN78" s="2">
         <v>32</v>
       </c>
-      <c r="BO78" s="51" t="s">
+      <c r="BO78" s="49" t="s">
         <v>2684</v>
       </c>
     </row>
@@ -32803,7 +33023,7 @@
         <v>45</v>
       </c>
       <c r="BC79" s="4" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="BD79" s="4"/>
       <c r="BE79" s="4"/>
@@ -32822,7 +33042,7 @@
       <c r="BN79" s="2">
         <v>33</v>
       </c>
-      <c r="BO79" s="51" t="s">
+      <c r="BO79" s="49" t="s">
         <v>2683</v>
       </c>
     </row>
@@ -32831,7 +33051,7 @@
         <v>46</v>
       </c>
       <c r="BC80" s="4" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="BD80" s="4"/>
       <c r="BE80" s="4"/>
@@ -32850,7 +33070,7 @@
       <c r="BN80" s="2">
         <v>34</v>
       </c>
-      <c r="BO80" s="51" t="s">
+      <c r="BO80" s="49" t="s">
         <v>2682</v>
       </c>
     </row>
@@ -32859,7 +33079,7 @@
         <v>47</v>
       </c>
       <c r="BC81" s="4" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="BD81" s="4"/>
       <c r="BE81" s="4"/>
@@ -32878,7 +33098,7 @@
       <c r="BN81" s="2">
         <v>35</v>
       </c>
-      <c r="BO81" s="51" t="s">
+      <c r="BO81" s="49" t="s">
         <v>2681</v>
       </c>
     </row>
@@ -32887,7 +33107,7 @@
         <v>48</v>
       </c>
       <c r="BC82" s="4" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="BD82" s="4"/>
       <c r="BE82" s="4"/>
@@ -32906,7 +33126,7 @@
       <c r="BN82" s="2">
         <v>36</v>
       </c>
-      <c r="BO82" s="51" t="s">
+      <c r="BO82" s="49" t="s">
         <v>2680</v>
       </c>
     </row>
@@ -32915,7 +33135,7 @@
         <v>49</v>
       </c>
       <c r="BC83" s="4" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="BD83" s="4"/>
       <c r="BE83" s="4"/>
@@ -32934,7 +33154,7 @@
       <c r="BN83" s="2">
         <v>37</v>
       </c>
-      <c r="BO83" s="51" t="s">
+      <c r="BO83" s="49" t="s">
         <v>2679</v>
       </c>
     </row>
@@ -32943,7 +33163,7 @@
         <v>50</v>
       </c>
       <c r="BC84" s="4" t="s">
-        <v>1193</v>
+        <v>1398</v>
       </c>
       <c r="BD84" s="4"/>
       <c r="BE84" s="4"/>
@@ -32962,7 +33182,7 @@
       <c r="BN84" s="2">
         <v>38</v>
       </c>
-      <c r="BO84" s="51" t="s">
+      <c r="BO84" s="49" t="s">
         <v>2678</v>
       </c>
     </row>
@@ -32971,7 +33191,7 @@
         <v>51</v>
       </c>
       <c r="BC85" s="4" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="BD85" s="4"/>
       <c r="BE85" s="4"/>
@@ -32990,7 +33210,7 @@
       <c r="BN85" s="2">
         <v>39</v>
       </c>
-      <c r="BO85" s="51" t="s">
+      <c r="BO85" s="49" t="s">
         <v>2677</v>
       </c>
     </row>
@@ -32999,7 +33219,7 @@
         <v>52</v>
       </c>
       <c r="BC86" s="4" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="BD86" s="4"/>
       <c r="BE86" s="4"/>
@@ -33018,7 +33238,7 @@
       <c r="BN86" s="2">
         <v>40</v>
       </c>
-      <c r="BO86" s="51" t="s">
+      <c r="BO86" s="49" t="s">
         <v>2676</v>
       </c>
     </row>
@@ -33027,7 +33247,7 @@
         <v>53</v>
       </c>
       <c r="BC87" s="4" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="BD87" s="4"/>
       <c r="BE87" s="4"/>
@@ -33046,7 +33266,7 @@
       <c r="BN87" s="2">
         <v>41</v>
       </c>
-      <c r="BO87" s="51" t="s">
+      <c r="BO87" s="49" t="s">
         <v>2675</v>
       </c>
     </row>
@@ -33055,7 +33275,7 @@
         <v>54</v>
       </c>
       <c r="BC88" s="4" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="BD88" s="4"/>
       <c r="BE88" s="4"/>
@@ -33074,7 +33294,7 @@
       <c r="BN88" s="2">
         <v>42</v>
       </c>
-      <c r="BO88" s="51" t="s">
+      <c r="BO88" s="49" t="s">
         <v>2674</v>
       </c>
     </row>
@@ -33083,7 +33303,7 @@
         <v>55</v>
       </c>
       <c r="BC89" s="4" t="s">
-        <v>1407</v>
+        <v>1193</v>
       </c>
       <c r="BD89" s="4"/>
       <c r="BE89" s="4"/>
@@ -33102,7 +33322,7 @@
       <c r="BN89" s="2">
         <v>43</v>
       </c>
-      <c r="BO89" s="51" t="s">
+      <c r="BO89" s="49" t="s">
         <v>2673</v>
       </c>
     </row>
@@ -33111,7 +33331,7 @@
         <v>56</v>
       </c>
       <c r="BC90" s="4" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="BD90" s="4"/>
       <c r="BE90" s="4"/>
@@ -33130,7 +33350,7 @@
       <c r="BN90" s="2">
         <v>44</v>
       </c>
-      <c r="BO90" s="51" t="s">
+      <c r="BO90" s="49" t="s">
         <v>2672</v>
       </c>
     </row>
@@ -33139,7 +33359,7 @@
         <v>57</v>
       </c>
       <c r="BC91" s="4" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="BD91" s="4"/>
       <c r="BE91" s="4"/>
@@ -33158,7 +33378,7 @@
       <c r="BN91" s="2">
         <v>45</v>
       </c>
-      <c r="BO91" s="51" t="s">
+      <c r="BO91" s="49" t="s">
         <v>2671</v>
       </c>
     </row>
@@ -33167,7 +33387,7 @@
         <v>58</v>
       </c>
       <c r="BC92" s="4" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="BD92" s="4"/>
       <c r="BE92" s="4"/>
@@ -33186,7 +33406,7 @@
       <c r="BN92" s="2">
         <v>46</v>
       </c>
-      <c r="BO92" s="51" t="s">
+      <c r="BO92" s="49" t="s">
         <v>2670</v>
       </c>
     </row>
@@ -33195,7 +33415,7 @@
         <v>59</v>
       </c>
       <c r="BC93" s="4" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="BD93" s="4"/>
       <c r="BE93" s="4"/>
@@ -33214,7 +33434,7 @@
       <c r="BN93" s="2">
         <v>47</v>
       </c>
-      <c r="BO93" s="51" t="s">
+      <c r="BO93" s="49" t="s">
         <v>2669</v>
       </c>
     </row>
@@ -33223,7 +33443,7 @@
         <v>60</v>
       </c>
       <c r="BC94" s="4" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="BD94" s="4"/>
       <c r="BE94" s="4"/>
@@ -33242,7 +33462,7 @@
       <c r="BN94" s="2">
         <v>48</v>
       </c>
-      <c r="BO94" s="51" t="s">
+      <c r="BO94" s="49" t="s">
         <v>2668</v>
       </c>
     </row>
@@ -33251,7 +33471,7 @@
         <v>61</v>
       </c>
       <c r="BC95" s="4" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="BD95" s="4"/>
       <c r="BE95" s="4"/>
@@ -33270,7 +33490,7 @@
       <c r="BN95" s="2">
         <v>49</v>
       </c>
-      <c r="BO95" s="51" t="s">
+      <c r="BO95" s="49" t="s">
         <v>2667</v>
       </c>
     </row>
@@ -33279,7 +33499,7 @@
         <v>62</v>
       </c>
       <c r="BC96" s="4" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="BD96" s="4"/>
       <c r="BE96" s="4"/>
@@ -33298,7 +33518,7 @@
       <c r="BN96" s="2">
         <v>50</v>
       </c>
-      <c r="BO96" s="51" t="s">
+      <c r="BO96" s="49" t="s">
         <v>2666</v>
       </c>
     </row>
@@ -33307,7 +33527,7 @@
         <v>63</v>
       </c>
       <c r="BC97" s="4" t="s">
-        <v>1195</v>
+        <v>1410</v>
       </c>
       <c r="BD97" s="4"/>
       <c r="BE97" s="4"/>
@@ -33326,7 +33546,7 @@
       <c r="BN97" s="2">
         <v>51</v>
       </c>
-      <c r="BO97" s="51" t="s">
+      <c r="BO97" s="49" t="s">
         <v>2665</v>
       </c>
     </row>
@@ -33335,7 +33555,7 @@
         <v>64</v>
       </c>
       <c r="BC98" s="4" t="s">
-        <v>1196</v>
+        <v>1411</v>
       </c>
       <c r="BD98" s="4"/>
       <c r="BE98" s="4"/>
@@ -33354,7 +33574,7 @@
       <c r="BN98" s="2">
         <v>52</v>
       </c>
-      <c r="BO98" s="51" t="s">
+      <c r="BO98" s="49" t="s">
         <v>2664</v>
       </c>
     </row>
@@ -33363,7 +33583,7 @@
         <v>65</v>
       </c>
       <c r="BC99" s="4" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="BD99" s="4"/>
       <c r="BE99" s="4"/>
@@ -33382,7 +33602,7 @@
       <c r="BN99" s="2">
         <v>53</v>
       </c>
-      <c r="BO99" s="51" t="s">
+      <c r="BO99" s="49" t="s">
         <v>2663</v>
       </c>
     </row>
@@ -33391,7 +33611,7 @@
         <v>66</v>
       </c>
       <c r="BC100" s="4" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="BD100" s="4"/>
       <c r="BE100" s="4"/>
@@ -33410,7 +33630,7 @@
       <c r="BN100" s="2">
         <v>54</v>
       </c>
-      <c r="BO100" s="51" t="s">
+      <c r="BO100" s="49" t="s">
         <v>2662</v>
       </c>
     </row>
@@ -33419,7 +33639,7 @@
         <v>67</v>
       </c>
       <c r="BC101" s="4" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="BD101" s="4"/>
       <c r="BE101" s="4"/>
@@ -33438,7 +33658,7 @@
       <c r="BN101" s="2">
         <v>55</v>
       </c>
-      <c r="BO101" s="51" t="s">
+      <c r="BO101" s="49" t="s">
         <v>2661</v>
       </c>
     </row>
@@ -33447,7 +33667,7 @@
         <v>68</v>
       </c>
       <c r="BC102" s="4" t="s">
-        <v>1418</v>
+        <v>1195</v>
       </c>
       <c r="BD102" s="4"/>
       <c r="BE102" s="4"/>
@@ -33466,7 +33686,7 @@
       <c r="BN102" s="2">
         <v>56</v>
       </c>
-      <c r="BO102" s="51" t="s">
+      <c r="BO102" s="49" t="s">
         <v>2660</v>
       </c>
     </row>
@@ -33475,7 +33695,7 @@
         <v>69</v>
       </c>
       <c r="BC103" s="4" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="BD103" s="4"/>
       <c r="BE103" s="4"/>
@@ -33494,7 +33714,7 @@
       <c r="BN103" s="2">
         <v>57</v>
       </c>
-      <c r="BO103" s="51" t="s">
+      <c r="BO103" s="49" t="s">
         <v>2659</v>
       </c>
     </row>
@@ -33503,7 +33723,7 @@
         <v>70</v>
       </c>
       <c r="BC104" s="4" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="BD104" s="4"/>
       <c r="BE104" s="4"/>
@@ -33522,7 +33742,7 @@
       <c r="BN104" s="2">
         <v>58</v>
       </c>
-      <c r="BO104" s="51" t="s">
+      <c r="BO104" s="49" t="s">
         <v>2658</v>
       </c>
     </row>
@@ -33531,7 +33751,7 @@
         <v>71</v>
       </c>
       <c r="BC105" s="4" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="BD105" s="4"/>
       <c r="BE105" s="4"/>
@@ -33550,7 +33770,7 @@
       <c r="BN105" s="2">
         <v>59</v>
       </c>
-      <c r="BO105" s="51" t="s">
+      <c r="BO105" s="49" t="s">
         <v>2657</v>
       </c>
     </row>
@@ -33559,7 +33779,7 @@
         <v>72</v>
       </c>
       <c r="BC106" s="4" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="BD106" s="4"/>
       <c r="BE106" s="4"/>
@@ -33578,7 +33798,7 @@
       <c r="BN106" s="2">
         <v>60</v>
       </c>
-      <c r="BO106" s="51" t="s">
+      <c r="BO106" s="49" t="s">
         <v>2656</v>
       </c>
     </row>
@@ -33587,7 +33807,7 @@
         <v>73</v>
       </c>
       <c r="BC107" s="4" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="BD107" s="4"/>
       <c r="BE107" s="4"/>
@@ -33606,7 +33826,7 @@
       <c r="BN107" s="2">
         <v>61</v>
       </c>
-      <c r="BO107" s="51" t="s">
+      <c r="BO107" s="49" t="s">
         <v>2655</v>
       </c>
     </row>
@@ -33615,7 +33835,7 @@
         <v>74</v>
       </c>
       <c r="BC108" s="4" t="s">
-        <v>1423</v>
+        <v>1199</v>
       </c>
       <c r="BD108" s="4"/>
       <c r="BE108" s="4"/>
@@ -33634,7 +33854,7 @@
       <c r="BN108" s="2">
         <v>62</v>
       </c>
-      <c r="BO108" s="51" t="s">
+      <c r="BO108" s="49" t="s">
         <v>2654</v>
       </c>
     </row>
@@ -33643,7 +33863,7 @@
         <v>75</v>
       </c>
       <c r="BC109" s="4" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="BD109" s="4"/>
       <c r="BE109" s="4"/>
@@ -33662,7 +33882,7 @@
       <c r="BN109" s="2">
         <v>63</v>
       </c>
-      <c r="BO109" s="51" t="s">
+      <c r="BO109" s="49" t="s">
         <v>2653</v>
       </c>
     </row>
@@ -33690,7 +33910,7 @@
       <c r="BN110" s="2">
         <v>64</v>
       </c>
-      <c r="BO110" s="51" t="s">
+      <c r="BO110" s="49" t="s">
         <v>2652</v>
       </c>
     </row>
@@ -33718,7 +33938,7 @@
       <c r="BN111" s="2">
         <v>65</v>
       </c>
-      <c r="BO111" s="51" t="s">
+      <c r="BO111" s="49" t="s">
         <v>2651</v>
       </c>
     </row>
@@ -33746,7 +33966,7 @@
       <c r="BN112" s="2">
         <v>66</v>
       </c>
-      <c r="BO112" s="51" t="s">
+      <c r="BO112" s="49" t="s">
         <v>2650</v>
       </c>
     </row>
@@ -33774,7 +33994,7 @@
       <c r="BN113" s="2">
         <v>67</v>
       </c>
-      <c r="BO113" s="51" t="s">
+      <c r="BO113" s="49" t="s">
         <v>2649</v>
       </c>
     </row>
@@ -33802,7 +34022,7 @@
       <c r="BN114" s="2">
         <v>68</v>
       </c>
-      <c r="BO114" s="51" t="s">
+      <c r="BO114" s="49" t="s">
         <v>2648</v>
       </c>
     </row>
@@ -33830,7 +34050,7 @@
       <c r="BN115" s="2">
         <v>69</v>
       </c>
-      <c r="BO115" s="51" t="s">
+      <c r="BO115" s="49" t="s">
         <v>2647</v>
       </c>
     </row>
@@ -33858,7 +34078,7 @@
       <c r="BN116" s="2">
         <v>70</v>
       </c>
-      <c r="BO116" s="51" t="s">
+      <c r="BO116" s="49" t="s">
         <v>2646</v>
       </c>
     </row>
@@ -33875,7 +34095,7 @@
       <c r="BN117" s="2">
         <v>71</v>
       </c>
-      <c r="BO117" s="51" t="s">
+      <c r="BO117" s="49" t="s">
         <v>2645</v>
       </c>
     </row>
@@ -33892,7 +34112,7 @@
       <c r="BN118" s="2">
         <v>72</v>
       </c>
-      <c r="BO118" s="51" t="s">
+      <c r="BO118" s="49" t="s">
         <v>2644</v>
       </c>
     </row>
@@ -33909,7 +34129,7 @@
       <c r="BN119" s="2">
         <v>73</v>
       </c>
-      <c r="BO119" s="51" t="s">
+      <c r="BO119" s="49" t="s">
         <v>2643</v>
       </c>
     </row>
@@ -33926,7 +34146,7 @@
       <c r="BN120" s="2">
         <v>74</v>
       </c>
-      <c r="BO120" s="51" t="s">
+      <c r="BO120" s="49" t="s">
         <v>2642</v>
       </c>
     </row>
@@ -33943,7 +34163,7 @@
       <c r="BN121" s="2">
         <v>75</v>
       </c>
-      <c r="BO121" s="51" t="s">
+      <c r="BO121" s="49" t="s">
         <v>2641</v>
       </c>
     </row>
@@ -33960,7 +34180,7 @@
       <c r="BN122" s="2">
         <v>76</v>
       </c>
-      <c r="BO122" s="51" t="s">
+      <c r="BO122" s="49" t="s">
         <v>2640</v>
       </c>
     </row>
@@ -33977,7 +34197,7 @@
       <c r="BN123" s="2">
         <v>77</v>
       </c>
-      <c r="BO123" s="51" t="s">
+      <c r="BO123" s="49" t="s">
         <v>2639</v>
       </c>
     </row>
@@ -33991,7 +34211,7 @@
       <c r="BN124" s="2">
         <v>78</v>
       </c>
-      <c r="BO124" s="51" t="s">
+      <c r="BO124" s="49" t="s">
         <v>2638</v>
       </c>
     </row>
@@ -34005,7 +34225,7 @@
       <c r="BN125" s="2">
         <v>79</v>
       </c>
-      <c r="BO125" s="51" t="s">
+      <c r="BO125" s="49" t="s">
         <v>2637</v>
       </c>
     </row>
@@ -34019,7 +34239,7 @@
       <c r="BN126" s="2">
         <v>80</v>
       </c>
-      <c r="BO126" s="51" t="s">
+      <c r="BO126" s="49" t="s">
         <v>2636</v>
       </c>
     </row>
@@ -34033,7 +34253,7 @@
       <c r="BN127" s="2">
         <v>81</v>
       </c>
-      <c r="BO127" s="51" t="s">
+      <c r="BO127" s="49" t="s">
         <v>2635</v>
       </c>
     </row>
@@ -34047,7 +34267,7 @@
       <c r="BN128" s="2">
         <v>82</v>
       </c>
-      <c r="BO128" s="51" t="s">
+      <c r="BO128" s="49" t="s">
         <v>2634</v>
       </c>
     </row>
@@ -34061,7 +34281,7 @@
       <c r="BN129" s="2">
         <v>83</v>
       </c>
-      <c r="BO129" s="51" t="s">
+      <c r="BO129" s="49" t="s">
         <v>2633</v>
       </c>
     </row>
@@ -34075,7 +34295,7 @@
       <c r="BN130" s="2">
         <v>84</v>
       </c>
-      <c r="BO130" s="51" t="s">
+      <c r="BO130" s="49" t="s">
         <v>2632</v>
       </c>
     </row>
@@ -34089,7 +34309,7 @@
       <c r="BN131" s="2">
         <v>85</v>
       </c>
-      <c r="BO131" s="51" t="s">
+      <c r="BO131" s="49" t="s">
         <v>2631</v>
       </c>
     </row>
@@ -34103,7 +34323,7 @@
       <c r="BN132" s="2">
         <v>86</v>
       </c>
-      <c r="BO132" s="51" t="s">
+      <c r="BO132" s="49" t="s">
         <v>2630</v>
       </c>
     </row>
@@ -34117,7 +34337,7 @@
       <c r="BN133" s="2">
         <v>87</v>
       </c>
-      <c r="BO133" s="51" t="s">
+      <c r="BO133" s="49" t="s">
         <v>2629</v>
       </c>
     </row>
@@ -34131,7 +34351,7 @@
       <c r="BN134" s="2">
         <v>88</v>
       </c>
-      <c r="BO134" s="51" t="s">
+      <c r="BO134" s="49" t="s">
         <v>2628</v>
       </c>
     </row>
@@ -34145,7 +34365,7 @@
       <c r="BN135" s="2">
         <v>89</v>
       </c>
-      <c r="BO135" s="51" t="s">
+      <c r="BO135" s="49" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -34159,7 +34379,7 @@
       <c r="BN136" s="2">
         <v>90</v>
       </c>
-      <c r="BO136" s="51" t="s">
+      <c r="BO136" s="49" t="s">
         <v>2626</v>
       </c>
     </row>
@@ -34173,7 +34393,7 @@
       <c r="BN137" s="2">
         <v>91</v>
       </c>
-      <c r="BO137" s="51" t="s">
+      <c r="BO137" s="49" t="s">
         <v>2625</v>
       </c>
     </row>
@@ -34187,7 +34407,7 @@
       <c r="BN138" s="2">
         <v>92</v>
       </c>
-      <c r="BO138" s="51" t="s">
+      <c r="BO138" s="49" t="s">
         <v>2624</v>
       </c>
     </row>
@@ -34201,7 +34421,7 @@
       <c r="BN139" s="2">
         <v>93</v>
       </c>
-      <c r="BO139" s="51" t="s">
+      <c r="BO139" s="49" t="s">
         <v>2623</v>
       </c>
     </row>
@@ -34215,7 +34435,7 @@
       <c r="BN140" s="2">
         <v>94</v>
       </c>
-      <c r="BO140" s="51" t="s">
+      <c r="BO140" s="49" t="s">
         <v>2622</v>
       </c>
     </row>
@@ -34229,7 +34449,7 @@
       <c r="BN141" s="2">
         <v>95</v>
       </c>
-      <c r="BO141" s="51" t="s">
+      <c r="BO141" s="49" t="s">
         <v>2621</v>
       </c>
     </row>
@@ -34243,7 +34463,7 @@
       <c r="BN142" s="2">
         <v>96</v>
       </c>
-      <c r="BO142" s="51" t="s">
+      <c r="BO142" s="49" t="s">
         <v>1129</v>
       </c>
     </row>
@@ -34257,7 +34477,7 @@
       <c r="BN143" s="2">
         <v>97</v>
       </c>
-      <c r="BO143" s="51" t="s">
+      <c r="BO143" s="49" t="s">
         <v>2620</v>
       </c>
     </row>
@@ -34271,7 +34491,7 @@
       <c r="BN144" s="2">
         <v>98</v>
       </c>
-      <c r="BO144" s="51" t="s">
+      <c r="BO144" s="49" t="s">
         <v>2619</v>
       </c>
     </row>
@@ -34285,7 +34505,7 @@
       <c r="BN145" s="2">
         <v>99</v>
       </c>
-      <c r="BO145" s="51" t="s">
+      <c r="BO145" s="49" t="s">
         <v>2618</v>
       </c>
     </row>
@@ -34299,7 +34519,7 @@
       <c r="BN146" s="2">
         <v>100</v>
       </c>
-      <c r="BO146" s="51" t="s">
+      <c r="BO146" s="49" t="s">
         <v>2617</v>
       </c>
     </row>
@@ -34313,7 +34533,7 @@
       <c r="BN147" s="2">
         <v>101</v>
       </c>
-      <c r="BO147" s="51" t="s">
+      <c r="BO147" s="49" t="s">
         <v>2616</v>
       </c>
     </row>
@@ -34327,7 +34547,7 @@
       <c r="BN148" s="2">
         <v>102</v>
       </c>
-      <c r="BO148" s="51" t="s">
+      <c r="BO148" s="49" t="s">
         <v>2615</v>
       </c>
     </row>
@@ -34341,7 +34561,7 @@
       <c r="BN149" s="2">
         <v>103</v>
       </c>
-      <c r="BO149" s="51" t="s">
+      <c r="BO149" s="49" t="s">
         <v>2614</v>
       </c>
     </row>
@@ -34355,7 +34575,7 @@
       <c r="BN150" s="2">
         <v>104</v>
       </c>
-      <c r="BO150" s="51" t="s">
+      <c r="BO150" s="49" t="s">
         <v>2613</v>
       </c>
     </row>
@@ -34369,7 +34589,7 @@
       <c r="BN151" s="2">
         <v>105</v>
       </c>
-      <c r="BO151" s="51" t="s">
+      <c r="BO151" s="49" t="s">
         <v>2612</v>
       </c>
     </row>
@@ -34383,7 +34603,7 @@
       <c r="BN152" s="2">
         <v>106</v>
       </c>
-      <c r="BO152" s="51" t="s">
+      <c r="BO152" s="49" t="s">
         <v>2611</v>
       </c>
     </row>
@@ -34397,7 +34617,7 @@
       <c r="BN153" s="2">
         <v>107</v>
       </c>
-      <c r="BO153" s="51" t="s">
+      <c r="BO153" s="49" t="s">
         <v>2610</v>
       </c>
     </row>
@@ -34411,7 +34631,7 @@
       <c r="BN154" s="2">
         <v>108</v>
       </c>
-      <c r="BO154" s="51" t="s">
+      <c r="BO154" s="49" t="s">
         <v>2609</v>
       </c>
     </row>
@@ -34425,7 +34645,7 @@
       <c r="BN155" s="2">
         <v>109</v>
       </c>
-      <c r="BO155" s="51" t="s">
+      <c r="BO155" s="49" t="s">
         <v>2608</v>
       </c>
     </row>
@@ -34439,7 +34659,7 @@
       <c r="BN156" s="2">
         <v>110</v>
       </c>
-      <c r="BO156" s="51" t="s">
+      <c r="BO156" s="49" t="s">
         <v>2607</v>
       </c>
     </row>
@@ -34453,7 +34673,7 @@
       <c r="BN157" s="2">
         <v>111</v>
       </c>
-      <c r="BO157" s="51" t="s">
+      <c r="BO157" s="49" t="s">
         <v>2606</v>
       </c>
     </row>
@@ -34467,7 +34687,7 @@
       <c r="BN158" s="2">
         <v>112</v>
       </c>
-      <c r="BO158" s="51" t="s">
+      <c r="BO158" s="49" t="s">
         <v>2605</v>
       </c>
     </row>
@@ -34481,7 +34701,7 @@
       <c r="BN159" s="2">
         <v>113</v>
       </c>
-      <c r="BO159" s="51" t="s">
+      <c r="BO159" s="49" t="s">
         <v>2604</v>
       </c>
     </row>
@@ -34495,7 +34715,7 @@
       <c r="BN160" s="2">
         <v>114</v>
       </c>
-      <c r="BO160" s="51" t="s">
+      <c r="BO160" s="49" t="s">
         <v>2603</v>
       </c>
     </row>
@@ -34509,7 +34729,7 @@
       <c r="BN161" s="2">
         <v>115</v>
       </c>
-      <c r="BO161" s="51" t="s">
+      <c r="BO161" s="49" t="s">
         <v>2602</v>
       </c>
     </row>
@@ -34523,7 +34743,7 @@
       <c r="BN162" s="2">
         <v>116</v>
       </c>
-      <c r="BO162" s="51" t="s">
+      <c r="BO162" s="49" t="s">
         <v>2601</v>
       </c>
     </row>
@@ -34537,7 +34757,7 @@
       <c r="BN163" s="2">
         <v>117</v>
       </c>
-      <c r="BO163" s="51" t="s">
+      <c r="BO163" s="49" t="s">
         <v>2600</v>
       </c>
     </row>
@@ -34551,7 +34771,7 @@
       <c r="BN164" s="2">
         <v>118</v>
       </c>
-      <c r="BO164" s="51" t="s">
+      <c r="BO164" s="49" t="s">
         <v>2599</v>
       </c>
     </row>
@@ -34565,7 +34785,7 @@
       <c r="BN165" s="2">
         <v>119</v>
       </c>
-      <c r="BO165" s="51" t="s">
+      <c r="BO165" s="49" t="s">
         <v>2598</v>
       </c>
     </row>
@@ -34579,7 +34799,7 @@
       <c r="BN166" s="2">
         <v>120</v>
       </c>
-      <c r="BO166" s="51" t="s">
+      <c r="BO166" s="49" t="s">
         <v>2597</v>
       </c>
     </row>
@@ -34593,7 +34813,7 @@
       <c r="BN167" s="2">
         <v>121</v>
       </c>
-      <c r="BO167" s="51" t="s">
+      <c r="BO167" s="49" t="s">
         <v>2596</v>
       </c>
     </row>
@@ -34607,7 +34827,7 @@
       <c r="BN168" s="2">
         <v>122</v>
       </c>
-      <c r="BO168" s="51" t="s">
+      <c r="BO168" s="49" t="s">
         <v>2595</v>
       </c>
     </row>
@@ -34621,7 +34841,7 @@
       <c r="BN169" s="2">
         <v>123</v>
       </c>
-      <c r="BO169" s="51" t="s">
+      <c r="BO169" s="49" t="s">
         <v>2594</v>
       </c>
     </row>
@@ -34635,7 +34855,7 @@
       <c r="BN170" s="2">
         <v>124</v>
       </c>
-      <c r="BO170" s="51" t="s">
+      <c r="BO170" s="49" t="s">
         <v>2593</v>
       </c>
     </row>
@@ -34649,7 +34869,7 @@
       <c r="BN171" s="2">
         <v>125</v>
       </c>
-      <c r="BO171" s="51" t="s">
+      <c r="BO171" s="49" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -34663,7 +34883,7 @@
       <c r="BN172" s="2">
         <v>126</v>
       </c>
-      <c r="BO172" s="51" t="s">
+      <c r="BO172" s="49" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -34677,7 +34897,7 @@
       <c r="BN173" s="2">
         <v>127</v>
       </c>
-      <c r="BO173" s="51" t="s">
+      <c r="BO173" s="49" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -34691,7 +34911,7 @@
       <c r="BN174" s="2">
         <v>128</v>
       </c>
-      <c r="BO174" s="51" t="s">
+      <c r="BO174" s="49" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -34705,7 +34925,7 @@
       <c r="BN175" s="2">
         <v>129</v>
       </c>
-      <c r="BO175" s="51" t="s">
+      <c r="BO175" s="49" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -34719,7 +34939,7 @@
       <c r="BN176" s="2">
         <v>130</v>
       </c>
-      <c r="BO176" s="51" t="s">
+      <c r="BO176" s="49" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -34733,7 +34953,7 @@
       <c r="BN177" s="2">
         <v>131</v>
       </c>
-      <c r="BO177" s="51" t="s">
+      <c r="BO177" s="49" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -34747,7 +34967,7 @@
       <c r="BN178" s="2">
         <v>132</v>
       </c>
-      <c r="BO178" s="51" t="s">
+      <c r="BO178" s="49" t="s">
         <v>2585</v>
       </c>
     </row>
@@ -34755,7 +34975,7 @@
       <c r="BN179" s="2">
         <v>133</v>
       </c>
-      <c r="BO179" s="51" t="s">
+      <c r="BO179" s="49" t="s">
         <v>2584</v>
       </c>
     </row>
@@ -34763,7 +34983,7 @@
       <c r="BN180" s="2">
         <v>134</v>
       </c>
-      <c r="BO180" s="51" t="s">
+      <c r="BO180" s="49" t="s">
         <v>2583</v>
       </c>
     </row>
@@ -34771,7 +34991,7 @@
       <c r="BN181" s="2">
         <v>135</v>
       </c>
-      <c r="BO181" s="51" t="s">
+      <c r="BO181" s="49" t="s">
         <v>2582</v>
       </c>
     </row>
@@ -34779,7 +34999,7 @@
       <c r="BN182" s="2">
         <v>136</v>
       </c>
-      <c r="BO182" s="51" t="s">
+      <c r="BO182" s="49" t="s">
         <v>2581</v>
       </c>
     </row>
@@ -34787,7 +35007,7 @@
       <c r="BN183" s="2">
         <v>137</v>
       </c>
-      <c r="BO183" s="51" t="s">
+      <c r="BO183" s="49" t="s">
         <v>2580</v>
       </c>
     </row>
@@ -34795,7 +35015,7 @@
       <c r="BN184" s="2">
         <v>138</v>
       </c>
-      <c r="BO184" s="51" t="s">
+      <c r="BO184" s="49" t="s">
         <v>2499</v>
       </c>
     </row>
@@ -34803,7 +35023,7 @@
       <c r="BN185" s="2">
         <v>139</v>
       </c>
-      <c r="BO185" s="51" t="s">
+      <c r="BO185" s="49" t="s">
         <v>2579</v>
       </c>
     </row>
@@ -34811,7 +35031,7 @@
       <c r="BN186" s="2">
         <v>140</v>
       </c>
-      <c r="BO186" s="51" t="s">
+      <c r="BO186" s="49" t="s">
         <v>1759</v>
       </c>
     </row>
@@ -34819,7 +35039,7 @@
       <c r="BN187" s="2">
         <v>141</v>
       </c>
-      <c r="BO187" s="51" t="s">
+      <c r="BO187" s="49" t="s">
         <v>2578</v>
       </c>
     </row>
@@ -34827,7 +35047,7 @@
       <c r="BN188" s="2">
         <v>142</v>
       </c>
-      <c r="BO188" s="51" t="s">
+      <c r="BO188" s="49" t="s">
         <v>2577</v>
       </c>
     </row>
@@ -34835,7 +35055,7 @@
       <c r="BN189" s="2">
         <v>143</v>
       </c>
-      <c r="BO189" s="51" t="s">
+      <c r="BO189" s="49" t="s">
         <v>2576</v>
       </c>
     </row>
@@ -34843,7 +35063,7 @@
       <c r="BN190" s="2">
         <v>144</v>
       </c>
-      <c r="BO190" s="51" t="s">
+      <c r="BO190" s="49" t="s">
         <v>2575</v>
       </c>
     </row>
@@ -34851,7 +35071,7 @@
       <c r="BN191" s="2">
         <v>145</v>
       </c>
-      <c r="BO191" s="51" t="s">
+      <c r="BO191" s="49" t="s">
         <v>2574</v>
       </c>
     </row>
@@ -34859,7 +35079,7 @@
       <c r="BN192" s="2">
         <v>146</v>
       </c>
-      <c r="BO192" s="51" t="s">
+      <c r="BO192" s="49" t="s">
         <v>2573</v>
       </c>
     </row>
@@ -34867,7 +35087,7 @@
       <c r="BN193" s="2">
         <v>147</v>
       </c>
-      <c r="BO193" s="51" t="s">
+      <c r="BO193" s="49" t="s">
         <v>2572</v>
       </c>
     </row>
@@ -34875,7 +35095,7 @@
       <c r="BN194" s="2">
         <v>148</v>
       </c>
-      <c r="BO194" s="51" t="s">
+      <c r="BO194" s="49" t="s">
         <v>2571</v>
       </c>
     </row>
@@ -34883,7 +35103,7 @@
       <c r="BN195" s="2">
         <v>149</v>
       </c>
-      <c r="BO195" s="51" t="s">
+      <c r="BO195" s="49" t="s">
         <v>2570</v>
       </c>
     </row>
@@ -34891,7 +35111,7 @@
       <c r="BN196" s="2">
         <v>150</v>
       </c>
-      <c r="BO196" s="51" t="s">
+      <c r="BO196" s="49" t="s">
         <v>2569</v>
       </c>
     </row>
@@ -34899,7 +35119,7 @@
       <c r="BN197" s="2">
         <v>151</v>
       </c>
-      <c r="BO197" s="51" t="s">
+      <c r="BO197" s="49" t="s">
         <v>2568</v>
       </c>
     </row>
@@ -34907,7 +35127,7 @@
       <c r="BN198" s="2">
         <v>152</v>
       </c>
-      <c r="BO198" s="51" t="s">
+      <c r="BO198" s="49" t="s">
         <v>2567</v>
       </c>
     </row>
@@ -34915,7 +35135,7 @@
       <c r="BN199" s="2">
         <v>153</v>
       </c>
-      <c r="BO199" s="51" t="s">
+      <c r="BO199" s="49" t="s">
         <v>2566</v>
       </c>
     </row>
@@ -34923,7 +35143,7 @@
       <c r="BN200" s="2">
         <v>154</v>
       </c>
-      <c r="BO200" s="51" t="s">
+      <c r="BO200" s="49" t="s">
         <v>2565</v>
       </c>
     </row>
@@ -34931,7 +35151,7 @@
       <c r="BN201" s="2">
         <v>155</v>
       </c>
-      <c r="BO201" s="51" t="s">
+      <c r="BO201" s="49" t="s">
         <v>896</v>
       </c>
     </row>
@@ -34939,7 +35159,7 @@
       <c r="BN202" s="2">
         <v>156</v>
       </c>
-      <c r="BO202" s="51" t="s">
+      <c r="BO202" s="49" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -34947,7 +35167,7 @@
       <c r="BN203" s="2">
         <v>157</v>
       </c>
-      <c r="BO203" s="51" t="s">
+      <c r="BO203" s="49" t="s">
         <v>2563</v>
       </c>
     </row>
@@ -34955,7 +35175,7 @@
       <c r="BN204" s="2">
         <v>158</v>
       </c>
-      <c r="BO204" s="51" t="s">
+      <c r="BO204" s="49" t="s">
         <v>2562</v>
       </c>
     </row>
@@ -34963,7 +35183,7 @@
       <c r="BN205" s="2">
         <v>159</v>
       </c>
-      <c r="BO205" s="51" t="s">
+      <c r="BO205" s="49" t="s">
         <v>2561</v>
       </c>
     </row>
@@ -34971,7 +35191,7 @@
       <c r="BN206" s="2">
         <v>160</v>
       </c>
-      <c r="BO206" s="51" t="s">
+      <c r="BO206" s="49" t="s">
         <v>2560</v>
       </c>
     </row>
@@ -34979,7 +35199,7 @@
       <c r="BN207" s="2">
         <v>161</v>
       </c>
-      <c r="BO207" s="51" t="s">
+      <c r="BO207" s="49" t="s">
         <v>2559</v>
       </c>
     </row>
@@ -34987,7 +35207,7 @@
       <c r="BN208" s="2">
         <v>162</v>
       </c>
-      <c r="BO208" s="51" t="s">
+      <c r="BO208" s="49" t="s">
         <v>2558</v>
       </c>
     </row>
@@ -34995,7 +35215,7 @@
       <c r="BN209" s="2">
         <v>163</v>
       </c>
-      <c r="BO209" s="51" t="s">
+      <c r="BO209" s="49" t="s">
         <v>2557</v>
       </c>
     </row>
@@ -35003,7 +35223,7 @@
       <c r="BN210" s="2">
         <v>164</v>
       </c>
-      <c r="BO210" s="51" t="s">
+      <c r="BO210" s="49" t="s">
         <v>2556</v>
       </c>
     </row>
@@ -35011,7 +35231,7 @@
       <c r="BN211" s="2">
         <v>165</v>
       </c>
-      <c r="BO211" s="51" t="s">
+      <c r="BO211" s="49" t="s">
         <v>2555</v>
       </c>
     </row>
@@ -35019,7 +35239,7 @@
       <c r="BN212" s="2">
         <v>166</v>
       </c>
-      <c r="BO212" s="51" t="s">
+      <c r="BO212" s="49" t="s">
         <v>2554</v>
       </c>
     </row>
@@ -35027,7 +35247,7 @@
       <c r="BN213" s="2">
         <v>167</v>
       </c>
-      <c r="BO213" s="51" t="s">
+      <c r="BO213" s="49" t="s">
         <v>2553</v>
       </c>
     </row>
@@ -35035,7 +35255,7 @@
       <c r="BN214" s="2">
         <v>168</v>
       </c>
-      <c r="BO214" s="51" t="s">
+      <c r="BO214" s="49" t="s">
         <v>1131</v>
       </c>
     </row>
@@ -35043,7 +35263,7 @@
       <c r="BN215" s="2">
         <v>169</v>
       </c>
-      <c r="BO215" s="51" t="s">
+      <c r="BO215" s="49" t="s">
         <v>2552</v>
       </c>
     </row>
@@ -35051,7 +35271,7 @@
       <c r="BN216" s="2">
         <v>170</v>
       </c>
-      <c r="BO216" s="51" t="s">
+      <c r="BO216" s="49" t="s">
         <v>2551</v>
       </c>
     </row>
@@ -35059,7 +35279,7 @@
       <c r="BN217" s="2">
         <v>171</v>
       </c>
-      <c r="BO217" s="51" t="s">
+      <c r="BO217" s="49" t="s">
         <v>2550</v>
       </c>
     </row>
@@ -35067,7 +35287,7 @@
       <c r="BN218" s="2">
         <v>172</v>
       </c>
-      <c r="BO218" s="51" t="s">
+      <c r="BO218" s="49" t="s">
         <v>2549</v>
       </c>
     </row>
@@ -35075,19 +35295,12 @@
       <c r="BN219" s="2">
         <v>173</v>
       </c>
-      <c r="BO219" s="51" t="s">
+      <c r="BO219" s="49" t="s">
         <v>2548</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="BW1:CA1"/>
-    <mergeCell ref="AL7:AL10"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AW20:AW21"/>
-    <mergeCell ref="BA35:BA36"/>
-    <mergeCell ref="BK42:BK45"/>
-    <mergeCell ref="AL11:AL12"/>
     <mergeCell ref="B1:AK1"/>
     <mergeCell ref="AN1:AV1"/>
     <mergeCell ref="AY1:BU1"/>
@@ -35095,6 +35308,13 @@
     <mergeCell ref="BD42:BD45"/>
     <mergeCell ref="BH42:BH44"/>
     <mergeCell ref="BH45:BH47"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="BW1:CA1"/>
+    <mergeCell ref="AL7:AL10"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AW20:AW21"/>
+    <mergeCell ref="BA35:BA36"/>
+    <mergeCell ref="AL11:AL12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
